--- a/Zawodnicy_CSGO.xlsx
+++ b/Zawodnicy_CSGO.xlsx
@@ -1,19 +1,1079 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I9\Documents\GitHub\PrivateMusicBot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19992045-9786-4A89-BC5B-6327619EDEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="349">
+  <si>
+    <t>Drużyna</t>
+  </si>
+  <si>
+    <t>Zawodnicy</t>
+  </si>
+  <si>
+    <t>Total Kills</t>
+  </si>
+  <si>
+    <t>Total Assists</t>
+  </si>
+  <si>
+    <t>Total Deaths</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>1. Kills</t>
+  </si>
+  <si>
+    <t>1. Assists</t>
+  </si>
+  <si>
+    <t>1. Deaths</t>
+  </si>
+  <si>
+    <t>2. Kills</t>
+  </si>
+  <si>
+    <t>2. Assists</t>
+  </si>
+  <si>
+    <t>2. Deaths</t>
+  </si>
+  <si>
+    <t>3. Kills</t>
+  </si>
+  <si>
+    <t>3. Assists</t>
+  </si>
+  <si>
+    <t>3. Deaths</t>
+  </si>
+  <si>
+    <t>4. Kills</t>
+  </si>
+  <si>
+    <t>4. Assists</t>
+  </si>
+  <si>
+    <t>4. Deaths</t>
+  </si>
+  <si>
+    <t>5. Kills</t>
+  </si>
+  <si>
+    <t>5. Assists</t>
+  </si>
+  <si>
+    <t>5. Deaths</t>
+  </si>
+  <si>
+    <t>6. Kills</t>
+  </si>
+  <si>
+    <t>6. Assists</t>
+  </si>
+  <si>
+    <t>6. Deaths</t>
+  </si>
+  <si>
+    <t>7. Kills</t>
+  </si>
+  <si>
+    <t>7. Assists</t>
+  </si>
+  <si>
+    <t>7. Deaths</t>
+  </si>
+  <si>
+    <t>8. Kills</t>
+  </si>
+  <si>
+    <t>8. Assists</t>
+  </si>
+  <si>
+    <t>8. Deaths</t>
+  </si>
+  <si>
+    <t>9. Kills</t>
+  </si>
+  <si>
+    <t>9. Assists</t>
+  </si>
+  <si>
+    <t>9. Deaths</t>
+  </si>
+  <si>
+    <t>10. Kills</t>
+  </si>
+  <si>
+    <t>10. Assists</t>
+  </si>
+  <si>
+    <t>10. Deaths</t>
+  </si>
+  <si>
+    <t>Bomble Bombla Juniora-B-BJ</t>
+  </si>
+  <si>
+    <t>Liczpuk</t>
+  </si>
+  <si>
+    <t>Kongelig Leverig</t>
+  </si>
+  <si>
+    <t>derko12</t>
+  </si>
+  <si>
+    <t>WestWawa!</t>
+  </si>
+  <si>
+    <t>Makksio</t>
+  </si>
+  <si>
+    <t>PrzepalonyDecybel</t>
+  </si>
+  <si>
+    <t>Drivell</t>
+  </si>
+  <si>
+    <t>mikuś</t>
+  </si>
+  <si>
+    <t>BOT pralka</t>
+  </si>
+  <si>
+    <t>PISZCZACA OPONA</t>
+  </si>
+  <si>
+    <t>Esconda 99</t>
+  </si>
+  <si>
+    <t>getkozaur</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Aspoleczne Simpy Balladyny Esports</t>
+  </si>
+  <si>
+    <t>Gilek987</t>
+  </si>
+  <si>
+    <t>Charakterni</t>
+  </si>
+  <si>
+    <t>Jankooss</t>
+  </si>
+  <si>
+    <t>DJ, Drużyna z Jeziora</t>
+  </si>
+  <si>
+    <t>Lolopes2K</t>
+  </si>
+  <si>
+    <t>FF Team</t>
+  </si>
+  <si>
+    <t>kijio</t>
+  </si>
+  <si>
+    <t>Fikuśny Gaming</t>
+  </si>
+  <si>
+    <t>Ezil77</t>
+  </si>
+  <si>
+    <t>FULL BOLID</t>
+  </si>
+  <si>
+    <t>Paprot_PL</t>
+  </si>
+  <si>
+    <t>Inshallah</t>
+  </si>
+  <si>
+    <t>_jnz_</t>
+  </si>
+  <si>
+    <t>KARGONELLO</t>
+  </si>
+  <si>
+    <t>Kar1mq</t>
+  </si>
+  <si>
+    <t>Polonia Napleton</t>
+  </si>
+  <si>
+    <t>Ziemniok_05</t>
+  </si>
+  <si>
+    <t>Ribbi</t>
+  </si>
+  <si>
+    <t>szypki_bill</t>
+  </si>
+  <si>
+    <t>Smolas</t>
+  </si>
+  <si>
+    <t>Bielzibab</t>
+  </si>
+  <si>
+    <t>Wolfgang</t>
+  </si>
+  <si>
+    <t>hansi</t>
+  </si>
+  <si>
+    <t>Warzywka</t>
+  </si>
+  <si>
+    <t>djkeeyn</t>
+  </si>
+  <si>
+    <t>3.43</t>
+  </si>
+  <si>
+    <t>Profanacja</t>
+  </si>
+  <si>
+    <t>Antonix1</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>Kosiarze</t>
+  </si>
+  <si>
+    <t>Faacik</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>Julusie</t>
+  </si>
+  <si>
+    <t>chinamoney77</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>Luxy</t>
+  </si>
+  <si>
+    <t>1.96</t>
+  </si>
+  <si>
+    <t>zabollll</t>
+  </si>
+  <si>
+    <t>1.91</t>
+  </si>
+  <si>
+    <t>GumaOrb1t</t>
+  </si>
+  <si>
+    <t>1.84</t>
+  </si>
+  <si>
+    <t>de_presja</t>
+  </si>
+  <si>
+    <t>Ikasabess</t>
+  </si>
+  <si>
+    <t>1.67</t>
+  </si>
+  <si>
+    <t>Creedddd12</t>
+  </si>
+  <si>
+    <t>1.66</t>
+  </si>
+  <si>
+    <t>popel2003</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>Rewek</t>
+  </si>
+  <si>
+    <t>MANTUUUUUUUU</t>
+  </si>
+  <si>
+    <t>Walter14</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>Quantity team</t>
+  </si>
+  <si>
+    <t>SzwyQ</t>
+  </si>
+  <si>
+    <t>1.63</t>
+  </si>
+  <si>
+    <t>itsTeeP</t>
+  </si>
+  <si>
+    <t>"-arju"</t>
+  </si>
+  <si>
+    <t>1.77</t>
+  </si>
+  <si>
+    <t>Connector Players</t>
+  </si>
+  <si>
+    <t>Dyberly</t>
+  </si>
+  <si>
+    <t>1.60</t>
+  </si>
+  <si>
+    <t>grzybiarz132</t>
+  </si>
+  <si>
+    <t>AKKJPZ</t>
+  </si>
+  <si>
+    <t>Imrealghost</t>
+  </si>
+  <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>BoBo__69</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>Brazylisjkie Kasztany</t>
+  </si>
+  <si>
+    <t>Krikrox</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>Marchello_ez</t>
+  </si>
+  <si>
+    <t>1.49</t>
+  </si>
+  <si>
+    <t>Po prostu Kołłątaj</t>
+  </si>
+  <si>
+    <t>freeezix46</t>
+  </si>
+  <si>
+    <t>TTH_btw</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>"154925161206"</t>
+  </si>
+  <si>
+    <t>1.45</t>
+  </si>
+  <si>
+    <t>REXIHN0</t>
+  </si>
+  <si>
+    <t>Amireczek</t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
+    <t>Gniewcio20</t>
+  </si>
+  <si>
+    <t>Krychaa_</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>adax_io</t>
+  </si>
+  <si>
+    <t>WasiuS</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>budzix</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>l_like_Ikea</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>FireEagles</t>
+  </si>
+  <si>
+    <t>Vivoxi</t>
+  </si>
+  <si>
+    <t>_z00n</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>_Franiuuu_</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>Hyper30k</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>Kobraa9</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>TheShhadow</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>misiek12_ste</t>
+  </si>
+  <si>
+    <t>WPMEKobonga</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>boberitooo</t>
+  </si>
+  <si>
+    <t>Czarna_Zjawa</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>Kioshi-kun</t>
+  </si>
+  <si>
+    <t>SameK-</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>ScramScram</t>
+  </si>
+  <si>
+    <t>patry_mdfkr</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>derv1ll</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>Los Defectos</t>
+  </si>
+  <si>
+    <t>_-_Matix_-_</t>
+  </si>
+  <si>
+    <t>ad3ionix</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>Dunneo</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Vojtaz_ </t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>AirAustin77</t>
+  </si>
+  <si>
+    <t>W1LQ_</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>SkilluPlayz</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>Sneaky Inters</t>
+  </si>
+  <si>
+    <t>slodkazuzia</t>
+  </si>
+  <si>
+    <t>MzRY7</t>
+  </si>
+  <si>
+    <t>Grocik_</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>Bukaj262</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>CJ DOGS</t>
+  </si>
+  <si>
+    <t>Arax909</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>sytek2137</t>
+  </si>
+  <si>
+    <t>__Jasper--</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>PLVanishPL</t>
+  </si>
+  <si>
+    <t>adamch</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>R4egz</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>Ruzyk</t>
+  </si>
+  <si>
+    <t>Gmina Czarków</t>
+  </si>
+  <si>
+    <t>TanQ31</t>
+  </si>
+  <si>
+    <t>Ste3wi</t>
+  </si>
+  <si>
+    <t>CallmeMg</t>
+  </si>
+  <si>
+    <t>FikusnyHubi</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>sebix05</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>SlodkaOla13</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>Extr3m0_</t>
+  </si>
+  <si>
+    <t>SPKILL</t>
+  </si>
+  <si>
+    <t>siurenis</t>
+  </si>
+  <si>
+    <t>pozuc_jr</t>
+  </si>
+  <si>
+    <t>ScreamingKek</t>
+  </si>
+  <si>
+    <t>Votix654</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>sznycel901</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>borajs</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>DogguTonix</t>
+  </si>
+  <si>
+    <t>rymszak</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>Elifusek</t>
+  </si>
+  <si>
+    <t>NeverMind-d2</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>Wasil1</t>
+  </si>
+  <si>
+    <t>EPCarbonara</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>6julus9</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>Fisze</t>
+  </si>
+  <si>
+    <t>fiji___</t>
+  </si>
+  <si>
+    <t>T0B3R</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>Robcio76</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>LordJurkon</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>yebac_psy</t>
+  </si>
+  <si>
+    <t>Breslau_</t>
+  </si>
+  <si>
+    <t>arabinho15</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>EndoJD</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>Sciudi</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>peczu123</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>_Righty_</t>
+  </si>
+  <si>
+    <t>Ogon__</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>103adam</t>
+  </si>
+  <si>
+    <t>_BushMan_</t>
+  </si>
+  <si>
+    <t>MiresPL</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>tatapiotr</t>
+  </si>
+  <si>
+    <t>bobiszone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> qksn</t>
+  </si>
+  <si>
+    <t>luzny_1</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>Opel_cors_a</t>
+  </si>
+  <si>
+    <t>GoFrYy</t>
+  </si>
+  <si>
+    <t>SajmoN-_-</t>
+  </si>
+  <si>
+    <t>czarnybajcek</t>
+  </si>
+  <si>
+    <t>HEEDOoficial</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>DZREWOPL</t>
+  </si>
+  <si>
+    <t>jastrzab23</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>Krzycho2000</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>miensyjerz</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>Vikoos</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>slodkakasia</t>
+  </si>
+  <si>
+    <t>ToNieYxa</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>Amabro</t>
+  </si>
+  <si>
+    <t>maks3lo</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>Tomeczek_217</t>
+  </si>
+  <si>
+    <t>___Mat_</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>Tengli</t>
+  </si>
+  <si>
+    <t>Kocham_ciee</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>Tomon080</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>Af3ra</t>
+  </si>
+  <si>
+    <t>s1r_Avocado</t>
+  </si>
+  <si>
+    <t>FlyingCowPL</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>17Zwola17</t>
+  </si>
+  <si>
+    <t>Gromik12213</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>guma durex</t>
+  </si>
+  <si>
+    <t>YkkaAsfeo</t>
+  </si>
+  <si>
+    <t>PieZ__</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>gucioM</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>majkel_MP3</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>4VOCADOM4N</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>_Johnny_14</t>
+  </si>
+  <si>
+    <t>styblinez</t>
+  </si>
+  <si>
+    <t>Lonley7</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>skaM43_</t>
+  </si>
+  <si>
+    <t>zaleszczakk</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>Vajking_</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>SENTER_</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>nedZiu04</t>
+  </si>
+  <si>
+    <t>eliminer_1</t>
+  </si>
+  <si>
+    <t>faFIQ</t>
+  </si>
+  <si>
+    <t>vixsemty</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>mehow_god</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>donotcrykid</t>
+  </si>
+  <si>
+    <t>miniu187</t>
+  </si>
+  <si>
+    <t>czosneg_</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>Chm0rnik</t>
+  </si>
+  <si>
+    <t>aeizyGod</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>AK-PePe</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>Slaweczuk</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>quick-ass</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>BOTPrzemysaw</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>StrongBrian</t>
+  </si>
+  <si>
+    <t>JanoDzik</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>Alanik</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>zgniatacz0</t>
+  </si>
+  <si>
+    <t>Ankard</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -46,10 +1106,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,128 +1442,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ185"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Drużyna</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Zawodnicy</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Total Kills</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Total Assists</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Total Deaths</v>
-      </c>
-      <c r="F1" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="G1" t="str">
-        <v>1. Kills</v>
-      </c>
-      <c r="H1" t="str">
-        <v>1. Assists</v>
-      </c>
-      <c r="I1" t="str">
-        <v>1. Deaths</v>
-      </c>
-      <c r="J1" t="str">
-        <v>2. Kills</v>
-      </c>
-      <c r="K1" t="str">
-        <v>2. Assists</v>
-      </c>
-      <c r="L1" t="str">
-        <v>2. Deaths</v>
-      </c>
-      <c r="M1" t="str">
-        <v>3. Kills</v>
-      </c>
-      <c r="N1" t="str">
-        <v>3. Assists</v>
-      </c>
-      <c r="O1" t="str">
-        <v>3. Deaths</v>
-      </c>
-      <c r="P1" t="str">
-        <v>4. Kills</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>4. Assists</v>
-      </c>
-      <c r="R1" t="str">
-        <v>4. Deaths</v>
-      </c>
-      <c r="S1" t="str">
-        <v>5. Kills</v>
-      </c>
-      <c r="T1" t="str">
-        <v>5. Assists</v>
-      </c>
-      <c r="U1" t="str">
-        <v>5. Deaths</v>
-      </c>
-      <c r="V1" t="str">
-        <v>6. Kills</v>
-      </c>
-      <c r="W1" t="str">
-        <v>6. Assists</v>
-      </c>
-      <c r="X1" t="str">
-        <v>6. Deaths</v>
-      </c>
-      <c r="Y1" t="str">
-        <v>7. Kills</v>
-      </c>
-      <c r="Z1" t="str">
-        <v>7. Assists</v>
-      </c>
-      <c r="AA1" t="str">
-        <v>7. Deaths</v>
-      </c>
-      <c r="AB1" t="str">
-        <v>8. Kills</v>
-      </c>
-      <c r="AC1" t="str">
-        <v>8. Assists</v>
-      </c>
-      <c r="AD1" t="str">
-        <v>8. Deaths</v>
-      </c>
-      <c r="AE1" t="str">
-        <v>9. Kills</v>
-      </c>
-      <c r="AF1" t="str">
-        <v>9. Assists</v>
-      </c>
-      <c r="AG1" t="str">
-        <v>9. Deaths</v>
-      </c>
-      <c r="AH1" t="str">
-        <v>10. Kills</v>
-      </c>
-      <c r="AI1" t="str">
-        <v>10. Assists</v>
-      </c>
-      <c r="AJ1" t="str">
-        <v>10. Deaths</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Bomble Bombla Juniora-B-BJ</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Liczpuk</v>
+    <row r="1" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -506,8 +1577,8 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="str">
-        <v>NaN</v>
+      <c r="F2" t="s">
+        <v>5</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -537,12 +1608,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Kongelig Leverig</v>
-      </c>
-      <c r="B3" t="str">
-        <v>derko12</v>
+    <row r="3" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -553,8 +1624,8 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" t="str">
-        <v>NaN</v>
+      <c r="F3" t="s">
+        <v>5</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -584,12 +1655,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>WestWawa!</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Makksio</v>
+    <row r="4" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -600,8 +1671,8 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="str">
-        <v>NaN</v>
+      <c r="F4" t="s">
+        <v>5</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -631,12 +1702,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>WestWawa!</v>
-      </c>
-      <c r="B5" t="str">
-        <v>PrzepalonyDecybel</v>
+    <row r="5" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -647,8 +1718,8 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="str">
-        <v>NaN</v>
+      <c r="F5" t="s">
+        <v>5</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -678,12 +1749,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>WestWawa!</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Drivell</v>
+    <row r="6" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -694,8 +1765,8 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="str">
-        <v>NaN</v>
+      <c r="F6" t="s">
+        <v>5</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -725,12 +1796,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>WestWawa!</v>
-      </c>
-      <c r="B7" t="str">
-        <v>mikuś</v>
+    <row r="7" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -741,8 +1812,8 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="str">
-        <v>NaN</v>
+      <c r="F7" t="s">
+        <v>5</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -772,12 +1843,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>WestWawa!</v>
-      </c>
-      <c r="B8" t="str">
-        <v>BOT pralka</v>
+    <row r="8" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -788,8 +1859,8 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="str">
-        <v>NaN</v>
+      <c r="F8" t="s">
+        <v>5</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -819,12 +1890,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>WestWawa!</v>
-      </c>
-      <c r="B9" t="str">
-        <v>PISZCZACA OPONA</v>
+    <row r="9" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -835,8 +1906,8 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" t="str">
-        <v>NaN</v>
+      <c r="F9" t="s">
+        <v>5</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -866,12 +1937,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Esconda 99</v>
-      </c>
-      <c r="B10" t="str">
-        <v>getkozaur</v>
+    <row r="10" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -879,11 +1950,11 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="G10" t="str">
-        <v>P</v>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -910,12 +1981,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Aspoleczne Simpy Balladyny Esports</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Gilek987</v>
+    <row r="11" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -926,8 +1997,8 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" t="str">
-        <v>NaN</v>
+      <c r="F11" t="s">
+        <v>5</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -956,22 +2027,13 @@
       <c r="O11">
         <v>0</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Charakterni</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Jankooss</v>
+    </row>
+    <row r="12" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -982,8 +2044,8 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" t="str">
-        <v>NaN</v>
+      <c r="F12" t="s">
+        <v>5</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1013,12 +2075,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>DJ, Drużyna z Jeziora</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Lolopes2K</v>
+    <row r="13" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1029,8 +2091,8 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" t="str">
-        <v>NaN</v>
+      <c r="F13" t="s">
+        <v>5</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1060,12 +2122,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>FF Team</v>
-      </c>
-      <c r="B14" t="str">
-        <v>kijio</v>
+    <row r="14" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1076,8 +2138,8 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" t="str">
-        <v>NaN</v>
+      <c r="F14" t="s">
+        <v>5</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1107,12 +2169,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Fikuśny Gaming</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Ezil77</v>
+    <row r="15" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1123,8 +2185,8 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" t="str">
-        <v>NaN</v>
+      <c r="F15" t="s">
+        <v>5</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1153,22 +2215,13 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>FULL BOLID</v>
-      </c>
-      <c r="B16" t="str">
-        <v>Paprot_PL</v>
+    </row>
+    <row r="16" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1179,8 +2232,8 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" t="str">
-        <v>NaN</v>
+      <c r="F16" t="s">
+        <v>5</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1209,22 +2262,13 @@
       <c r="O16">
         <v>0</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>Inshallah</v>
-      </c>
-      <c r="B17" t="str">
-        <v>_jnz_</v>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1235,8 +2279,8 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" t="str">
-        <v>NaN</v>
+      <c r="F17" t="s">
+        <v>5</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1265,22 +2309,13 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>KARGONELLO</v>
-      </c>
-      <c r="B18" t="str">
-        <v>Kar1mq</v>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1291,8 +2326,8 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" t="str">
-        <v>NaN</v>
+      <c r="F18" t="s">
+        <v>5</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1322,12 +2357,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>Polonia Napleton</v>
-      </c>
-      <c r="B19" t="str">
-        <v>Ziemniok_05</v>
+    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1338,8 +2373,8 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" t="str">
-        <v>NaN</v>
+      <c r="F19" t="s">
+        <v>5</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1369,12 +2404,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>Ribbi</v>
-      </c>
-      <c r="B20" t="str">
-        <v>szypki_bill</v>
+    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1385,8 +2420,8 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" t="str">
-        <v>NaN</v>
+      <c r="F20" t="s">
+        <v>5</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1416,12 +2451,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>Smolas</v>
-      </c>
-      <c r="B21" t="str">
-        <v>Bielzibab</v>
+    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1432,8 +2467,8 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" t="str">
-        <v>NaN</v>
+      <c r="F21" t="s">
+        <v>5</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1463,12 +2498,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>Wolfgang</v>
-      </c>
-      <c r="B22" t="str">
-        <v>hansi</v>
+    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1479,8 +2514,8 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" t="str">
-        <v>NaN</v>
+      <c r="F22" t="s">
+        <v>5</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1510,12 +2545,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>Warzywka</v>
-      </c>
-      <c r="B23" t="str">
-        <v>djkeeyn</v>
+    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
       </c>
       <c r="C23">
         <v>24</v>
@@ -1526,8 +2561,8 @@
       <c r="E23">
         <v>7</v>
       </c>
-      <c r="F23" t="str">
-        <v>3.43</v>
+      <c r="F23" t="s">
+        <v>76</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1557,12 +2592,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>Profanacja</v>
-      </c>
-      <c r="B24" t="str">
-        <v>Antonix1</v>
+    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
       </c>
       <c r="C24">
         <v>74</v>
@@ -1573,8 +2608,8 @@
       <c r="E24">
         <v>24</v>
       </c>
-      <c r="F24" t="str">
-        <v>3.08</v>
+      <c r="F24" t="s">
+        <v>79</v>
       </c>
       <c r="G24">
         <v>21</v>
@@ -1604,12 +2639,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>Kosiarze</v>
-      </c>
-      <c r="B25" t="str">
-        <v>Faacik</v>
+    <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
       </c>
       <c r="C25">
         <v>65</v>
@@ -1620,8 +2655,8 @@
       <c r="E25">
         <v>22</v>
       </c>
-      <c r="F25" t="str">
-        <v>2.95</v>
+      <c r="F25" t="s">
+        <v>82</v>
       </c>
       <c r="G25">
         <v>22</v>
@@ -1651,12 +2686,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>Julusie</v>
-      </c>
-      <c r="B26" t="str">
-        <v>chinamoney77</v>
+    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
       </c>
       <c r="C26">
         <v>92</v>
@@ -1667,8 +2702,8 @@
       <c r="E26">
         <v>39</v>
       </c>
-      <c r="F26" t="str">
-        <v>2.36</v>
+      <c r="F26" t="s">
+        <v>85</v>
       </c>
       <c r="G26">
         <v>31</v>
@@ -1698,12 +2733,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>Esconda 99</v>
-      </c>
-      <c r="B27" t="str">
-        <v>Luxy</v>
+    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
       </c>
       <c r="C27">
         <v>53</v>
@@ -1714,8 +2749,8 @@
       <c r="E27">
         <v>27</v>
       </c>
-      <c r="F27" t="str">
-        <v>1.96</v>
+      <c r="F27" t="s">
+        <v>87</v>
       </c>
       <c r="G27">
         <v>37</v>
@@ -1745,12 +2780,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>Kosiarze</v>
-      </c>
-      <c r="B28" t="str">
-        <v>zabollll</v>
+    <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
       </c>
       <c r="C28">
         <v>42</v>
@@ -1761,8 +2796,8 @@
       <c r="E28">
         <v>22</v>
       </c>
-      <c r="F28" t="str">
-        <v>1.91</v>
+      <c r="F28" t="s">
+        <v>89</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1792,12 +2827,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>Profanacja</v>
-      </c>
-      <c r="B29" t="str">
-        <v>GumaOrb1t</v>
+    <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
       </c>
       <c r="C29">
         <v>59</v>
@@ -1808,8 +2843,8 @@
       <c r="E29">
         <v>32</v>
       </c>
-      <c r="F29" t="str">
-        <v>1.84</v>
+      <c r="F29" t="s">
+        <v>91</v>
       </c>
       <c r="G29">
         <v>21</v>
@@ -1839,12 +2874,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>de_presja</v>
-      </c>
-      <c r="B30" t="str">
-        <v>Ikasabess</v>
+    <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
       </c>
       <c r="C30">
         <v>20</v>
@@ -1855,8 +2890,8 @@
       <c r="E30">
         <v>12</v>
       </c>
-      <c r="F30" t="str">
-        <v>1.67</v>
+      <c r="F30" t="s">
+        <v>94</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1886,12 +2921,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>Kosiarze</v>
-      </c>
-      <c r="B31" t="str">
-        <v>Creedddd12</v>
+    <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
       </c>
       <c r="C31">
         <v>58</v>
@@ -1902,8 +2937,8 @@
       <c r="E31">
         <v>35</v>
       </c>
-      <c r="F31" t="str">
-        <v>1.66</v>
+      <c r="F31" t="s">
+        <v>96</v>
       </c>
       <c r="G31">
         <v>26</v>
@@ -1933,12 +2968,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>Warzywka</v>
-      </c>
-      <c r="B32" t="str">
-        <v>popel2003</v>
+    <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s">
+        <v>97</v>
       </c>
       <c r="C32">
         <v>43</v>
@@ -1949,8 +2984,8 @@
       <c r="E32">
         <v>26</v>
       </c>
-      <c r="F32" t="str">
-        <v>1.65</v>
+      <c r="F32" t="s">
+        <v>98</v>
       </c>
       <c r="G32">
         <v>23</v>
@@ -1980,12 +3015,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>Kosiarze</v>
-      </c>
-      <c r="B33" t="str">
-        <v>Rewek</v>
+    <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
       </c>
       <c r="C33">
         <v>56</v>
@@ -1996,8 +3031,8 @@
       <c r="E33">
         <v>34</v>
       </c>
-      <c r="F33" t="str">
-        <v>1.65</v>
+      <c r="F33" t="s">
+        <v>98</v>
       </c>
       <c r="G33">
         <v>22</v>
@@ -2027,12 +3062,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>Profanacja</v>
-      </c>
-      <c r="B34" t="str">
-        <v>MANTUUUUUUUU</v>
+    <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
       </c>
       <c r="C34">
         <v>51</v>
@@ -2043,8 +3078,8 @@
       <c r="E34">
         <v>31</v>
       </c>
-      <c r="F34" t="str">
-        <v>1.65</v>
+      <c r="F34" t="s">
+        <v>98</v>
       </c>
       <c r="G34">
         <v>20</v>
@@ -2074,12 +3109,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>Inshallah</v>
-      </c>
-      <c r="B35" t="str">
-        <v>Walter14</v>
+    <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
       </c>
       <c r="C35">
         <v>99</v>
@@ -2090,8 +3125,8 @@
       <c r="E35">
         <v>59</v>
       </c>
-      <c r="F35" t="str">
-        <v>1.68</v>
+      <c r="F35" t="s">
+        <v>102</v>
       </c>
       <c r="G35">
         <v>35</v>
@@ -2120,22 +3155,13 @@
       <c r="O35">
         <v>13</v>
       </c>
-      <c r="P35">
-        <v>24</v>
-      </c>
-      <c r="Q35">
-        <v>4</v>
-      </c>
-      <c r="R35">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>Quantity team</v>
-      </c>
-      <c r="B36" t="str">
-        <v>SzwyQ</v>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
       </c>
       <c r="C36">
         <v>70</v>
@@ -2146,8 +3172,8 @@
       <c r="E36">
         <v>43</v>
       </c>
-      <c r="F36" t="str">
-        <v>1.63</v>
+      <c r="F36" t="s">
+        <v>105</v>
       </c>
       <c r="G36">
         <v>32</v>
@@ -2177,12 +3203,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>FULL BOLID</v>
-      </c>
-      <c r="B37" t="str">
-        <v>itsTeeP</v>
+    <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
       </c>
       <c r="C37">
         <v>104</v>
@@ -2193,8 +3219,8 @@
       <c r="E37">
         <v>64</v>
       </c>
-      <c r="F37" t="str">
-        <v>1.63</v>
+      <c r="F37" t="s">
+        <v>105</v>
       </c>
       <c r="G37">
         <v>26</v>
@@ -2223,22 +3249,13 @@
       <c r="O37">
         <v>17</v>
       </c>
-      <c r="P37">
-        <v>28</v>
-      </c>
-      <c r="Q37">
-        <v>4</v>
-      </c>
-      <c r="R37">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>FULL BOLID</v>
-      </c>
-      <c r="B38" t="str">
-        <v>"-arju"</v>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
+        <v>107</v>
       </c>
       <c r="C38">
         <v>99</v>
@@ -2249,8 +3266,8 @@
       <c r="E38">
         <v>56</v>
       </c>
-      <c r="F38" t="str">
-        <v>1.77</v>
+      <c r="F38" t="s">
+        <v>108</v>
       </c>
       <c r="G38">
         <v>14</v>
@@ -2279,22 +3296,13 @@
       <c r="O38">
         <v>13</v>
       </c>
-      <c r="P38">
-        <v>30</v>
-      </c>
-      <c r="Q38">
-        <v>2</v>
-      </c>
-      <c r="R38">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>Connector Players</v>
-      </c>
-      <c r="B39" t="str">
-        <v>Dyberly</v>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
       </c>
       <c r="C39">
         <v>77</v>
@@ -2305,8 +3313,8 @@
       <c r="E39">
         <v>48</v>
       </c>
-      <c r="F39" t="str">
-        <v>1.60</v>
+      <c r="F39" t="s">
+        <v>111</v>
       </c>
       <c r="G39">
         <v>14</v>
@@ -2336,12 +3344,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>FULL BOLID</v>
-      </c>
-      <c r="B40" t="str">
-        <v>grzybiarz132</v>
+    <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" t="s">
+        <v>112</v>
       </c>
       <c r="C40">
         <v>83</v>
@@ -2352,8 +3360,8 @@
       <c r="E40">
         <v>51</v>
       </c>
-      <c r="F40" t="str">
-        <v>1.63</v>
+      <c r="F40" t="s">
+        <v>105</v>
       </c>
       <c r="G40">
         <v>21</v>
@@ -2382,22 +3390,13 @@
       <c r="O40">
         <v>12</v>
       </c>
-      <c r="P40">
-        <v>21</v>
-      </c>
-      <c r="Q40">
-        <v>3</v>
-      </c>
-      <c r="R40">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>AKKJPZ</v>
-      </c>
-      <c r="B41" t="str">
-        <v>Imrealghost</v>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" t="s">
+        <v>114</v>
       </c>
       <c r="C41">
         <v>69</v>
@@ -2408,8 +3407,8 @@
       <c r="E41">
         <v>45</v>
       </c>
-      <c r="F41" t="str">
-        <v>1.53</v>
+      <c r="F41" t="s">
+        <v>115</v>
       </c>
       <c r="G41">
         <v>24</v>
@@ -2439,12 +3438,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>Wolfgang</v>
-      </c>
-      <c r="B42" t="str">
-        <v>BoBo__69</v>
+    <row r="42" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" t="s">
+        <v>116</v>
       </c>
       <c r="C42">
         <v>65</v>
@@ -2455,8 +3454,8 @@
       <c r="E42">
         <v>43</v>
       </c>
-      <c r="F42" t="str">
-        <v>1.51</v>
+      <c r="F42" t="s">
+        <v>117</v>
       </c>
       <c r="G42">
         <v>20</v>
@@ -2486,12 +3485,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>Brazylisjkie Kasztany</v>
-      </c>
-      <c r="B43" t="str">
-        <v>Krikrox</v>
+    <row r="43" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" t="s">
+        <v>119</v>
       </c>
       <c r="C43">
         <v>72</v>
@@ -2502,8 +3501,8 @@
       <c r="E43">
         <v>48</v>
       </c>
-      <c r="F43" t="str">
-        <v>1.50</v>
+      <c r="F43" t="s">
+        <v>120</v>
       </c>
       <c r="G43">
         <v>19</v>
@@ -2533,12 +3532,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>KARGONELLO</v>
-      </c>
-      <c r="B44" t="str">
-        <v>Marchello_ez</v>
+    <row r="44" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>121</v>
       </c>
       <c r="C44">
         <v>88</v>
@@ -2549,8 +3548,8 @@
       <c r="E44">
         <v>59</v>
       </c>
-      <c r="F44" t="str">
-        <v>1.49</v>
+      <c r="F44" t="s">
+        <v>122</v>
       </c>
       <c r="G44">
         <v>27</v>
@@ -2580,12 +3579,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>Po prostu Kołłątaj</v>
-      </c>
-      <c r="B45" t="str">
-        <v>freeezix46</v>
+    <row r="45" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" t="s">
+        <v>124</v>
       </c>
       <c r="C45">
         <v>67</v>
@@ -2596,8 +3595,8 @@
       <c r="E45">
         <v>45</v>
       </c>
-      <c r="F45" t="str">
-        <v>1.49</v>
+      <c r="F45" t="s">
+        <v>122</v>
       </c>
       <c r="G45">
         <v>22</v>
@@ -2627,12 +3626,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>Fikuśny Gaming</v>
-      </c>
-      <c r="B46" t="str">
-        <v>TTH_btw</v>
+    <row r="46" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" t="s">
+        <v>125</v>
       </c>
       <c r="C46">
         <v>50</v>
@@ -2643,8 +3642,8 @@
       <c r="E46">
         <v>34</v>
       </c>
-      <c r="F46" t="str">
-        <v>1.47</v>
+      <c r="F46" t="s">
+        <v>126</v>
       </c>
       <c r="G46">
         <v>28</v>
@@ -2673,22 +3672,13 @@
       <c r="O46">
         <v>0</v>
       </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>Po prostu Kołłątaj</v>
-      </c>
-      <c r="B47" t="str">
-        <v>"154925161206"</v>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" t="s">
+        <v>127</v>
       </c>
       <c r="C47">
         <v>16</v>
@@ -2699,8 +3689,8 @@
       <c r="E47">
         <v>11</v>
       </c>
-      <c r="F47" t="str">
-        <v>1.45</v>
+      <c r="F47" t="s">
+        <v>128</v>
       </c>
       <c r="G47">
         <v>16</v>
@@ -2730,12 +3720,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>Po prostu Kołłątaj</v>
-      </c>
-      <c r="B48" t="str">
-        <v>REXIHN0</v>
+    <row r="48" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" t="s">
+        <v>129</v>
       </c>
       <c r="C48">
         <v>74</v>
@@ -2746,8 +3736,8 @@
       <c r="E48">
         <v>51</v>
       </c>
-      <c r="F48" t="str">
-        <v>1.45</v>
+      <c r="F48" t="s">
+        <v>128</v>
       </c>
       <c r="G48">
         <v>18</v>
@@ -2777,12 +3767,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>Julusie</v>
-      </c>
-      <c r="B49" t="str">
-        <v>Amireczek</v>
+    <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" t="s">
+        <v>130</v>
       </c>
       <c r="C49">
         <v>72</v>
@@ -2793,8 +3783,8 @@
       <c r="E49">
         <v>51</v>
       </c>
-      <c r="F49" t="str">
-        <v>1.41</v>
+      <c r="F49" t="s">
+        <v>131</v>
       </c>
       <c r="G49">
         <v>23</v>
@@ -2824,12 +3814,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>Connector Players</v>
-      </c>
-      <c r="B50" t="str">
-        <v>Gniewcio20</v>
+    <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
+        <v>132</v>
       </c>
       <c r="C50">
         <v>45</v>
@@ -2840,8 +3830,8 @@
       <c r="E50">
         <v>32</v>
       </c>
-      <c r="F50" t="str">
-        <v>1.41</v>
+      <c r="F50" t="s">
+        <v>131</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2871,12 +3861,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>Profanacja</v>
-      </c>
-      <c r="B51" t="str">
-        <v>Krychaa_</v>
+    <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
+        <v>133</v>
       </c>
       <c r="C51">
         <v>46</v>
@@ -2887,8 +3877,8 @@
       <c r="E51">
         <v>33</v>
       </c>
-      <c r="F51" t="str">
-        <v>1.39</v>
+      <c r="F51" t="s">
+        <v>134</v>
       </c>
       <c r="G51">
         <v>15</v>
@@ -2918,12 +3908,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>Bomble Bombla Juniora-B-BJ</v>
-      </c>
-      <c r="B52" t="str">
-        <v>adax_io</v>
+    <row r="52" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s">
+        <v>135</v>
       </c>
       <c r="C52">
         <v>25</v>
@@ -2934,8 +3924,8 @@
       <c r="E52">
         <v>18</v>
       </c>
-      <c r="F52" t="str">
-        <v>1.39</v>
+      <c r="F52" t="s">
+        <v>134</v>
       </c>
       <c r="G52">
         <v>21</v>
@@ -2965,12 +3955,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>Fikuśny Gaming</v>
-      </c>
-      <c r="B53" t="str">
-        <v>WasiuS</v>
+    <row r="53" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>136</v>
       </c>
       <c r="C53">
         <v>91</v>
@@ -2981,8 +3971,8 @@
       <c r="E53">
         <v>67</v>
       </c>
-      <c r="F53" t="str">
-        <v>1.36</v>
+      <c r="F53" t="s">
+        <v>137</v>
       </c>
       <c r="G53">
         <v>13</v>
@@ -3011,22 +4001,13 @@
       <c r="O53">
         <v>20</v>
       </c>
-      <c r="P53">
-        <v>26</v>
-      </c>
-      <c r="Q53">
-        <v>2</v>
-      </c>
-      <c r="R53">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>Warzywka</v>
-      </c>
-      <c r="B54" t="str">
-        <v>budzix</v>
+    </row>
+    <row r="54" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
+        <v>138</v>
       </c>
       <c r="C54">
         <v>33</v>
@@ -3037,8 +4018,8 @@
       <c r="E54">
         <v>24</v>
       </c>
-      <c r="F54" t="str">
-        <v>1.38</v>
+      <c r="F54" t="s">
+        <v>139</v>
       </c>
       <c r="G54">
         <v>20</v>
@@ -3068,12 +4049,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>Bomble Bombla Juniora-B-BJ</v>
-      </c>
-      <c r="B55" t="str">
-        <v>l_like_Ikea</v>
+    <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s">
+        <v>140</v>
       </c>
       <c r="C55">
         <v>26</v>
@@ -3084,8 +4065,8 @@
       <c r="E55">
         <v>19</v>
       </c>
-      <c r="F55" t="str">
-        <v>1.37</v>
+      <c r="F55" t="s">
+        <v>141</v>
       </c>
       <c r="G55">
         <v>22</v>
@@ -3115,12 +4096,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>FireEagles</v>
-      </c>
-      <c r="B56" t="str">
-        <v>Vivoxi</v>
+    <row r="56" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" t="s">
+        <v>143</v>
       </c>
       <c r="C56">
         <v>75</v>
@@ -3131,8 +4112,8 @@
       <c r="E56">
         <v>55</v>
       </c>
-      <c r="F56" t="str">
-        <v>1.36</v>
+      <c r="F56" t="s">
+        <v>137</v>
       </c>
       <c r="G56">
         <v>32</v>
@@ -3162,12 +4143,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>Quantity team</v>
-      </c>
-      <c r="B57" t="str">
-        <v>_z00n</v>
+    <row r="57" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" t="s">
+        <v>144</v>
       </c>
       <c r="C57">
         <v>62</v>
@@ -3178,8 +4159,8 @@
       <c r="E57">
         <v>46</v>
       </c>
-      <c r="F57" t="str">
-        <v>1.35</v>
+      <c r="F57" t="s">
+        <v>145</v>
       </c>
       <c r="G57">
         <v>20</v>
@@ -3209,12 +4190,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>Aspoleczne Simpy Balladyny Esports</v>
-      </c>
-      <c r="B58" t="str">
-        <v>_Franiuuu_</v>
+    <row r="58" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" t="s">
+        <v>146</v>
       </c>
       <c r="C58">
         <v>81</v>
@@ -3225,8 +4206,8 @@
       <c r="E58">
         <v>64</v>
       </c>
-      <c r="F58" t="str">
-        <v>1.27</v>
+      <c r="F58" t="s">
+        <v>147</v>
       </c>
       <c r="G58">
         <v>17</v>
@@ -3255,22 +4236,13 @@
       <c r="O58">
         <v>16</v>
       </c>
-      <c r="P58">
-        <v>17</v>
-      </c>
-      <c r="Q58">
-        <v>4</v>
-      </c>
-      <c r="R58">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>Kongelig Leverig</v>
-      </c>
-      <c r="B59" t="str">
-        <v>Hyper30k</v>
+    </row>
+    <row r="59" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" t="s">
+        <v>148</v>
       </c>
       <c r="C59">
         <v>33</v>
@@ -3281,8 +4253,8 @@
       <c r="E59">
         <v>25</v>
       </c>
-      <c r="F59" t="str">
-        <v>1.32</v>
+      <c r="F59" t="s">
+        <v>149</v>
       </c>
       <c r="G59">
         <v>24</v>
@@ -3312,12 +4284,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>FireEagles</v>
-      </c>
-      <c r="B60" t="str">
-        <v>Kobraa9</v>
+    <row r="60" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" t="s">
+        <v>150</v>
       </c>
       <c r="C60">
         <v>70</v>
@@ -3328,8 +4300,8 @@
       <c r="E60">
         <v>54</v>
       </c>
-      <c r="F60" t="str">
-        <v>1.30</v>
+      <c r="F60" t="s">
+        <v>151</v>
       </c>
       <c r="G60">
         <v>18</v>
@@ -3359,12 +4331,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>FF Team</v>
-      </c>
-      <c r="B61" t="str">
-        <v>TheShhadow</v>
+    <row r="61" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" t="s">
+        <v>152</v>
       </c>
       <c r="C61">
         <v>72</v>
@@ -3375,8 +4347,8 @@
       <c r="E61">
         <v>56</v>
       </c>
-      <c r="F61" t="str">
-        <v>1.29</v>
+      <c r="F61" t="s">
+        <v>153</v>
       </c>
       <c r="G61">
         <v>34</v>
@@ -3406,12 +4378,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>de_presja</v>
-      </c>
-      <c r="B62" t="str">
-        <v>misiek12_ste</v>
+    <row r="62" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" t="s">
+        <v>154</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -3422,8 +4394,8 @@
       <c r="E62">
         <v>48</v>
       </c>
-      <c r="F62" t="str">
-        <v>1.27</v>
+      <c r="F62" t="s">
+        <v>147</v>
       </c>
       <c r="G62">
         <v>30</v>
@@ -3453,12 +4425,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>Bomble Bombla Juniora-B-BJ</v>
-      </c>
-      <c r="B63" t="str">
-        <v>WPMEKobonga</v>
+    <row r="63" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" t="s">
+        <v>155</v>
       </c>
       <c r="C63">
         <v>24</v>
@@ -3469,8 +4441,8 @@
       <c r="E63">
         <v>19</v>
       </c>
-      <c r="F63" t="str">
-        <v>1.26</v>
+      <c r="F63" t="s">
+        <v>156</v>
       </c>
       <c r="G63">
         <v>20</v>
@@ -3500,12 +4472,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>Inshallah</v>
-      </c>
-      <c r="B64" t="str">
-        <v>boberitooo</v>
+    <row r="64" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>157</v>
       </c>
       <c r="C64">
         <v>71</v>
@@ -3516,8 +4488,8 @@
       <c r="E64">
         <v>51</v>
       </c>
-      <c r="F64" t="str">
-        <v>1.39</v>
+      <c r="F64" t="s">
+        <v>134</v>
       </c>
       <c r="G64">
         <v>22</v>
@@ -3546,22 +4518,13 @@
       <c r="O64">
         <v>9</v>
       </c>
-      <c r="P64">
-        <v>18</v>
-      </c>
-      <c r="Q64">
-        <v>1</v>
-      </c>
-      <c r="R64">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>FULL BOLID</v>
-      </c>
-      <c r="B65" t="str">
-        <v>Czarna_Zjawa</v>
+    </row>
+    <row r="65" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>158</v>
       </c>
       <c r="C65">
         <v>74</v>
@@ -3572,8 +4535,8 @@
       <c r="E65">
         <v>59</v>
       </c>
-      <c r="F65" t="str">
-        <v>1.25</v>
+      <c r="F65" t="s">
+        <v>159</v>
       </c>
       <c r="G65">
         <v>18</v>
@@ -3602,22 +4565,13 @@
       <c r="O65">
         <v>15</v>
       </c>
-      <c r="P65">
-        <v>19</v>
-      </c>
-      <c r="Q65">
-        <v>7</v>
-      </c>
-      <c r="R65">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>Kongelig Leverig</v>
-      </c>
-      <c r="B66" t="str">
-        <v>Kioshi-kun</v>
+    </row>
+    <row r="66" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" t="s">
+        <v>160</v>
       </c>
       <c r="C66">
         <v>30</v>
@@ -3628,8 +4582,8 @@
       <c r="E66">
         <v>24</v>
       </c>
-      <c r="F66" t="str">
-        <v>1.25</v>
+      <c r="F66" t="s">
+        <v>159</v>
       </c>
       <c r="G66">
         <v>18</v>
@@ -3659,12 +4613,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>Polonia Napleton</v>
-      </c>
-      <c r="B67" t="str">
-        <v>SameK-</v>
+    <row r="67" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>161</v>
       </c>
       <c r="C67">
         <v>74</v>
@@ -3675,8 +4629,8 @@
       <c r="E67">
         <v>60</v>
       </c>
-      <c r="F67" t="str">
-        <v>1.23</v>
+      <c r="F67" t="s">
+        <v>162</v>
       </c>
       <c r="G67">
         <v>25</v>
@@ -3706,12 +4660,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>Wolfgang</v>
-      </c>
-      <c r="B68" t="str">
-        <v>ScramScram</v>
+    <row r="68" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
+        <v>163</v>
       </c>
       <c r="C68">
         <v>54</v>
@@ -3722,8 +4676,8 @@
       <c r="E68">
         <v>44</v>
       </c>
-      <c r="F68" t="str">
-        <v>1.23</v>
+      <c r="F68" t="s">
+        <v>162</v>
       </c>
       <c r="G68">
         <v>18</v>
@@ -3753,12 +4707,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>Wolfgang</v>
-      </c>
-      <c r="B69" t="str">
-        <v>patry_mdfkr</v>
+    <row r="69" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>164</v>
       </c>
       <c r="C69">
         <v>55</v>
@@ -3769,8 +4723,8 @@
       <c r="E69">
         <v>45</v>
       </c>
-      <c r="F69" t="str">
-        <v>1.22</v>
+      <c r="F69" t="s">
+        <v>165</v>
       </c>
       <c r="G69">
         <v>18</v>
@@ -3800,12 +4754,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>Warzywka</v>
-      </c>
-      <c r="B70" t="str">
-        <v>derv1ll</v>
+    <row r="70" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>166</v>
       </c>
       <c r="C70">
         <v>34</v>
@@ -3816,8 +4770,8 @@
       <c r="E70">
         <v>28</v>
       </c>
-      <c r="F70" t="str">
-        <v>1.21</v>
+      <c r="F70" t="s">
+        <v>167</v>
       </c>
       <c r="G70">
         <v>13</v>
@@ -3847,12 +4801,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>Los Defectos</v>
-      </c>
-      <c r="B71" t="str">
-        <v>_-_Matix_-_</v>
+    <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>168</v>
+      </c>
+      <c r="B71" t="s">
+        <v>169</v>
       </c>
       <c r="C71">
         <v>58</v>
@@ -3863,8 +4817,8 @@
       <c r="E71">
         <v>48</v>
       </c>
-      <c r="F71" t="str">
-        <v>1.21</v>
+      <c r="F71" t="s">
+        <v>167</v>
       </c>
       <c r="G71">
         <v>21</v>
@@ -3894,12 +4848,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v>Charakterni</v>
-      </c>
-      <c r="B72" t="str">
-        <v>ad3ionix</v>
+    <row r="72" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" t="s">
+        <v>170</v>
       </c>
       <c r="C72">
         <v>61</v>
@@ -3910,8 +4864,8 @@
       <c r="E72">
         <v>51</v>
       </c>
-      <c r="F72" t="str">
-        <v>1.20</v>
+      <c r="F72" t="s">
+        <v>171</v>
       </c>
       <c r="G72">
         <v>14</v>
@@ -3941,12 +4895,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="str">
-        <v>DJ, Drużyna z Jeziora</v>
-      </c>
-      <c r="B73" t="str">
-        <v>Dunneo</v>
+    <row r="73" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" t="s">
+        <v>172</v>
       </c>
       <c r="C73">
         <v>74</v>
@@ -3957,8 +4911,8 @@
       <c r="E73">
         <v>63</v>
       </c>
-      <c r="F73" t="str">
-        <v>1.17</v>
+      <c r="F73" t="s">
+        <v>173</v>
       </c>
       <c r="G73">
         <v>12</v>
@@ -3988,12 +4942,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="str">
-        <v>FireEagles</v>
-      </c>
-      <c r="B74" t="str">
-        <v xml:space="preserve">_Vojtaz_ </v>
+    <row r="74" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" t="s">
+        <v>174</v>
       </c>
       <c r="C74">
         <v>54</v>
@@ -4004,8 +4958,8 @@
       <c r="E74">
         <v>47</v>
       </c>
-      <c r="F74" t="str">
-        <v>1.15</v>
+      <c r="F74" t="s">
+        <v>175</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -4035,12 +4989,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="str">
-        <v>KARGONELLO</v>
-      </c>
-      <c r="B75" t="str">
-        <v>AirAustin77</v>
+    <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" t="s">
+        <v>176</v>
       </c>
       <c r="C75">
         <v>54</v>
@@ -4051,8 +5005,8 @@
       <c r="E75">
         <v>47</v>
       </c>
-      <c r="F75" t="str">
-        <v>1.15</v>
+      <c r="F75" t="s">
+        <v>175</v>
       </c>
       <c r="G75">
         <v>13</v>
@@ -4082,12 +5036,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="str">
-        <v>FireEagles</v>
-      </c>
-      <c r="B76" t="str">
-        <v>W1LQ_</v>
+    <row r="76" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" t="s">
+        <v>177</v>
       </c>
       <c r="C76">
         <v>53</v>
@@ -4098,8 +5052,8 @@
       <c r="E76">
         <v>47</v>
       </c>
-      <c r="F76" t="str">
-        <v>1.13</v>
+      <c r="F76" t="s">
+        <v>178</v>
       </c>
       <c r="G76">
         <v>15</v>
@@ -4129,12 +5083,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="str">
-        <v>Smolas</v>
-      </c>
-      <c r="B77" t="str">
-        <v>SkilluPlayz</v>
+    <row r="77" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77" t="s">
+        <v>179</v>
       </c>
       <c r="C77">
         <v>55</v>
@@ -4145,8 +5099,8 @@
       <c r="E77">
         <v>49</v>
       </c>
-      <c r="F77" t="str">
-        <v>1.12</v>
+      <c r="F77" t="s">
+        <v>180</v>
       </c>
       <c r="G77">
         <v>19</v>
@@ -4176,12 +5130,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="str">
-        <v>Sneaky Inters</v>
-      </c>
-      <c r="B78" t="str">
-        <v>slodkazuzia</v>
+    <row r="78" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>181</v>
+      </c>
+      <c r="B78" t="s">
+        <v>182</v>
       </c>
       <c r="C78">
         <v>67</v>
@@ -4192,8 +5146,8 @@
       <c r="E78">
         <v>60</v>
       </c>
-      <c r="F78" t="str">
-        <v>1.12</v>
+      <c r="F78" t="s">
+        <v>180</v>
       </c>
       <c r="G78">
         <v>14</v>
@@ -4223,12 +5177,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="str">
-        <v>Inshallah</v>
-      </c>
-      <c r="B79" t="str">
-        <v>MzRY7</v>
+    <row r="79" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" t="s">
+        <v>183</v>
       </c>
       <c r="C79">
         <v>71</v>
@@ -4239,8 +5193,8 @@
       <c r="E79">
         <v>52</v>
       </c>
-      <c r="F79" t="str">
-        <v>1.37</v>
+      <c r="F79" t="s">
+        <v>141</v>
       </c>
       <c r="G79">
         <v>11</v>
@@ -4269,22 +5223,13 @@
       <c r="O79">
         <v>9</v>
       </c>
-      <c r="P79">
-        <v>23</v>
-      </c>
-      <c r="Q79">
-        <v>3</v>
-      </c>
-      <c r="R79">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="str">
-        <v>KARGONELLO</v>
-      </c>
-      <c r="B80" t="str">
-        <v>Grocik_</v>
+    </row>
+    <row r="80" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" t="s">
+        <v>184</v>
       </c>
       <c r="C80">
         <v>69</v>
@@ -4295,8 +5240,8 @@
       <c r="E80">
         <v>62</v>
       </c>
-      <c r="F80" t="str">
-        <v>1.11</v>
+      <c r="F80" t="s">
+        <v>185</v>
       </c>
       <c r="G80">
         <v>27</v>
@@ -4326,12 +5271,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="str">
-        <v>FireEagles</v>
-      </c>
-      <c r="B81" t="str">
-        <v>Bukaj262</v>
+    <row r="81" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>142</v>
+      </c>
+      <c r="B81" t="s">
+        <v>186</v>
       </c>
       <c r="C81">
         <v>69</v>
@@ -4342,8 +5287,8 @@
       <c r="E81">
         <v>63</v>
       </c>
-      <c r="F81" t="str">
-        <v>1.10</v>
+      <c r="F81" t="s">
+        <v>187</v>
       </c>
       <c r="G81">
         <v>23</v>
@@ -4373,12 +5318,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="str">
-        <v>CJ DOGS</v>
-      </c>
-      <c r="B82" t="str">
-        <v>Arax909</v>
+    <row r="82" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>188</v>
+      </c>
+      <c r="B82" t="s">
+        <v>189</v>
       </c>
       <c r="C82">
         <v>35</v>
@@ -4389,8 +5334,8 @@
       <c r="E82">
         <v>32</v>
       </c>
-      <c r="F82" t="str">
-        <v>1.09</v>
+      <c r="F82" t="s">
+        <v>190</v>
       </c>
       <c r="G82">
         <v>15</v>
@@ -4420,12 +5365,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="str">
-        <v>Kosiarze</v>
-      </c>
-      <c r="B83" t="str">
-        <v>sytek2137</v>
+    <row r="83" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>191</v>
       </c>
       <c r="C83">
         <v>24</v>
@@ -4436,8 +5381,8 @@
       <c r="E83">
         <v>22</v>
       </c>
-      <c r="F83" t="str">
-        <v>1.09</v>
+      <c r="F83" t="s">
+        <v>190</v>
       </c>
       <c r="G83">
         <v>13</v>
@@ -4467,12 +5412,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="str">
-        <v>Sneaky Inters</v>
-      </c>
-      <c r="B84" t="str">
-        <v>__Jasper--</v>
+    <row r="84" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>181</v>
+      </c>
+      <c r="B84" t="s">
+        <v>192</v>
       </c>
       <c r="C84">
         <v>52</v>
@@ -4483,8 +5428,8 @@
       <c r="E84">
         <v>48</v>
       </c>
-      <c r="F84" t="str">
-        <v>1.08</v>
+      <c r="F84" t="s">
+        <v>193</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -4514,12 +5459,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="str">
-        <v>Polonia Napleton</v>
-      </c>
-      <c r="B85" t="str">
-        <v>PLVanishPL</v>
+    <row r="85" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>66</v>
+      </c>
+      <c r="B85" t="s">
+        <v>194</v>
       </c>
       <c r="C85">
         <v>67</v>
@@ -4530,8 +5475,8 @@
       <c r="E85">
         <v>62</v>
       </c>
-      <c r="F85" t="str">
-        <v>1.08</v>
+      <c r="F85" t="s">
+        <v>193</v>
       </c>
       <c r="G85">
         <v>18</v>
@@ -4561,12 +5506,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="str">
-        <v>Fikuśny Gaming</v>
-      </c>
-      <c r="B86" t="str">
-        <v>adamch</v>
+    <row r="86" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86" t="s">
+        <v>195</v>
       </c>
       <c r="C86">
         <v>67</v>
@@ -4577,8 +5522,8 @@
       <c r="E86">
         <v>76</v>
       </c>
-      <c r="F86" t="str">
-        <v>0.88</v>
+      <c r="F86" t="s">
+        <v>196</v>
       </c>
       <c r="G86">
         <v>19</v>
@@ -4607,22 +5552,13 @@
       <c r="O86">
         <v>24</v>
       </c>
-      <c r="P86">
-        <v>11</v>
-      </c>
-      <c r="Q86">
-        <v>2</v>
-      </c>
-      <c r="R86">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="str">
-        <v>DJ, Drużyna z Jeziora</v>
-      </c>
-      <c r="B87" t="str">
-        <v>R4egz</v>
+    </row>
+    <row r="87" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" t="s">
+        <v>197</v>
       </c>
       <c r="C87">
         <v>51</v>
@@ -4633,8 +5569,8 @@
       <c r="E87">
         <v>48</v>
       </c>
-      <c r="F87" t="str">
-        <v>1.06</v>
+      <c r="F87" t="s">
+        <v>198</v>
       </c>
       <c r="G87">
         <v>12</v>
@@ -4664,12 +5600,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="str">
-        <v>Brazylisjkie Kasztany</v>
-      </c>
-      <c r="B88" t="str">
-        <v>Ruzyk</v>
+    <row r="88" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" t="s">
+        <v>199</v>
       </c>
       <c r="C88">
         <v>54</v>
@@ -4680,8 +5616,8 @@
       <c r="E88">
         <v>51</v>
       </c>
-      <c r="F88" t="str">
-        <v>1.06</v>
+      <c r="F88" t="s">
+        <v>198</v>
       </c>
       <c r="G88">
         <v>12</v>
@@ -4711,12 +5647,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="str">
-        <v>Gmina Czarków</v>
-      </c>
-      <c r="B89" t="str">
-        <v>TanQ31</v>
+    <row r="89" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89" t="s">
+        <v>201</v>
       </c>
       <c r="C89">
         <v>18</v>
@@ -4727,8 +5663,8 @@
       <c r="E89">
         <v>17</v>
       </c>
-      <c r="F89" t="str">
-        <v>1.06</v>
+      <c r="F89" t="s">
+        <v>198</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -4758,12 +5694,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="str">
-        <v>Po prostu Kołłątaj</v>
-      </c>
-      <c r="B90" t="str">
-        <v>Ste3wi</v>
+    <row r="90" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" t="s">
+        <v>202</v>
       </c>
       <c r="C90">
         <v>38</v>
@@ -4774,8 +5710,8 @@
       <c r="E90">
         <v>36</v>
       </c>
-      <c r="F90" t="str">
-        <v>1.06</v>
+      <c r="F90" t="s">
+        <v>198</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -4805,12 +5741,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="str">
-        <v>Inshallah</v>
-      </c>
-      <c r="B91" t="str">
-        <v>CallmeMg</v>
+    <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" t="s">
+        <v>203</v>
       </c>
       <c r="C91">
         <v>59</v>
@@ -4821,8 +5757,8 @@
       <c r="E91">
         <v>52</v>
       </c>
-      <c r="F91" t="str">
-        <v>1.13</v>
+      <c r="F91" t="s">
+        <v>178</v>
       </c>
       <c r="G91">
         <v>10</v>
@@ -4851,22 +5787,13 @@
       <c r="O91">
         <v>7</v>
       </c>
-      <c r="P91">
-        <v>13</v>
-      </c>
-      <c r="Q91">
-        <v>1</v>
-      </c>
-      <c r="R91">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="str">
-        <v>Fikuśny Gaming</v>
-      </c>
-      <c r="B92" t="str">
-        <v>FikusnyHubi</v>
+    </row>
+    <row r="92" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>58</v>
+      </c>
+      <c r="B92" t="s">
+        <v>204</v>
       </c>
       <c r="C92">
         <v>62</v>
@@ -4877,8 +5804,8 @@
       <c r="E92">
         <v>71</v>
       </c>
-      <c r="F92" t="str">
-        <v>0.87</v>
+      <c r="F92" t="s">
+        <v>205</v>
       </c>
       <c r="G92">
         <v>23</v>
@@ -4907,22 +5834,13 @@
       <c r="O92">
         <v>20</v>
       </c>
-      <c r="P92">
-        <v>10</v>
-      </c>
-      <c r="Q92">
-        <v>3</v>
-      </c>
-      <c r="R92">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="str">
-        <v>Po prostu Kołłątaj</v>
-      </c>
-      <c r="B93" t="str">
-        <v>sebix05</v>
+    </row>
+    <row r="93" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" t="s">
+        <v>206</v>
       </c>
       <c r="C93">
         <v>57</v>
@@ -4933,8 +5851,8 @@
       <c r="E93">
         <v>56</v>
       </c>
-      <c r="F93" t="str">
-        <v>1.02</v>
+      <c r="F93" t="s">
+        <v>207</v>
       </c>
       <c r="G93">
         <v>15</v>
@@ -4964,12 +5882,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="str">
-        <v>Sneaky Inters</v>
-      </c>
-      <c r="B94" t="str">
-        <v>SlodkaOla13</v>
+    <row r="94" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>181</v>
+      </c>
+      <c r="B94" t="s">
+        <v>208</v>
       </c>
       <c r="C94">
         <v>68</v>
@@ -4980,8 +5898,8 @@
       <c r="E94">
         <v>68</v>
       </c>
-      <c r="F94" t="str">
-        <v>1.00</v>
+      <c r="F94" t="s">
+        <v>209</v>
       </c>
       <c r="G94">
         <v>6</v>
@@ -5011,12 +5929,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="str">
-        <v>Aspoleczne Simpy Balladyny Esports</v>
-      </c>
-      <c r="B95" t="str">
-        <v>Extr3m0_</v>
+    <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>50</v>
+      </c>
+      <c r="B95" t="s">
+        <v>210</v>
       </c>
       <c r="C95">
         <v>61</v>
@@ -5027,8 +5945,8 @@
       <c r="E95">
         <v>70</v>
       </c>
-      <c r="F95" t="str">
-        <v>0.87</v>
+      <c r="F95" t="s">
+        <v>205</v>
       </c>
       <c r="G95">
         <v>15</v>
@@ -5057,22 +5975,13 @@
       <c r="O95">
         <v>17</v>
       </c>
-      <c r="P95">
-        <v>8</v>
-      </c>
-      <c r="Q95">
-        <v>3</v>
-      </c>
-      <c r="R95">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v>Profanacja</v>
-      </c>
-      <c r="B96" t="str">
-        <v>SPKILL</v>
+    </row>
+    <row r="96" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>77</v>
+      </c>
+      <c r="B96" t="s">
+        <v>211</v>
       </c>
       <c r="C96">
         <v>41</v>
@@ -5083,8 +5992,8 @@
       <c r="E96">
         <v>41</v>
       </c>
-      <c r="F96" t="str">
-        <v>1.00</v>
+      <c r="F96" t="s">
+        <v>209</v>
       </c>
       <c r="G96">
         <v>12</v>
@@ -5114,12 +6023,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="str">
-        <v>Los Defectos</v>
-      </c>
-      <c r="B97" t="str">
-        <v>siurenis</v>
+    <row r="97" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" t="s">
+        <v>212</v>
       </c>
       <c r="C97">
         <v>32</v>
@@ -5130,8 +6039,8 @@
       <c r="E97">
         <v>32</v>
       </c>
-      <c r="F97" t="str">
-        <v>1.00</v>
+      <c r="F97" t="s">
+        <v>209</v>
       </c>
       <c r="G97">
         <v>13</v>
@@ -5161,12 +6070,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="str">
-        <v>Kosiarze</v>
-      </c>
-      <c r="B98" t="str">
-        <v>pozuc_jr</v>
+    <row r="98" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>80</v>
+      </c>
+      <c r="B98" t="s">
+        <v>213</v>
       </c>
       <c r="C98">
         <v>22</v>
@@ -5177,8 +6086,8 @@
       <c r="E98">
         <v>22</v>
       </c>
-      <c r="F98" t="str">
-        <v>1.00</v>
+      <c r="F98" t="s">
+        <v>209</v>
       </c>
       <c r="G98">
         <v>9</v>
@@ -5208,12 +6117,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="str">
-        <v>FF Team</v>
-      </c>
-      <c r="B99" t="str">
-        <v>ScreamingKek</v>
+    <row r="99" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>56</v>
+      </c>
+      <c r="B99" t="s">
+        <v>214</v>
       </c>
       <c r="C99">
         <v>17</v>
@@ -5224,8 +6133,8 @@
       <c r="E99">
         <v>17</v>
       </c>
-      <c r="F99" t="str">
-        <v>1.00</v>
+      <c r="F99" t="s">
+        <v>209</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -5255,12 +6164,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="str">
-        <v>de_presja</v>
-      </c>
-      <c r="B100" t="str">
-        <v>Votix654</v>
+    <row r="100" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>92</v>
+      </c>
+      <c r="B100" t="s">
+        <v>215</v>
       </c>
       <c r="C100">
         <v>48</v>
@@ -5271,8 +6180,8 @@
       <c r="E100">
         <v>49</v>
       </c>
-      <c r="F100" t="str">
-        <v>0.98</v>
+      <c r="F100" t="s">
+        <v>216</v>
       </c>
       <c r="G100">
         <v>10</v>
@@ -5302,12 +6211,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="str">
-        <v>Julusie</v>
-      </c>
-      <c r="B101" t="str">
-        <v>sznycel901</v>
+    <row r="101" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" t="s">
+        <v>217</v>
       </c>
       <c r="C101">
         <v>29</v>
@@ -5318,8 +6227,8 @@
       <c r="E101">
         <v>30</v>
       </c>
-      <c r="F101" t="str">
-        <v>0.97</v>
+      <c r="F101" t="s">
+        <v>218</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -5349,12 +6258,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="str">
-        <v>Connector Players</v>
-      </c>
-      <c r="B102" t="str">
-        <v>borajs</v>
+    <row r="102" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" t="s">
+        <v>219</v>
       </c>
       <c r="C102">
         <v>53</v>
@@ -5365,8 +6274,8 @@
       <c r="E102">
         <v>55</v>
       </c>
-      <c r="F102" t="str">
-        <v>0.96</v>
+      <c r="F102" t="s">
+        <v>220</v>
       </c>
       <c r="G102">
         <v>13</v>
@@ -5396,12 +6305,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="str">
-        <v>Julusie</v>
-      </c>
-      <c r="B103" t="str">
-        <v>DogguTonix</v>
+    <row r="103" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>83</v>
+      </c>
+      <c r="B103" t="s">
+        <v>221</v>
       </c>
       <c r="C103">
         <v>45</v>
@@ -5412,8 +6321,8 @@
       <c r="E103">
         <v>47</v>
       </c>
-      <c r="F103" t="str">
-        <v>0.96</v>
+      <c r="F103" t="s">
+        <v>220</v>
       </c>
       <c r="G103">
         <v>16</v>
@@ -5443,12 +6352,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="str">
-        <v>Gmina Czarków</v>
-      </c>
-      <c r="B104" t="str">
-        <v>rymszak</v>
+    <row r="104" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>200</v>
+      </c>
+      <c r="B104" t="s">
+        <v>222</v>
       </c>
       <c r="C104">
         <v>36</v>
@@ -5459,8 +6368,8 @@
       <c r="E104">
         <v>38</v>
       </c>
-      <c r="F104" t="str">
-        <v>0.95</v>
+      <c r="F104" t="s">
+        <v>223</v>
       </c>
       <c r="G104">
         <v>13</v>
@@ -5490,12 +6399,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="str">
-        <v>Brazylisjkie Kasztany</v>
-      </c>
-      <c r="B105" t="str">
-        <v>Elifusek</v>
+    <row r="105" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105" t="s">
+        <v>224</v>
       </c>
       <c r="C105">
         <v>35</v>
@@ -5506,8 +6415,8 @@
       <c r="E105">
         <v>37</v>
       </c>
-      <c r="F105" t="str">
-        <v>0.95</v>
+      <c r="F105" t="s">
+        <v>223</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -5537,12 +6446,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="str">
-        <v>AKKJPZ</v>
-      </c>
-      <c r="B106" t="str">
-        <v>NeverMind-d2</v>
+    <row r="106" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" t="s">
+        <v>225</v>
       </c>
       <c r="C106">
         <v>46</v>
@@ -5553,8 +6462,8 @@
       <c r="E106">
         <v>49</v>
       </c>
-      <c r="F106" t="str">
-        <v>0.94</v>
+      <c r="F106" t="s">
+        <v>226</v>
       </c>
       <c r="G106">
         <v>16</v>
@@ -5584,12 +6493,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="str">
-        <v>Po prostu Kołłątaj</v>
-      </c>
-      <c r="B107" t="str">
-        <v>Wasil1</v>
+    <row r="107" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" t="s">
+        <v>227</v>
       </c>
       <c r="C107">
         <v>45</v>
@@ -5600,8 +6509,8 @@
       <c r="E107">
         <v>48</v>
       </c>
-      <c r="F107" t="str">
-        <v>0.94</v>
+      <c r="F107" t="s">
+        <v>226</v>
       </c>
       <c r="G107">
         <v>19</v>
@@ -5631,12 +6540,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="str">
-        <v>AKKJPZ</v>
-      </c>
-      <c r="B108" t="str">
-        <v>EPCarbonara</v>
+    <row r="108" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" t="s">
+        <v>228</v>
       </c>
       <c r="C108">
         <v>14</v>
@@ -5647,8 +6556,8 @@
       <c r="E108">
         <v>15</v>
       </c>
-      <c r="F108" t="str">
-        <v>0.93</v>
+      <c r="F108" t="s">
+        <v>229</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -5678,12 +6587,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="str">
-        <v>Julusie</v>
-      </c>
-      <c r="B109" t="str">
-        <v>6julus9</v>
+    <row r="109" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>83</v>
+      </c>
+      <c r="B109" t="s">
+        <v>230</v>
       </c>
       <c r="C109">
         <v>47</v>
@@ -5694,8 +6603,8 @@
       <c r="E109">
         <v>51</v>
       </c>
-      <c r="F109" t="str">
-        <v>0.92</v>
+      <c r="F109" t="s">
+        <v>231</v>
       </c>
       <c r="G109">
         <v>21</v>
@@ -5725,12 +6634,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="str">
-        <v>Connector Players</v>
-      </c>
-      <c r="B110" t="str">
-        <v>Fisze</v>
+    <row r="110" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>232</v>
       </c>
       <c r="C110">
         <v>46</v>
@@ -5741,8 +6650,8 @@
       <c r="E110">
         <v>50</v>
       </c>
-      <c r="F110" t="str">
-        <v>0.92</v>
+      <c r="F110" t="s">
+        <v>231</v>
       </c>
       <c r="G110">
         <v>17</v>
@@ -5772,12 +6681,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="str">
-        <v>Los Defectos</v>
-      </c>
-      <c r="B111" t="str">
-        <v>fiji___</v>
+    <row r="111" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>168</v>
+      </c>
+      <c r="B111" t="s">
+        <v>233</v>
       </c>
       <c r="C111">
         <v>55</v>
@@ -5788,8 +6697,8 @@
       <c r="E111">
         <v>60</v>
       </c>
-      <c r="F111" t="str">
-        <v>0.92</v>
+      <c r="F111" t="s">
+        <v>231</v>
       </c>
       <c r="G111">
         <v>22</v>
@@ -5819,12 +6728,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="str">
-        <v>Wolfgang</v>
-      </c>
-      <c r="B112" t="str">
-        <v>T0B3R</v>
+    <row r="112" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>72</v>
+      </c>
+      <c r="B112" t="s">
+        <v>234</v>
       </c>
       <c r="C112">
         <v>45</v>
@@ -5835,8 +6744,8 @@
       <c r="E112">
         <v>50</v>
       </c>
-      <c r="F112" t="str">
-        <v>0.90</v>
+      <c r="F112" t="s">
+        <v>235</v>
       </c>
       <c r="G112">
         <v>12</v>
@@ -5866,12 +6775,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="str">
-        <v>Fikuśny Gaming</v>
-      </c>
-      <c r="B113" t="str">
-        <v>Robcio76</v>
+    <row r="113" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>58</v>
+      </c>
+      <c r="B113" t="s">
+        <v>236</v>
       </c>
       <c r="C113">
         <v>60</v>
@@ -5882,8 +6791,8 @@
       <c r="E113">
         <v>78</v>
       </c>
-      <c r="F113" t="str">
-        <v>0.77</v>
+      <c r="F113" t="s">
+        <v>237</v>
       </c>
       <c r="G113">
         <v>16</v>
@@ -5912,22 +6821,13 @@
       <c r="O113">
         <v>23</v>
       </c>
-      <c r="P113">
-        <v>11</v>
-      </c>
-      <c r="Q113">
-        <v>2</v>
-      </c>
-      <c r="R113">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="str">
-        <v>Warzywka</v>
-      </c>
-      <c r="B114" t="str">
-        <v>LordJurkon</v>
+    </row>
+    <row r="114" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>74</v>
+      </c>
+      <c r="B114" t="s">
+        <v>238</v>
       </c>
       <c r="C114">
         <v>24</v>
@@ -5938,8 +6838,8 @@
       <c r="E114">
         <v>27</v>
       </c>
-      <c r="F114" t="str">
-        <v>0.89</v>
+      <c r="F114" t="s">
+        <v>239</v>
       </c>
       <c r="G114">
         <v>4</v>
@@ -5969,12 +6869,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="str">
-        <v>FF Team</v>
-      </c>
-      <c r="B115" t="str">
-        <v>yebac_psy</v>
+    <row r="115" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>56</v>
+      </c>
+      <c r="B115" t="s">
+        <v>240</v>
       </c>
       <c r="C115">
         <v>54</v>
@@ -5985,8 +6885,8 @@
       <c r="E115">
         <v>61</v>
       </c>
-      <c r="F115" t="str">
-        <v>0.89</v>
+      <c r="F115" t="s">
+        <v>239</v>
       </c>
       <c r="G115">
         <v>20</v>
@@ -6016,12 +6916,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="str">
-        <v>Polonia Napleton</v>
-      </c>
-      <c r="B116" t="str">
-        <v>Breslau_</v>
+    <row r="116" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>66</v>
+      </c>
+      <c r="B116" t="s">
+        <v>241</v>
       </c>
       <c r="C116">
         <v>49</v>
@@ -6032,8 +6932,8 @@
       <c r="E116">
         <v>56</v>
       </c>
-      <c r="F116" t="str">
-        <v>0.88</v>
+      <c r="F116" t="s">
+        <v>196</v>
       </c>
       <c r="G116">
         <v>15</v>
@@ -6063,12 +6963,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="str">
-        <v>de_presja</v>
-      </c>
-      <c r="B117" t="str">
-        <v>arabinho15</v>
+    <row r="117" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>92</v>
+      </c>
+      <c r="B117" t="s">
+        <v>242</v>
       </c>
       <c r="C117">
         <v>44</v>
@@ -6079,8 +6979,8 @@
       <c r="E117">
         <v>51</v>
       </c>
-      <c r="F117" t="str">
-        <v>0.86</v>
+      <c r="F117" t="s">
+        <v>243</v>
       </c>
       <c r="G117">
         <v>21</v>
@@ -6110,12 +7010,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="str">
-        <v>Polonia Napleton</v>
-      </c>
-      <c r="B118" t="str">
-        <v>EndoJD</v>
+    <row r="118" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>66</v>
+      </c>
+      <c r="B118" t="s">
+        <v>244</v>
       </c>
       <c r="C118">
         <v>46</v>
@@ -6126,8 +7026,8 @@
       <c r="E118">
         <v>54</v>
       </c>
-      <c r="F118" t="str">
-        <v>0.85</v>
+      <c r="F118" t="s">
+        <v>245</v>
       </c>
       <c r="G118">
         <v>22</v>
@@ -6157,12 +7057,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="str">
-        <v>Los Defectos</v>
-      </c>
-      <c r="B119" t="str">
-        <v>Sciudi</v>
+    <row r="119" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>168</v>
+      </c>
+      <c r="B119" t="s">
+        <v>246</v>
       </c>
       <c r="C119">
         <v>48</v>
@@ -6173,8 +7073,8 @@
       <c r="E119">
         <v>57</v>
       </c>
-      <c r="F119" t="str">
-        <v>0.84</v>
+      <c r="F119" t="s">
+        <v>247</v>
       </c>
       <c r="G119">
         <v>16</v>
@@ -6204,12 +7104,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="str">
-        <v>Inshallah</v>
-      </c>
-      <c r="B120" t="str">
-        <v>peczu123</v>
+    <row r="120" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120" t="s">
+        <v>248</v>
       </c>
       <c r="C120">
         <v>30</v>
@@ -6220,8 +7120,8 @@
       <c r="E120">
         <v>36</v>
       </c>
-      <c r="F120" t="str">
-        <v>0.83</v>
+      <c r="F120" t="s">
+        <v>249</v>
       </c>
       <c r="G120">
         <v>21</v>
@@ -6250,22 +7150,13 @@
       <c r="O120">
         <v>0</v>
       </c>
-      <c r="P120">
-        <v>0</v>
-      </c>
-      <c r="Q120">
-        <v>0</v>
-      </c>
-      <c r="R120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="str">
-        <v>Kongelig Leverig</v>
-      </c>
-      <c r="B121" t="str">
-        <v>_Righty_</v>
+    </row>
+    <row r="121" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>38</v>
+      </c>
+      <c r="B121" t="s">
+        <v>250</v>
       </c>
       <c r="C121">
         <v>24</v>
@@ -6276,8 +7167,8 @@
       <c r="E121">
         <v>29</v>
       </c>
-      <c r="F121" t="str">
-        <v>0.83</v>
+      <c r="F121" t="s">
+        <v>249</v>
       </c>
       <c r="G121">
         <v>11</v>
@@ -6307,12 +7198,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="str">
-        <v>KARGONELLO</v>
-      </c>
-      <c r="B122" t="str">
-        <v>Ogon__</v>
+    <row r="122" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>64</v>
+      </c>
+      <c r="B122" t="s">
+        <v>251</v>
       </c>
       <c r="C122">
         <v>47</v>
@@ -6323,8 +7214,8 @@
       <c r="E122">
         <v>57</v>
       </c>
-      <c r="F122" t="str">
-        <v>0.82</v>
+      <c r="F122" t="s">
+        <v>252</v>
       </c>
       <c r="G122">
         <v>17</v>
@@ -6354,12 +7245,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="str">
-        <v>Los Defectos</v>
-      </c>
-      <c r="B123" t="str">
-        <v>103adam</v>
+    <row r="123" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>168</v>
+      </c>
+      <c r="B123" t="s">
+        <v>253</v>
       </c>
       <c r="C123">
         <v>46</v>
@@ -6370,8 +7261,8 @@
       <c r="E123">
         <v>56</v>
       </c>
-      <c r="F123" t="str">
-        <v>0.82</v>
+      <c r="F123" t="s">
+        <v>252</v>
       </c>
       <c r="G123">
         <v>16</v>
@@ -6401,12 +7292,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="str">
-        <v>Brazylisjkie Kasztany</v>
-      </c>
-      <c r="B124" t="str">
-        <v>_BushMan_</v>
+    <row r="124" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>118</v>
+      </c>
+      <c r="B124" t="s">
+        <v>254</v>
       </c>
       <c r="C124">
         <v>41</v>
@@ -6417,8 +7308,8 @@
       <c r="E124">
         <v>50</v>
       </c>
-      <c r="F124" t="str">
-        <v>0.82</v>
+      <c r="F124" t="s">
+        <v>252</v>
       </c>
       <c r="G124">
         <v>9</v>
@@ -6448,12 +7339,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="str">
-        <v>Polonia Napleton</v>
-      </c>
-      <c r="B125" t="str">
-        <v>MiresPL</v>
+    <row r="125" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>66</v>
+      </c>
+      <c r="B125" t="s">
+        <v>255</v>
       </c>
       <c r="C125">
         <v>48</v>
@@ -6464,8 +7355,8 @@
       <c r="E125">
         <v>59</v>
       </c>
-      <c r="F125" t="str">
-        <v>0.81</v>
+      <c r="F125" t="s">
+        <v>256</v>
       </c>
       <c r="G125">
         <v>19</v>
@@ -6495,12 +7386,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="str">
-        <v>CJ DOGS</v>
-      </c>
-      <c r="B126" t="str">
-        <v>tatapiotr</v>
+    <row r="126" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>188</v>
+      </c>
+      <c r="B126" t="s">
+        <v>257</v>
       </c>
       <c r="C126">
         <v>38</v>
@@ -6511,8 +7402,8 @@
       <c r="E126">
         <v>47</v>
       </c>
-      <c r="F126" t="str">
-        <v>0.81</v>
+      <c r="F126" t="s">
+        <v>256</v>
       </c>
       <c r="G126">
         <v>11</v>
@@ -6542,12 +7433,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="str">
-        <v>Smolas</v>
-      </c>
-      <c r="B127" t="str">
-        <v>bobiszone</v>
+    <row r="127" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>70</v>
+      </c>
+      <c r="B127" t="s">
+        <v>258</v>
       </c>
       <c r="C127">
         <v>46</v>
@@ -6558,8 +7449,8 @@
       <c r="E127">
         <v>57</v>
       </c>
-      <c r="F127" t="str">
-        <v>0.81</v>
+      <c r="F127" t="s">
+        <v>256</v>
       </c>
       <c r="G127">
         <v>11</v>
@@ -6589,12 +7480,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="str">
-        <v>Kongelig Leverig</v>
-      </c>
-      <c r="B128" t="str">
-        <v xml:space="preserve"> qksn</v>
+    <row r="128" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>38</v>
+      </c>
+      <c r="B128" t="s">
+        <v>259</v>
       </c>
       <c r="C128">
         <v>25</v>
@@ -6605,8 +7496,8 @@
       <c r="E128">
         <v>31</v>
       </c>
-      <c r="F128" t="str">
-        <v>0.81</v>
+      <c r="F128" t="s">
+        <v>256</v>
       </c>
       <c r="G128">
         <v>14</v>
@@ -6636,12 +7527,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="str">
-        <v>KARGONELLO</v>
-      </c>
-      <c r="B129" t="str">
-        <v>luzny_1</v>
+    <row r="129" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>64</v>
+      </c>
+      <c r="B129" t="s">
+        <v>260</v>
       </c>
       <c r="C129">
         <v>31</v>
@@ -6652,8 +7543,8 @@
       <c r="E129">
         <v>39</v>
       </c>
-      <c r="F129" t="str">
-        <v>0.79</v>
+      <c r="F129" t="s">
+        <v>261</v>
       </c>
       <c r="G129">
         <v>15</v>
@@ -6683,12 +7574,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="str">
-        <v>Kongelig Leverig</v>
-      </c>
-      <c r="B130" t="str">
-        <v>Opel_cors_a</v>
+    <row r="130" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>38</v>
+      </c>
+      <c r="B130" t="s">
+        <v>262</v>
       </c>
       <c r="C130">
         <v>23</v>
@@ -6699,8 +7590,8 @@
       <c r="E130">
         <v>29</v>
       </c>
-      <c r="F130" t="str">
-        <v>0.79</v>
+      <c r="F130" t="s">
+        <v>261</v>
       </c>
       <c r="G130">
         <v>13</v>
@@ -6730,12 +7621,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="str">
-        <v>AKKJPZ</v>
-      </c>
-      <c r="B131" t="str">
-        <v>GoFrYy</v>
+    <row r="131" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>113</v>
+      </c>
+      <c r="B131" t="s">
+        <v>263</v>
       </c>
       <c r="C131">
         <v>42</v>
@@ -6746,8 +7637,8 @@
       <c r="E131">
         <v>53</v>
       </c>
-      <c r="F131" t="str">
-        <v>0.79</v>
+      <c r="F131" t="s">
+        <v>261</v>
       </c>
       <c r="G131">
         <v>12</v>
@@ -6777,12 +7668,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="str">
-        <v>Ribbi</v>
-      </c>
-      <c r="B132" t="str">
-        <v>SajmoN-_-</v>
+    <row r="132" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>68</v>
+      </c>
+      <c r="B132" t="s">
+        <v>264</v>
       </c>
       <c r="C132">
         <v>30</v>
@@ -6793,8 +7684,8 @@
       <c r="E132">
         <v>38</v>
       </c>
-      <c r="F132" t="str">
-        <v>0.79</v>
+      <c r="F132" t="s">
+        <v>261</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -6824,12 +7715,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="str">
-        <v>Quantity team</v>
-      </c>
-      <c r="B133" t="str">
-        <v>czarnybajcek</v>
+    <row r="133" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>103</v>
+      </c>
+      <c r="B133" t="s">
+        <v>265</v>
       </c>
       <c r="C133">
         <v>11</v>
@@ -6840,8 +7731,8 @@
       <c r="E133">
         <v>14</v>
       </c>
-      <c r="F133" t="str">
-        <v>0.79</v>
+      <c r="F133" t="s">
+        <v>261</v>
       </c>
       <c r="G133">
         <v>11</v>
@@ -6871,12 +7762,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="str">
-        <v>Quantity team</v>
-      </c>
-      <c r="B134" t="str">
-        <v>HEEDOoficial</v>
+    <row r="134" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>103</v>
+      </c>
+      <c r="B134" t="s">
+        <v>266</v>
       </c>
       <c r="C134">
         <v>14</v>
@@ -6887,8 +7778,8 @@
       <c r="E134">
         <v>18</v>
       </c>
-      <c r="F134" t="str">
-        <v>0.78</v>
+      <c r="F134" t="s">
+        <v>267</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -6918,12 +7809,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="str">
-        <v>CJ DOGS</v>
-      </c>
-      <c r="B135" t="str">
-        <v>DZREWOPL</v>
+    <row r="135" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>188</v>
+      </c>
+      <c r="B135" t="s">
+        <v>268</v>
       </c>
       <c r="C135">
         <v>37</v>
@@ -6934,8 +7825,8 @@
       <c r="E135">
         <v>48</v>
       </c>
-      <c r="F135" t="str">
-        <v>0.77</v>
+      <c r="F135" t="s">
+        <v>237</v>
       </c>
       <c r="G135">
         <v>9</v>
@@ -6965,12 +7856,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="str">
-        <v>Charakterni</v>
-      </c>
-      <c r="B136" t="str">
-        <v>jastrzab23</v>
+    <row r="136" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>52</v>
+      </c>
+      <c r="B136" t="s">
+        <v>269</v>
       </c>
       <c r="C136">
         <v>41</v>
@@ -6981,8 +7872,8 @@
       <c r="E136">
         <v>54</v>
       </c>
-      <c r="F136" t="str">
-        <v>0.76</v>
+      <c r="F136" t="s">
+        <v>270</v>
       </c>
       <c r="G136">
         <v>6</v>
@@ -7012,12 +7903,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="str">
-        <v>Aspoleczne Simpy Balladyny Esports</v>
-      </c>
-      <c r="B137" t="str">
-        <v>Krzycho2000</v>
+    <row r="137" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>50</v>
+      </c>
+      <c r="B137" t="s">
+        <v>271</v>
       </c>
       <c r="C137">
         <v>42</v>
@@ -7028,8 +7919,8 @@
       <c r="E137">
         <v>65</v>
       </c>
-      <c r="F137" t="str">
-        <v>0.65</v>
+      <c r="F137" t="s">
+        <v>272</v>
       </c>
       <c r="G137">
         <v>9</v>
@@ -7058,22 +7949,13 @@
       <c r="O137">
         <v>17</v>
       </c>
-      <c r="P137">
-        <v>6</v>
-      </c>
-      <c r="Q137">
-        <v>4</v>
-      </c>
-      <c r="R137">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="str">
-        <v>Ribbi</v>
-      </c>
-      <c r="B138" t="str">
-        <v>miensyjerz</v>
+    </row>
+    <row r="138" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>68</v>
+      </c>
+      <c r="B138" t="s">
+        <v>273</v>
       </c>
       <c r="C138">
         <v>27</v>
@@ -7084,8 +7966,8 @@
       <c r="E138">
         <v>36</v>
       </c>
-      <c r="F138" t="str">
-        <v>0.75</v>
+      <c r="F138" t="s">
+        <v>274</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -7115,12 +7997,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="str">
-        <v>Bomble Bombla Juniora-B-BJ</v>
-      </c>
-      <c r="B139" t="str">
-        <v>Vikoos</v>
+    <row r="139" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>36</v>
+      </c>
+      <c r="B139" t="s">
+        <v>275</v>
       </c>
       <c r="C139">
         <v>14</v>
@@ -7131,8 +8013,8 @@
       <c r="E139">
         <v>19</v>
       </c>
-      <c r="F139" t="str">
-        <v>0.74</v>
+      <c r="F139" t="s">
+        <v>276</v>
       </c>
       <c r="G139">
         <v>10</v>
@@ -7162,12 +8044,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="str">
-        <v>Sneaky Inters</v>
-      </c>
-      <c r="B140" t="str">
-        <v>slodkakasia</v>
+    <row r="140" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>181</v>
+      </c>
+      <c r="B140" t="s">
+        <v>277</v>
       </c>
       <c r="C140">
         <v>53</v>
@@ -7178,8 +8060,8 @@
       <c r="E140">
         <v>72</v>
       </c>
-      <c r="F140" t="str">
-        <v>0.74</v>
+      <c r="F140" t="s">
+        <v>276</v>
       </c>
       <c r="G140">
         <v>12</v>
@@ -7209,12 +8091,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="str">
-        <v>Ribbi</v>
-      </c>
-      <c r="B141" t="str">
-        <v>ToNieYxa</v>
+    <row r="141" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>68</v>
+      </c>
+      <c r="B141" t="s">
+        <v>278</v>
       </c>
       <c r="C141">
         <v>43</v>
@@ -7225,8 +8107,8 @@
       <c r="E141">
         <v>59</v>
       </c>
-      <c r="F141" t="str">
-        <v>0.73</v>
+      <c r="F141" t="s">
+        <v>279</v>
       </c>
       <c r="G141">
         <v>10</v>
@@ -7256,12 +8138,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="str">
-        <v>Charakterni</v>
-      </c>
-      <c r="B142" t="str">
-        <v>Amabro</v>
+    <row r="142" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>52</v>
+      </c>
+      <c r="B142" t="s">
+        <v>280</v>
       </c>
       <c r="C142">
         <v>40</v>
@@ -7272,8 +8154,8 @@
       <c r="E142">
         <v>55</v>
       </c>
-      <c r="F142" t="str">
-        <v>0.73</v>
+      <c r="F142" t="s">
+        <v>279</v>
       </c>
       <c r="G142">
         <v>12</v>
@@ -7303,12 +8185,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="str">
-        <v>Quantity team</v>
-      </c>
-      <c r="B143" t="str">
-        <v>maks3lo</v>
+    <row r="143" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>103</v>
+      </c>
+      <c r="B143" t="s">
+        <v>281</v>
       </c>
       <c r="C143">
         <v>21</v>
@@ -7319,8 +8201,8 @@
       <c r="E143">
         <v>29</v>
       </c>
-      <c r="F143" t="str">
-        <v>0.72</v>
+      <c r="F143" t="s">
+        <v>282</v>
       </c>
       <c r="G143">
         <v>17</v>
@@ -7350,12 +8232,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="str">
-        <v>Connector Players</v>
-      </c>
-      <c r="B144" t="str">
-        <v>Tomeczek_217</v>
+    <row r="144" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>109</v>
+      </c>
+      <c r="B144" t="s">
+        <v>283</v>
       </c>
       <c r="C144">
         <v>41</v>
@@ -7366,8 +8248,8 @@
       <c r="E144">
         <v>57</v>
       </c>
-      <c r="F144" t="str">
-        <v>0.72</v>
+      <c r="F144" t="s">
+        <v>282</v>
       </c>
       <c r="G144">
         <v>12</v>
@@ -7397,12 +8279,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="str">
-        <v>Ribbi</v>
-      </c>
-      <c r="B145" t="str">
-        <v>___Mat_</v>
+    <row r="145" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>68</v>
+      </c>
+      <c r="B145" t="s">
+        <v>284</v>
       </c>
       <c r="C145">
         <v>36</v>
@@ -7413,8 +8295,8 @@
       <c r="E145">
         <v>51</v>
       </c>
-      <c r="F145" t="str">
-        <v>0.71</v>
+      <c r="F145" t="s">
+        <v>285</v>
       </c>
       <c r="G145">
         <v>17</v>
@@ -7444,12 +8326,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="str">
-        <v>AKKJPZ</v>
-      </c>
-      <c r="B146" t="str">
-        <v>Tengli</v>
+    <row r="146" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>113</v>
+      </c>
+      <c r="B146" t="s">
+        <v>286</v>
       </c>
       <c r="C146">
         <v>24</v>
@@ -7460,8 +8342,8 @@
       <c r="E146">
         <v>34</v>
       </c>
-      <c r="F146" t="str">
-        <v>0.71</v>
+      <c r="F146" t="s">
+        <v>285</v>
       </c>
       <c r="G146">
         <v>8</v>
@@ -7491,12 +8373,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="str">
-        <v>de_presja</v>
-      </c>
-      <c r="B147" t="str">
-        <v>Kocham_ciee</v>
+    <row r="147" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>92</v>
+      </c>
+      <c r="B147" t="s">
+        <v>287</v>
       </c>
       <c r="C147">
         <v>37</v>
@@ -7507,8 +8389,8 @@
       <c r="E147">
         <v>53</v>
       </c>
-      <c r="F147" t="str">
-        <v>0.70</v>
+      <c r="F147" t="s">
+        <v>288</v>
       </c>
       <c r="G147">
         <v>15</v>
@@ -7538,12 +8420,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="str">
-        <v>AKKJPZ</v>
-      </c>
-      <c r="B148" t="str">
-        <v>Tomon080</v>
+    <row r="148" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>113</v>
+      </c>
+      <c r="B148" t="s">
+        <v>289</v>
       </c>
       <c r="C148">
         <v>34</v>
@@ -7554,8 +8436,8 @@
       <c r="E148">
         <v>49</v>
       </c>
-      <c r="F148" t="str">
-        <v>0.69</v>
+      <c r="F148" t="s">
+        <v>290</v>
       </c>
       <c r="G148">
         <v>14</v>
@@ -7585,12 +8467,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="str">
-        <v>Sneaky Inters</v>
-      </c>
-      <c r="B149" t="str">
-        <v>Af3ra</v>
+    <row r="149" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>181</v>
+      </c>
+      <c r="B149" t="s">
+        <v>291</v>
       </c>
       <c r="C149">
         <v>47</v>
@@ -7601,8 +8483,8 @@
       <c r="E149">
         <v>68</v>
       </c>
-      <c r="F149" t="str">
-        <v>0.69</v>
+      <c r="F149" t="s">
+        <v>290</v>
       </c>
       <c r="G149">
         <v>9</v>
@@ -7632,12 +8514,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="str">
-        <v>Wolfgang</v>
-      </c>
-      <c r="B150" t="str">
-        <v>s1r_Avocado</v>
+    <row r="150" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>72</v>
+      </c>
+      <c r="B150" t="s">
+        <v>292</v>
       </c>
       <c r="C150">
         <v>33</v>
@@ -7648,8 +8530,8 @@
       <c r="E150">
         <v>48</v>
       </c>
-      <c r="F150" t="str">
-        <v>0.69</v>
+      <c r="F150" t="s">
+        <v>290</v>
       </c>
       <c r="G150">
         <v>12</v>
@@ -7679,12 +8561,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="str">
-        <v>Gmina Czarków</v>
-      </c>
-      <c r="B151" t="str">
-        <v>FlyingCowPL</v>
+    <row r="151" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>200</v>
+      </c>
+      <c r="B151" t="s">
+        <v>293</v>
       </c>
       <c r="C151">
         <v>26</v>
@@ -7695,8 +8577,8 @@
       <c r="E151">
         <v>39</v>
       </c>
-      <c r="F151" t="str">
-        <v>0.67</v>
+      <c r="F151" t="s">
+        <v>294</v>
       </c>
       <c r="G151">
         <v>11</v>
@@ -7726,12 +8608,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="str">
-        <v>Los Defectos</v>
-      </c>
-      <c r="B152" t="str">
-        <v>17Zwola17</v>
+    <row r="152" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>168</v>
+      </c>
+      <c r="B152" t="s">
+        <v>295</v>
       </c>
       <c r="C152">
         <v>14</v>
@@ -7742,8 +8624,8 @@
       <c r="E152">
         <v>21</v>
       </c>
-      <c r="F152" t="str">
-        <v>0.67</v>
+      <c r="F152" t="s">
+        <v>294</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -7773,12 +8655,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="str">
-        <v>CJ DOGS</v>
-      </c>
-      <c r="B153" t="str">
-        <v>Gromik12213</v>
+    <row r="153" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>188</v>
+      </c>
+      <c r="B153" t="s">
+        <v>296</v>
       </c>
       <c r="C153">
         <v>23</v>
@@ -7789,8 +8671,8 @@
       <c r="E153">
         <v>35</v>
       </c>
-      <c r="F153" t="str">
-        <v>0.66</v>
+      <c r="F153" t="s">
+        <v>297</v>
       </c>
       <c r="G153">
         <v>13</v>
@@ -7820,12 +8702,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="str">
-        <v>Esconda 99</v>
-      </c>
-      <c r="B154" t="str">
-        <v>guma durex</v>
+    <row r="154" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>47</v>
+      </c>
+      <c r="B154" t="s">
+        <v>298</v>
       </c>
       <c r="C154">
         <v>17</v>
@@ -7836,8 +8718,8 @@
       <c r="E154">
         <v>26</v>
       </c>
-      <c r="F154" t="str">
-        <v>0.65</v>
+      <c r="F154" t="s">
+        <v>272</v>
       </c>
       <c r="G154">
         <v>5</v>
@@ -7867,12 +8749,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="str">
-        <v>FF Team</v>
-      </c>
-      <c r="B155" t="str">
-        <v>YkkaAsfeo</v>
+    <row r="155" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>56</v>
+      </c>
+      <c r="B155" t="s">
+        <v>299</v>
       </c>
       <c r="C155">
         <v>43</v>
@@ -7883,8 +8765,8 @@
       <c r="E155">
         <v>66</v>
       </c>
-      <c r="F155" t="str">
-        <v>0.65</v>
+      <c r="F155" t="s">
+        <v>272</v>
       </c>
       <c r="G155">
         <v>15</v>
@@ -7914,12 +8796,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="str">
-        <v>FireEagles</v>
-      </c>
-      <c r="B156" t="str">
-        <v>PieZ__</v>
+    <row r="156" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>142</v>
+      </c>
+      <c r="B156" t="s">
+        <v>300</v>
       </c>
       <c r="C156">
         <v>7</v>
@@ -7930,8 +8812,8 @@
       <c r="E156">
         <v>11</v>
       </c>
-      <c r="F156" t="str">
-        <v>0.64</v>
+      <c r="F156" t="s">
+        <v>301</v>
       </c>
       <c r="G156">
         <v>7</v>
@@ -7961,12 +8843,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="str">
-        <v>Bomble Bombla Juniora-B-BJ</v>
-      </c>
-      <c r="B157" t="str">
-        <v>gucioM</v>
+    <row r="157" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>36</v>
+      </c>
+      <c r="B157" t="s">
+        <v>302</v>
       </c>
       <c r="C157">
         <v>15</v>
@@ -7977,8 +8859,8 @@
       <c r="E157">
         <v>24</v>
       </c>
-      <c r="F157" t="str">
-        <v>0.63</v>
+      <c r="F157" t="s">
+        <v>303</v>
       </c>
       <c r="G157">
         <v>11</v>
@@ -8008,12 +8890,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="str">
-        <v>Esconda 99</v>
-      </c>
-      <c r="B158" t="str">
-        <v>majkel_MP3</v>
+    <row r="158" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>47</v>
+      </c>
+      <c r="B158" t="s">
+        <v>304</v>
       </c>
       <c r="C158">
         <v>19</v>
@@ -8024,8 +8906,8 @@
       <c r="E158">
         <v>31</v>
       </c>
-      <c r="F158" t="str">
-        <v>0.61</v>
+      <c r="F158" t="s">
+        <v>305</v>
       </c>
       <c r="G158">
         <v>9</v>
@@ -8055,12 +8937,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="str">
-        <v>FULL BOLID</v>
-      </c>
-      <c r="B159" t="str">
-        <v>4VOCADOM4N</v>
+    <row r="159" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>60</v>
+      </c>
+      <c r="B159" t="s">
+        <v>306</v>
       </c>
       <c r="C159">
         <v>38</v>
@@ -8071,8 +8953,8 @@
       <c r="E159">
         <v>67</v>
       </c>
-      <c r="F159" t="str">
-        <v>0.57</v>
+      <c r="F159" t="s">
+        <v>307</v>
       </c>
       <c r="G159">
         <v>10</v>
@@ -8101,22 +8983,13 @@
       <c r="O159">
         <v>18</v>
       </c>
-      <c r="P159">
-        <v>8</v>
-      </c>
-      <c r="Q159">
-        <v>5</v>
-      </c>
-      <c r="R159">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="str">
-        <v>Ribbi</v>
-      </c>
-      <c r="B160" t="str">
-        <v>_Johnny_14</v>
+    </row>
+    <row r="160" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>68</v>
+      </c>
+      <c r="B160" t="s">
+        <v>308</v>
       </c>
       <c r="C160">
         <v>33</v>
@@ -8127,8 +9000,8 @@
       <c r="E160">
         <v>54</v>
       </c>
-      <c r="F160" t="str">
-        <v>0.61</v>
+      <c r="F160" t="s">
+        <v>305</v>
       </c>
       <c r="G160">
         <v>12</v>
@@ -8158,12 +9031,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="str">
-        <v>Esconda 99</v>
-      </c>
-      <c r="B161" t="str">
-        <v>styblinez</v>
+    <row r="161" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>47</v>
+      </c>
+      <c r="B161" t="s">
+        <v>309</v>
       </c>
       <c r="C161">
         <v>11</v>
@@ -8174,8 +9047,8 @@
       <c r="E161">
         <v>18</v>
       </c>
-      <c r="F161" t="str">
-        <v>0.61</v>
+      <c r="F161" t="s">
+        <v>305</v>
       </c>
       <c r="G161">
         <v>10</v>
@@ -8205,12 +9078,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="str">
-        <v>DJ, Drużyna z Jeziora</v>
-      </c>
-      <c r="B162" t="str">
-        <v>Lonley7</v>
+    <row r="162" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>54</v>
+      </c>
+      <c r="B162" t="s">
+        <v>310</v>
       </c>
       <c r="C162">
         <v>41</v>
@@ -8221,8 +9094,8 @@
       <c r="E162">
         <v>68</v>
       </c>
-      <c r="F162" t="str">
-        <v>0.60</v>
+      <c r="F162" t="s">
+        <v>311</v>
       </c>
       <c r="G162">
         <v>6</v>
@@ -8252,12 +9125,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="str">
-        <v>CJ DOGS</v>
-      </c>
-      <c r="B163" t="str">
-        <v>skaM43_</v>
+    <row r="163" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>188</v>
+      </c>
+      <c r="B163" t="s">
+        <v>312</v>
       </c>
       <c r="C163">
         <v>27</v>
@@ -8268,8 +9141,8 @@
       <c r="E163">
         <v>45</v>
       </c>
-      <c r="F163" t="str">
-        <v>0.60</v>
+      <c r="F163" t="s">
+        <v>311</v>
       </c>
       <c r="G163">
         <v>7</v>
@@ -8299,12 +9172,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="str">
-        <v>Warzywka</v>
-      </c>
-      <c r="B164" t="str">
-        <v>zaleszczakk</v>
+    <row r="164" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>74</v>
+      </c>
+      <c r="B164" t="s">
+        <v>313</v>
       </c>
       <c r="C164">
         <v>11</v>
@@ -8315,8 +9188,8 @@
       <c r="E164">
         <v>19</v>
       </c>
-      <c r="F164" t="str">
-        <v>0.58</v>
+      <c r="F164" t="s">
+        <v>314</v>
       </c>
       <c r="G164">
         <v>8</v>
@@ -8346,12 +9219,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="str">
-        <v>CJ DOGS</v>
-      </c>
-      <c r="B165" t="str">
-        <v>Vajking_</v>
+    <row r="165" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>188</v>
+      </c>
+      <c r="B165" t="s">
+        <v>315</v>
       </c>
       <c r="C165">
         <v>9</v>
@@ -8362,8 +9235,8 @@
       <c r="E165">
         <v>16</v>
       </c>
-      <c r="F165" t="str">
-        <v>0.56</v>
+      <c r="F165" t="s">
+        <v>316</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -8393,12 +9266,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="str">
-        <v>Brazylisjkie Kasztany</v>
-      </c>
-      <c r="B166" t="str">
-        <v>SENTER_</v>
+    <row r="166" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>118</v>
+      </c>
+      <c r="B166" t="s">
+        <v>317</v>
       </c>
       <c r="C166">
         <v>31</v>
@@ -8409,8 +9282,8 @@
       <c r="E166">
         <v>56</v>
       </c>
-      <c r="F166" t="str">
-        <v>0.55</v>
+      <c r="F166" t="s">
+        <v>318</v>
       </c>
       <c r="G166">
         <v>8</v>
@@ -8440,12 +9313,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="str">
-        <v>Gmina Czarków</v>
-      </c>
-      <c r="B167" t="str">
-        <v>nedZiu04</v>
+    <row r="167" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>200</v>
+      </c>
+      <c r="B167" t="s">
+        <v>319</v>
       </c>
       <c r="C167">
         <v>21</v>
@@ -8456,8 +9329,8 @@
       <c r="E167">
         <v>38</v>
       </c>
-      <c r="F167" t="str">
-        <v>0.55</v>
+      <c r="F167" t="s">
+        <v>318</v>
       </c>
       <c r="G167">
         <v>5</v>
@@ -8487,12 +9360,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="str">
-        <v>Aspoleczne Simpy Balladyny Esports</v>
-      </c>
-      <c r="B168" t="str">
-        <v>eliminer_1</v>
+    <row r="168" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>50</v>
+      </c>
+      <c r="B168" t="s">
+        <v>320</v>
       </c>
       <c r="C168">
         <v>37</v>
@@ -8503,8 +9376,8 @@
       <c r="E168">
         <v>67</v>
       </c>
-      <c r="F168" t="str">
-        <v>0.55</v>
+      <c r="F168" t="s">
+        <v>318</v>
       </c>
       <c r="G168">
         <v>11</v>
@@ -8533,22 +9406,13 @@
       <c r="O168">
         <v>16</v>
       </c>
-      <c r="P168">
-        <v>9</v>
-      </c>
-      <c r="Q168">
-        <v>1</v>
-      </c>
-      <c r="R168">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="str">
-        <v>Charakterni</v>
-      </c>
-      <c r="B169" t="str">
-        <v>faFIQ</v>
+    </row>
+    <row r="169" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>52</v>
+      </c>
+      <c r="B169" t="s">
+        <v>321</v>
       </c>
       <c r="C169">
         <v>30</v>
@@ -8559,8 +9423,8 @@
       <c r="E169">
         <v>55</v>
       </c>
-      <c r="F169" t="str">
-        <v>0.55</v>
+      <c r="F169" t="s">
+        <v>318</v>
       </c>
       <c r="G169">
         <v>7</v>
@@ -8590,12 +9454,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="str">
-        <v>DJ, Drużyna z Jeziora</v>
-      </c>
-      <c r="B170" t="str">
-        <v>vixsemty</v>
+    <row r="170" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>54</v>
+      </c>
+      <c r="B170" t="s">
+        <v>322</v>
       </c>
       <c r="C170">
         <v>38</v>
@@ -8606,8 +9470,8 @@
       <c r="E170">
         <v>70</v>
       </c>
-      <c r="F170" t="str">
-        <v>0.54</v>
+      <c r="F170" t="s">
+        <v>323</v>
       </c>
       <c r="G170">
         <v>7</v>
@@ -8637,12 +9501,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="str">
-        <v>Quantity team</v>
-      </c>
-      <c r="B171" t="str">
-        <v>mehow_god</v>
+    <row r="171" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>103</v>
+      </c>
+      <c r="B171" t="s">
+        <v>324</v>
       </c>
       <c r="C171">
         <v>24</v>
@@ -8653,8 +9517,8 @@
       <c r="E171">
         <v>45</v>
       </c>
-      <c r="F171" t="str">
-        <v>0.53</v>
+      <c r="F171" t="s">
+        <v>325</v>
       </c>
       <c r="G171">
         <v>13</v>
@@ -8684,12 +9548,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="str">
-        <v>Connector Players</v>
-      </c>
-      <c r="B172" t="str">
-        <v>donotcrykid</v>
+    <row r="172" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>109</v>
+      </c>
+      <c r="B172" t="s">
+        <v>326</v>
       </c>
       <c r="C172">
         <v>10</v>
@@ -8700,8 +9564,8 @@
       <c r="E172">
         <v>19</v>
       </c>
-      <c r="F172" t="str">
-        <v>0.53</v>
+      <c r="F172" t="s">
+        <v>325</v>
       </c>
       <c r="G172">
         <v>10</v>
@@ -8731,12 +9595,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="str">
-        <v>Sneaky Inters</v>
-      </c>
-      <c r="B173" t="str">
-        <v>miniu187</v>
+    <row r="173" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>181</v>
+      </c>
+      <c r="B173" t="s">
+        <v>327</v>
       </c>
       <c r="C173">
         <v>10</v>
@@ -8747,8 +9611,8 @@
       <c r="E173">
         <v>19</v>
       </c>
-      <c r="F173" t="str">
-        <v>0.53</v>
+      <c r="F173" t="s">
+        <v>325</v>
       </c>
       <c r="G173">
         <v>10</v>
@@ -8778,12 +9642,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="str">
-        <v>Smolas</v>
-      </c>
-      <c r="B174" t="str">
-        <v>czosneg_</v>
+    <row r="174" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>70</v>
+      </c>
+      <c r="B174" t="s">
+        <v>328</v>
       </c>
       <c r="C174">
         <v>29</v>
@@ -8794,8 +9658,8 @@
       <c r="E174">
         <v>58</v>
       </c>
-      <c r="F174" t="str">
-        <v>0.50</v>
+      <c r="F174" t="s">
+        <v>329</v>
       </c>
       <c r="G174">
         <v>13</v>
@@ -8825,12 +9689,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="str">
-        <v>de_presja</v>
-      </c>
-      <c r="B175" t="str">
-        <v>Chm0rnik</v>
+    <row r="175" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>92</v>
+      </c>
+      <c r="B175" t="s">
+        <v>330</v>
       </c>
       <c r="C175">
         <v>19</v>
@@ -8841,8 +9705,8 @@
       <c r="E175">
         <v>38</v>
       </c>
-      <c r="F175" t="str">
-        <v>0.50</v>
+      <c r="F175" t="s">
+        <v>329</v>
       </c>
       <c r="G175">
         <v>13</v>
@@ -8872,12 +9736,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="str">
-        <v>Charakterni</v>
-      </c>
-      <c r="B176" t="str">
-        <v>aeizyGod</v>
+    <row r="176" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>52</v>
+      </c>
+      <c r="B176" t="s">
+        <v>331</v>
       </c>
       <c r="C176">
         <v>18</v>
@@ -8888,8 +9752,8 @@
       <c r="E176">
         <v>38</v>
       </c>
-      <c r="F176" t="str">
-        <v>0.47</v>
+      <c r="F176" t="s">
+        <v>332</v>
       </c>
       <c r="G176">
         <v>9</v>
@@ -8919,12 +9783,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="str">
-        <v>Gmina Czarków</v>
-      </c>
-      <c r="B177" t="str">
-        <v>AK-PePe</v>
+    <row r="177" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>200</v>
+      </c>
+      <c r="B177" t="s">
+        <v>333</v>
       </c>
       <c r="C177">
         <v>17</v>
@@ -8935,8 +9799,8 @@
       <c r="E177">
         <v>37</v>
       </c>
-      <c r="F177" t="str">
-        <v>0.46</v>
+      <c r="F177" t="s">
+        <v>334</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -8966,12 +9830,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="str">
-        <v>FF Team</v>
-      </c>
-      <c r="B178" t="str">
-        <v>Slaweczuk</v>
+    <row r="178" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>56</v>
+      </c>
+      <c r="B178" t="s">
+        <v>335</v>
       </c>
       <c r="C178">
         <v>19</v>
@@ -8982,8 +9846,8 @@
       <c r="E178">
         <v>42</v>
       </c>
-      <c r="F178" t="str">
-        <v>0.45</v>
+      <c r="F178" t="s">
+        <v>336</v>
       </c>
       <c r="G178">
         <v>15</v>
@@ -9013,12 +9877,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="str">
-        <v>Smolas</v>
-      </c>
-      <c r="B179" t="str">
-        <v>quick-ass</v>
+    <row r="179" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>70</v>
+      </c>
+      <c r="B179" t="s">
+        <v>337</v>
       </c>
       <c r="C179">
         <v>28</v>
@@ -9029,8 +9893,8 @@
       <c r="E179">
         <v>63</v>
       </c>
-      <c r="F179" t="str">
-        <v>0.44</v>
+      <c r="F179" t="s">
+        <v>338</v>
       </c>
       <c r="G179">
         <v>10</v>
@@ -9060,12 +9924,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="str">
-        <v>DJ, Drużyna z Jeziora</v>
-      </c>
-      <c r="B180" t="str">
-        <v>BOTPrzemysaw</v>
+    <row r="180" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>54</v>
+      </c>
+      <c r="B180" t="s">
+        <v>339</v>
       </c>
       <c r="C180">
         <v>31</v>
@@ -9076,8 +9940,8 @@
       <c r="E180">
         <v>72</v>
       </c>
-      <c r="F180" t="str">
-        <v>0.43</v>
+      <c r="F180" t="s">
+        <v>340</v>
       </c>
       <c r="G180">
         <v>9</v>
@@ -9107,12 +9971,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="str">
-        <v>Smolas</v>
-      </c>
-      <c r="B181" t="str">
-        <v>StrongBrian</v>
+    <row r="181" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>70</v>
+      </c>
+      <c r="B181" t="s">
+        <v>341</v>
       </c>
       <c r="C181">
         <v>26</v>
@@ -9123,8 +9987,8 @@
       <c r="E181">
         <v>61</v>
       </c>
-      <c r="F181" t="str">
-        <v>0.43</v>
+      <c r="F181" t="s">
+        <v>340</v>
       </c>
       <c r="G181">
         <v>10</v>
@@ -9154,12 +10018,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="str">
-        <v>Brazylisjkie Kasztany</v>
-      </c>
-      <c r="B182" t="str">
-        <v>JanoDzik</v>
+    <row r="182" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>118</v>
+      </c>
+      <c r="B182" t="s">
+        <v>342</v>
       </c>
       <c r="C182">
         <v>6</v>
@@ -9170,8 +10034,8 @@
       <c r="E182">
         <v>16</v>
       </c>
-      <c r="F182" t="str">
-        <v>0.38</v>
+      <c r="F182" t="s">
+        <v>343</v>
       </c>
       <c r="G182">
         <v>6</v>
@@ -9201,12 +10065,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="str">
-        <v>Aspoleczne Simpy Balladyny Esports</v>
-      </c>
-      <c r="B183" t="str">
-        <v>Alanik</v>
+    <row r="183" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>50</v>
+      </c>
+      <c r="B183" t="s">
+        <v>344</v>
       </c>
       <c r="C183">
         <v>7</v>
@@ -9217,8 +10081,8 @@
       <c r="E183">
         <v>19</v>
       </c>
-      <c r="F183" t="str">
-        <v>0.37</v>
+      <c r="F183" t="s">
+        <v>345</v>
       </c>
       <c r="G183">
         <v>7</v>
@@ -9247,22 +10111,13 @@
       <c r="O183">
         <v>0</v>
       </c>
-      <c r="P183">
-        <v>0</v>
-      </c>
-      <c r="Q183">
-        <v>0</v>
-      </c>
-      <c r="R183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="str">
-        <v>Esconda 99</v>
-      </c>
-      <c r="B184" t="str">
-        <v>zgniatacz0</v>
+    </row>
+    <row r="184" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>47</v>
+      </c>
+      <c r="B184" t="s">
+        <v>346</v>
       </c>
       <c r="C184">
         <v>7</v>
@@ -9273,8 +10128,8 @@
       <c r="E184">
         <v>19</v>
       </c>
-      <c r="F184" t="str">
-        <v>0.37</v>
+      <c r="F184" t="s">
+        <v>345</v>
       </c>
       <c r="G184">
         <v>6</v>
@@ -9304,12 +10159,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="str">
-        <v>Gmina Czarków</v>
-      </c>
-      <c r="B185" t="str">
-        <v>Ankard</v>
+    <row r="185" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>200</v>
+      </c>
+      <c r="B185" t="s">
+        <v>347</v>
       </c>
       <c r="C185">
         <v>2</v>
@@ -9320,8 +10175,8 @@
       <c r="E185">
         <v>16</v>
       </c>
-      <c r="F185" t="str">
-        <v>0.13</v>
+      <c r="F185" t="s">
+        <v>348</v>
       </c>
       <c r="G185">
         <v>-1</v>
@@ -9352,8 +10207,9 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AJ185"/>
+    <ignoredError sqref="A1:AJ1 A2:O185 T2:AJ185" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Zawodnicy_CSGO.xlsx
+++ b/Zawodnicy_CSGO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I9\Documents\GitHub\PrivateMusicBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AACCC9C-CA3F-476A-AEE9-9D16C350AE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6B1996-91C2-40FD-9942-99F0DAD5B7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="1065" windowWidth="30915" windowHeight="18315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="975" windowWidth="30915" windowHeight="18315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -1363,7 +1363,7 @@
   <dimension ref="A1:AS203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Zawodnicy_CSGO.xlsx
+++ b/Zawodnicy_CSGO.xlsx
@@ -1,19 +1,1070 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I9\Documents\GitHub\PrivateMusicBot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC378D7-9F93-4869-8C05-520C62CB0A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3060" yWindow="1545" windowWidth="30915" windowHeight="18315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="346">
+  <si>
+    <t>Drużyna</t>
+  </si>
+  <si>
+    <t>Zawodnicy</t>
+  </si>
+  <si>
+    <t>Total Kills</t>
+  </si>
+  <si>
+    <t>Total Assists</t>
+  </si>
+  <si>
+    <t>Total Deaths</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>1. Kills</t>
+  </si>
+  <si>
+    <t>1. Assists</t>
+  </si>
+  <si>
+    <t>1. Deaths</t>
+  </si>
+  <si>
+    <t>2. Kills</t>
+  </si>
+  <si>
+    <t>2. Assists</t>
+  </si>
+  <si>
+    <t>2. Deaths</t>
+  </si>
+  <si>
+    <t>3. Kills</t>
+  </si>
+  <si>
+    <t>3. Assists</t>
+  </si>
+  <si>
+    <t>3. Deaths</t>
+  </si>
+  <si>
+    <t>4. Kills</t>
+  </si>
+  <si>
+    <t>4. Assists</t>
+  </si>
+  <si>
+    <t>4. Deaths</t>
+  </si>
+  <si>
+    <t>5. Kills</t>
+  </si>
+  <si>
+    <t>5. Assists</t>
+  </si>
+  <si>
+    <t>5. Deaths</t>
+  </si>
+  <si>
+    <t>6. Kills</t>
+  </si>
+  <si>
+    <t>6. Assists</t>
+  </si>
+  <si>
+    <t>6. Deaths</t>
+  </si>
+  <si>
+    <t>7. Kills</t>
+  </si>
+  <si>
+    <t>7. Assists</t>
+  </si>
+  <si>
+    <t>7. Deaths</t>
+  </si>
+  <si>
+    <t>8. Kills</t>
+  </si>
+  <si>
+    <t>8. Assists</t>
+  </si>
+  <si>
+    <t>8. Deaths</t>
+  </si>
+  <si>
+    <t>9. Kills</t>
+  </si>
+  <si>
+    <t>9. Assists</t>
+  </si>
+  <si>
+    <t>9. Deaths</t>
+  </si>
+  <si>
+    <t>10. Kills</t>
+  </si>
+  <si>
+    <t>10. Assists</t>
+  </si>
+  <si>
+    <t>10. Deaths</t>
+  </si>
+  <si>
+    <t>Bomble Bombla Juniora-B-BJ</t>
+  </si>
+  <si>
+    <t>Liczpuk</t>
+  </si>
+  <si>
+    <t>Kongelig Leverig</t>
+  </si>
+  <si>
+    <t>derko12</t>
+  </si>
+  <si>
+    <t>WestWawa!</t>
+  </si>
+  <si>
+    <t>Makksio</t>
+  </si>
+  <si>
+    <t>PrzepalonyDecybel</t>
+  </si>
+  <si>
+    <t>Drivell</t>
+  </si>
+  <si>
+    <t>mikuś</t>
+  </si>
+  <si>
+    <t>BOT pralka</t>
+  </si>
+  <si>
+    <t>PISZCZACA OPONA</t>
+  </si>
+  <si>
+    <t>Esconda 99</t>
+  </si>
+  <si>
+    <t>getkozaur</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Aspoleczne Simpy Balladyny Esports</t>
+  </si>
+  <si>
+    <t>Gilek987</t>
+  </si>
+  <si>
+    <t>Charakterni</t>
+  </si>
+  <si>
+    <t>Jankooss</t>
+  </si>
+  <si>
+    <t>DJ, Drużyna z Jeziora</t>
+  </si>
+  <si>
+    <t>Lolopes2K</t>
+  </si>
+  <si>
+    <t>FF Team</t>
+  </si>
+  <si>
+    <t>kijio</t>
+  </si>
+  <si>
+    <t>Fikuśny Gaming</t>
+  </si>
+  <si>
+    <t>Ezil77</t>
+  </si>
+  <si>
+    <t>FULL BOLID</t>
+  </si>
+  <si>
+    <t>Paprot_PL</t>
+  </si>
+  <si>
+    <t>Inshallah</t>
+  </si>
+  <si>
+    <t>_jnz_</t>
+  </si>
+  <si>
+    <t>KARGONELLO</t>
+  </si>
+  <si>
+    <t>Kar1mq</t>
+  </si>
+  <si>
+    <t>Polonia Napleton</t>
+  </si>
+  <si>
+    <t>Ziemniok_05</t>
+  </si>
+  <si>
+    <t>Ribbi</t>
+  </si>
+  <si>
+    <t>szypki_bill</t>
+  </si>
+  <si>
+    <t>Smolas</t>
+  </si>
+  <si>
+    <t>Bielzibab</t>
+  </si>
+  <si>
+    <t>Wolfgang</t>
+  </si>
+  <si>
+    <t>hansi</t>
+  </si>
+  <si>
+    <t>Warzywka</t>
+  </si>
+  <si>
+    <t>djkeeyn</t>
+  </si>
+  <si>
+    <t>3.43</t>
+  </si>
+  <si>
+    <t>Profanacja</t>
+  </si>
+  <si>
+    <t>Antonix1</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>Kosiarze</t>
+  </si>
+  <si>
+    <t>Faacik</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>Julusie</t>
+  </si>
+  <si>
+    <t>chinamoney77</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>Luxy</t>
+  </si>
+  <si>
+    <t>1.96</t>
+  </si>
+  <si>
+    <t>zabollll</t>
+  </si>
+  <si>
+    <t>1.91</t>
+  </si>
+  <si>
+    <t>GumaOrb1t</t>
+  </si>
+  <si>
+    <t>1.84</t>
+  </si>
+  <si>
+    <t>de_presja</t>
+  </si>
+  <si>
+    <t>Ikasabess</t>
+  </si>
+  <si>
+    <t>1.67</t>
+  </si>
+  <si>
+    <t>Creedddd12</t>
+  </si>
+  <si>
+    <t>1.66</t>
+  </si>
+  <si>
+    <t>popel2003</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>Rewek</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>MANTUUUUUUUU</t>
+  </si>
+  <si>
+    <t>Walter14</t>
+  </si>
+  <si>
+    <t>1.63</t>
+  </si>
+  <si>
+    <t>Quantity team</t>
+  </si>
+  <si>
+    <t>SzwyQ</t>
+  </si>
+  <si>
+    <t>itsTeeP</t>
+  </si>
+  <si>
+    <t>"-arju"</t>
+  </si>
+  <si>
+    <t>1.87</t>
+  </si>
+  <si>
+    <t>Connector Players</t>
+  </si>
+  <si>
+    <t>Dyberly</t>
+  </si>
+  <si>
+    <t>1.60</t>
+  </si>
+  <si>
+    <t>grzybiarz132</t>
+  </si>
+  <si>
+    <t>AKKJPZ</t>
+  </si>
+  <si>
+    <t>Imrealghost</t>
+  </si>
+  <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>BoBo__69</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>Brazylisjkie Kasztany</t>
+  </si>
+  <si>
+    <t>Krikrox</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>Marchello_ez</t>
+  </si>
+  <si>
+    <t>1.49</t>
+  </si>
+  <si>
+    <t>Po prostu Kołłątaj</t>
+  </si>
+  <si>
+    <t>freeezix46</t>
+  </si>
+  <si>
+    <t>TTH_btw</t>
+  </si>
+  <si>
+    <t>"154925161206"</t>
+  </si>
+  <si>
+    <t>1.45</t>
+  </si>
+  <si>
+    <t>REXIHN0</t>
+  </si>
+  <si>
+    <t>Amireczek</t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
+    <t>Gniewcio20</t>
+  </si>
+  <si>
+    <t>Krychaa_</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>adax_io</t>
+  </si>
+  <si>
+    <t>WasiuS</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>budzix</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>l_like_Ikea</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>FireEagles</t>
+  </si>
+  <si>
+    <t>Vivoxi</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>_z00n</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>_Franiuuu_</t>
+  </si>
+  <si>
+    <t>Hyper30k</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>Kobraa9</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>TheShhadow</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>misiek12_ste</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>WPMEKobonga</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>boberitooo</t>
+  </si>
+  <si>
+    <t>Czarna_Zjawa</t>
+  </si>
+  <si>
+    <t>Kioshi-kun</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>SameK-</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>ScramScram</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>patry_mdfkr</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>derv1ll</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>Los Defectos</t>
+  </si>
+  <si>
+    <t>_-_Matix_-_</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>ad3ionix</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>Dunneo</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Vojtaz_ </t>
+  </si>
+  <si>
+    <t>AirAustin77</t>
+  </si>
+  <si>
+    <t>W1LQ_</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>SkilluPlayz</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>Sneaky Inters</t>
+  </si>
+  <si>
+    <t>slodkazuzia</t>
+  </si>
+  <si>
+    <t>MzRY7</t>
+  </si>
+  <si>
+    <t>Grocik_</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>Bukaj262</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>CJ DOGS</t>
+  </si>
+  <si>
+    <t>Arax909</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>sytek2137</t>
+  </si>
+  <si>
+    <t>__Jasper--</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>PLVanishPL</t>
+  </si>
+  <si>
+    <t>adamch</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>R4egz</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>Ruzyk</t>
+  </si>
+  <si>
+    <t>Gmina Czarków</t>
+  </si>
+  <si>
+    <t>TanQ31</t>
+  </si>
+  <si>
+    <t>Ste3wi</t>
+  </si>
+  <si>
+    <t>CallmeMG</t>
+  </si>
+  <si>
+    <t>FikusnyHubi</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>sebix05</t>
+  </si>
+  <si>
+    <t>SlodkaOla13</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>Extr3m0</t>
+  </si>
+  <si>
+    <t>SPKILL</t>
+  </si>
+  <si>
+    <t>siurenis</t>
+  </si>
+  <si>
+    <t>pozuc_jr</t>
+  </si>
+  <si>
+    <t>ScreamingKek</t>
+  </si>
+  <si>
+    <t>Votix654</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>sznycel901</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>borajs</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>DogguTonix</t>
+  </si>
+  <si>
+    <t>rymszak</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>Elifusek</t>
+  </si>
+  <si>
+    <t>NeverMind-d2</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>Wasil1</t>
+  </si>
+  <si>
+    <t>EPCarbonara</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>6julus9</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>Fisze</t>
+  </si>
+  <si>
+    <t>fiji___</t>
+  </si>
+  <si>
+    <t>T0B3R</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>Robcio76</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>LordJurkon</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>yebac_psy</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>Breslau_</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>arabinho15</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>EndoJD</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>Sciudi</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>peczu123</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>_Righty_</t>
+  </si>
+  <si>
+    <t>Ogon__</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>103adam</t>
+  </si>
+  <si>
+    <t>_BushMan_</t>
+  </si>
+  <si>
+    <t>MiresPL</t>
+  </si>
+  <si>
+    <t>tatapiotr</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>bobiszone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> qksn</t>
+  </si>
+  <si>
+    <t>luzny_1</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>Opel_cors_a</t>
+  </si>
+  <si>
+    <t>GoFrYy</t>
+  </si>
+  <si>
+    <t>SajmoN-_-</t>
+  </si>
+  <si>
+    <t>czarnybajcek</t>
+  </si>
+  <si>
+    <t>HEEDOoficial</t>
+  </si>
+  <si>
+    <t>DZREWOPL</t>
+  </si>
+  <si>
+    <t>jastrzab23</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>Krzycho2000</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>miensyjerz</t>
+  </si>
+  <si>
+    <t>Vikoos</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>slodkakasia</t>
+  </si>
+  <si>
+    <t>ToNieYxa</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>Amabro</t>
+  </si>
+  <si>
+    <t>maks3lo</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>Tomeczek_217</t>
+  </si>
+  <si>
+    <t>___Mat_</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>Tengli</t>
+  </si>
+  <si>
+    <t>Kocham_ciee</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>Tomon080</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>Af3ra</t>
+  </si>
+  <si>
+    <t>s1r_Avocado</t>
+  </si>
+  <si>
+    <t>FlyingCowPL</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>17Zwola17</t>
+  </si>
+  <si>
+    <t>Gromik12213</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>guma durex</t>
+  </si>
+  <si>
+    <t>YkkaAsfeo</t>
+  </si>
+  <si>
+    <t>PieZ__</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>gucioM</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>majkel_MP3</t>
+  </si>
+  <si>
+    <t>4VOCADOM4N</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>_Johnny_14</t>
+  </si>
+  <si>
+    <t>styblinez</t>
+  </si>
+  <si>
+    <t>Lonley7</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>skaM43_</t>
+  </si>
+  <si>
+    <t>zaleszczakk</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>Vajking_</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>SENTER_</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>nedZiu04</t>
+  </si>
+  <si>
+    <t>eliminer_1</t>
+  </si>
+  <si>
+    <t>faFIQ</t>
+  </si>
+  <si>
+    <t>vixsemty</t>
+  </si>
+  <si>
+    <t>mehow_god</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>donotcrykid</t>
+  </si>
+  <si>
+    <t>miniu187</t>
+  </si>
+  <si>
+    <t>czosneg_</t>
+  </si>
+  <si>
+    <t>Chm0rnik</t>
+  </si>
+  <si>
+    <t>aeizyGod</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>AK-PePe</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>Slaweczuk</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>quick-ass</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>BOTPrzemysaw</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>StrongBrian</t>
+  </si>
+  <si>
+    <t>JanoDzik</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>Alanik</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>zgniatacz0</t>
+  </si>
+  <si>
+    <t>Ankard</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -46,10 +1097,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,128 +1433,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ185"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Drużyna</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Zawodnicy</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Total Kills</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Total Assists</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Total Deaths</v>
-      </c>
-      <c r="F1" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="G1" t="str">
-        <v>1. Kills</v>
-      </c>
-      <c r="H1" t="str">
-        <v>1. Assists</v>
-      </c>
-      <c r="I1" t="str">
-        <v>1. Deaths</v>
-      </c>
-      <c r="J1" t="str">
-        <v>2. Kills</v>
-      </c>
-      <c r="K1" t="str">
-        <v>2. Assists</v>
-      </c>
-      <c r="L1" t="str">
-        <v>2. Deaths</v>
-      </c>
-      <c r="M1" t="str">
-        <v>3. Kills</v>
-      </c>
-      <c r="N1" t="str">
-        <v>3. Assists</v>
-      </c>
-      <c r="O1" t="str">
-        <v>3. Deaths</v>
-      </c>
-      <c r="P1" t="str">
-        <v>4. Kills</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>4. Assists</v>
-      </c>
-      <c r="R1" t="str">
-        <v>4. Deaths</v>
-      </c>
-      <c r="S1" t="str">
-        <v>5. Kills</v>
-      </c>
-      <c r="T1" t="str">
-        <v>5. Assists</v>
-      </c>
-      <c r="U1" t="str">
-        <v>5. Deaths</v>
-      </c>
-      <c r="V1" t="str">
-        <v>6. Kills</v>
-      </c>
-      <c r="W1" t="str">
-        <v>6. Assists</v>
-      </c>
-      <c r="X1" t="str">
-        <v>6. Deaths</v>
-      </c>
-      <c r="Y1" t="str">
-        <v>7. Kills</v>
-      </c>
-      <c r="Z1" t="str">
-        <v>7. Assists</v>
-      </c>
-      <c r="AA1" t="str">
-        <v>7. Deaths</v>
-      </c>
-      <c r="AB1" t="str">
-        <v>8. Kills</v>
-      </c>
-      <c r="AC1" t="str">
-        <v>8. Assists</v>
-      </c>
-      <c r="AD1" t="str">
-        <v>8. Deaths</v>
-      </c>
-      <c r="AE1" t="str">
-        <v>9. Kills</v>
-      </c>
-      <c r="AF1" t="str">
-        <v>9. Assists</v>
-      </c>
-      <c r="AG1" t="str">
-        <v>9. Deaths</v>
-      </c>
-      <c r="AH1" t="str">
-        <v>10. Kills</v>
-      </c>
-      <c r="AI1" t="str">
-        <v>10. Assists</v>
-      </c>
-      <c r="AJ1" t="str">
-        <v>10. Deaths</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Bomble Bombla Juniora-B-BJ</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Liczpuk</v>
+    <row r="1" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -506,8 +1568,8 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="str">
-        <v>NaN</v>
+      <c r="F2" t="s">
+        <v>5</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -537,12 +1599,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Kongelig Leverig</v>
-      </c>
-      <c r="B3" t="str">
-        <v>derko12</v>
+    <row r="3" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -553,8 +1615,8 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" t="str">
-        <v>NaN</v>
+      <c r="F3" t="s">
+        <v>5</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -584,12 +1646,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>WestWawa!</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Makksio</v>
+    <row r="4" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -600,8 +1662,8 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="str">
-        <v>NaN</v>
+      <c r="F4" t="s">
+        <v>5</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -631,12 +1693,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>WestWawa!</v>
-      </c>
-      <c r="B5" t="str">
-        <v>PrzepalonyDecybel</v>
+    <row r="5" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -647,8 +1709,8 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="str">
-        <v>NaN</v>
+      <c r="F5" t="s">
+        <v>5</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -678,12 +1740,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>WestWawa!</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Drivell</v>
+    <row r="6" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -694,8 +1756,8 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="str">
-        <v>NaN</v>
+      <c r="F6" t="s">
+        <v>5</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -725,12 +1787,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>WestWawa!</v>
-      </c>
-      <c r="B7" t="str">
-        <v>mikuś</v>
+    <row r="7" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -741,8 +1803,8 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="str">
-        <v>NaN</v>
+      <c r="F7" t="s">
+        <v>5</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -772,12 +1834,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>WestWawa!</v>
-      </c>
-      <c r="B8" t="str">
-        <v>BOT pralka</v>
+    <row r="8" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -788,8 +1850,8 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="str">
-        <v>NaN</v>
+      <c r="F8" t="s">
+        <v>5</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -819,12 +1881,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>WestWawa!</v>
-      </c>
-      <c r="B9" t="str">
-        <v>PISZCZACA OPONA</v>
+    <row r="9" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -835,8 +1897,8 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" t="str">
-        <v>NaN</v>
+      <c r="F9" t="s">
+        <v>5</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -866,12 +1928,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Esconda 99</v>
-      </c>
-      <c r="B10" t="str">
-        <v>getkozaur</v>
+    <row r="10" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -879,11 +1941,11 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="G10" t="str">
-        <v>P</v>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -910,12 +1972,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Aspoleczne Simpy Balladyny Esports</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Gilek987</v>
+    <row r="11" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -926,8 +1988,8 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" t="str">
-        <v>NaN</v>
+      <c r="F11" t="s">
+        <v>5</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -957,12 +2019,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Charakterni</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Jankooss</v>
+    <row r="12" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -973,8 +2035,8 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" t="str">
-        <v>NaN</v>
+      <c r="F12" t="s">
+        <v>5</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1004,12 +2066,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>DJ, Drużyna z Jeziora</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Lolopes2K</v>
+    <row r="13" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1020,8 +2082,8 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" t="str">
-        <v>NaN</v>
+      <c r="F13" t="s">
+        <v>5</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1051,12 +2113,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>FF Team</v>
-      </c>
-      <c r="B14" t="str">
-        <v>kijio</v>
+    <row r="14" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1067,8 +2129,8 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" t="str">
-        <v>NaN</v>
+      <c r="F14" t="s">
+        <v>5</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1098,12 +2160,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Fikuśny Gaming</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Ezil77</v>
+    <row r="15" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1114,8 +2176,8 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" t="str">
-        <v>NaN</v>
+      <c r="F15" t="s">
+        <v>5</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1154,12 +2216,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>FULL BOLID</v>
-      </c>
-      <c r="B16" t="str">
-        <v>Paprot_PL</v>
+    <row r="16" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1170,8 +2232,8 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" t="str">
-        <v>NaN</v>
+      <c r="F16" t="s">
+        <v>5</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1210,12 +2272,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>Inshallah</v>
-      </c>
-      <c r="B17" t="str">
-        <v>_jnz_</v>
+    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1226,8 +2288,8 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" t="str">
-        <v>NaN</v>
+      <c r="F17" t="s">
+        <v>5</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1257,12 +2319,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>KARGONELLO</v>
-      </c>
-      <c r="B18" t="str">
-        <v>Kar1mq</v>
+    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1273,8 +2335,8 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" t="str">
-        <v>NaN</v>
+      <c r="F18" t="s">
+        <v>5</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1304,12 +2366,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>Polonia Napleton</v>
-      </c>
-      <c r="B19" t="str">
-        <v>Ziemniok_05</v>
+    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1320,8 +2382,8 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" t="str">
-        <v>NaN</v>
+      <c r="F19" t="s">
+        <v>5</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1351,12 +2413,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>Ribbi</v>
-      </c>
-      <c r="B20" t="str">
-        <v>szypki_bill</v>
+    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1367,8 +2429,8 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" t="str">
-        <v>NaN</v>
+      <c r="F20" t="s">
+        <v>5</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1398,12 +2460,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>Smolas</v>
-      </c>
-      <c r="B21" t="str">
-        <v>Bielzibab</v>
+    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1414,8 +2476,8 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" t="str">
-        <v>NaN</v>
+      <c r="F21" t="s">
+        <v>5</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1445,12 +2507,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>Wolfgang</v>
-      </c>
-      <c r="B22" t="str">
-        <v>hansi</v>
+    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1461,8 +2523,8 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" t="str">
-        <v>NaN</v>
+      <c r="F22" t="s">
+        <v>5</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1492,12 +2554,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>Warzywka</v>
-      </c>
-      <c r="B23" t="str">
-        <v>djkeeyn</v>
+    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
       </c>
       <c r="C23">
         <v>24</v>
@@ -1508,8 +2570,8 @@
       <c r="E23">
         <v>7</v>
       </c>
-      <c r="F23" t="str">
-        <v>3.43</v>
+      <c r="F23" t="s">
+        <v>76</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1539,12 +2601,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>Profanacja</v>
-      </c>
-      <c r="B24" t="str">
-        <v>Antonix1</v>
+    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
       </c>
       <c r="C24">
         <v>74</v>
@@ -1555,8 +2617,8 @@
       <c r="E24">
         <v>24</v>
       </c>
-      <c r="F24" t="str">
-        <v>3.08</v>
+      <c r="F24" t="s">
+        <v>79</v>
       </c>
       <c r="G24">
         <v>21</v>
@@ -1586,12 +2648,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>Kosiarze</v>
-      </c>
-      <c r="B25" t="str">
-        <v>Faacik</v>
+    <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
       </c>
       <c r="C25">
         <v>65</v>
@@ -1602,8 +2664,8 @@
       <c r="E25">
         <v>22</v>
       </c>
-      <c r="F25" t="str">
-        <v>2.95</v>
+      <c r="F25" t="s">
+        <v>82</v>
       </c>
       <c r="G25">
         <v>22</v>
@@ -1633,12 +2695,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>Julusie</v>
-      </c>
-      <c r="B26" t="str">
-        <v>chinamoney77</v>
+    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
       </c>
       <c r="C26">
         <v>92</v>
@@ -1649,8 +2711,8 @@
       <c r="E26">
         <v>39</v>
       </c>
-      <c r="F26" t="str">
-        <v>2.36</v>
+      <c r="F26" t="s">
+        <v>85</v>
       </c>
       <c r="G26">
         <v>31</v>
@@ -1680,12 +2742,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>Esconda 99</v>
-      </c>
-      <c r="B27" t="str">
-        <v>Luxy</v>
+    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
       </c>
       <c r="C27">
         <v>53</v>
@@ -1696,8 +2758,8 @@
       <c r="E27">
         <v>27</v>
       </c>
-      <c r="F27" t="str">
-        <v>1.96</v>
+      <c r="F27" t="s">
+        <v>87</v>
       </c>
       <c r="G27">
         <v>37</v>
@@ -1727,12 +2789,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>Kosiarze</v>
-      </c>
-      <c r="B28" t="str">
-        <v>zabollll</v>
+    <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
       </c>
       <c r="C28">
         <v>42</v>
@@ -1743,8 +2805,8 @@
       <c r="E28">
         <v>22</v>
       </c>
-      <c r="F28" t="str">
-        <v>1.91</v>
+      <c r="F28" t="s">
+        <v>89</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1774,12 +2836,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>Profanacja</v>
-      </c>
-      <c r="B29" t="str">
-        <v>GumaOrb1t</v>
+    <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
       </c>
       <c r="C29">
         <v>59</v>
@@ -1790,8 +2852,8 @@
       <c r="E29">
         <v>32</v>
       </c>
-      <c r="F29" t="str">
-        <v>1.84</v>
+      <c r="F29" t="s">
+        <v>91</v>
       </c>
       <c r="G29">
         <v>21</v>
@@ -1821,12 +2883,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>de_presja</v>
-      </c>
-      <c r="B30" t="str">
-        <v>Ikasabess</v>
+    <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
       </c>
       <c r="C30">
         <v>20</v>
@@ -1837,8 +2899,8 @@
       <c r="E30">
         <v>12</v>
       </c>
-      <c r="F30" t="str">
-        <v>1.67</v>
+      <c r="F30" t="s">
+        <v>94</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1868,12 +2930,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>Kosiarze</v>
-      </c>
-      <c r="B31" t="str">
-        <v>Creedddd12</v>
+    <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
       </c>
       <c r="C31">
         <v>58</v>
@@ -1884,8 +2946,8 @@
       <c r="E31">
         <v>35</v>
       </c>
-      <c r="F31" t="str">
-        <v>1.66</v>
+      <c r="F31" t="s">
+        <v>96</v>
       </c>
       <c r="G31">
         <v>26</v>
@@ -1915,12 +2977,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>Warzywka</v>
-      </c>
-      <c r="B32" t="str">
-        <v>popel2003</v>
+    <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s">
+        <v>97</v>
       </c>
       <c r="C32">
         <v>66</v>
@@ -1931,8 +2993,8 @@
       <c r="E32">
         <v>45</v>
       </c>
-      <c r="F32" t="str">
-        <v>1.47</v>
+      <c r="F32" t="s">
+        <v>98</v>
       </c>
       <c r="G32">
         <v>23</v>
@@ -1962,12 +3024,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>Kosiarze</v>
-      </c>
-      <c r="B33" t="str">
-        <v>Rewek</v>
+    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
       </c>
       <c r="C33">
         <v>56</v>
@@ -1978,8 +3040,8 @@
       <c r="E33">
         <v>34</v>
       </c>
-      <c r="F33" t="str">
-        <v>1.65</v>
+      <c r="F33" t="s">
+        <v>100</v>
       </c>
       <c r="G33">
         <v>22</v>
@@ -2009,12 +3071,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>Profanacja</v>
-      </c>
-      <c r="B34" t="str">
-        <v>MANTUUUUUUUU</v>
+    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>101</v>
       </c>
       <c r="C34">
         <v>51</v>
@@ -2025,8 +3087,8 @@
       <c r="E34">
         <v>31</v>
       </c>
-      <c r="F34" t="str">
-        <v>1.65</v>
+      <c r="F34" t="s">
+        <v>100</v>
       </c>
       <c r="G34">
         <v>20</v>
@@ -2056,12 +3118,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>Inshallah</v>
-      </c>
-      <c r="B35" t="str">
-        <v>Walter14</v>
+    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
       </c>
       <c r="C35">
         <v>75</v>
@@ -2072,8 +3134,8 @@
       <c r="E35">
         <v>46</v>
       </c>
-      <c r="F35" t="str">
-        <v>1.63</v>
+      <c r="F35" t="s">
+        <v>103</v>
       </c>
       <c r="G35">
         <v>35</v>
@@ -2103,12 +3165,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>Quantity team</v>
-      </c>
-      <c r="B36" t="str">
-        <v>SzwyQ</v>
+    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
       </c>
       <c r="C36">
         <v>70</v>
@@ -2119,8 +3181,8 @@
       <c r="E36">
         <v>43</v>
       </c>
-      <c r="F36" t="str">
-        <v>1.63</v>
+      <c r="F36" t="s">
+        <v>103</v>
       </c>
       <c r="G36">
         <v>32</v>
@@ -2150,12 +3212,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>FULL BOLID</v>
-      </c>
-      <c r="B37" t="str">
-        <v>itsTeeP</v>
+    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
       </c>
       <c r="C37">
         <v>264</v>
@@ -2166,8 +3228,8 @@
       <c r="E37">
         <v>162</v>
       </c>
-      <c r="F37" t="str">
-        <v>1.63</v>
+      <c r="F37" t="s">
+        <v>103</v>
       </c>
       <c r="G37">
         <v>26</v>
@@ -2206,12 +3268,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>FULL BOLID</v>
-      </c>
-      <c r="B38" t="str">
-        <v>"-arju"</v>
+    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
+        <v>107</v>
       </c>
       <c r="C38">
         <v>258</v>
@@ -2222,8 +3284,8 @@
       <c r="E38">
         <v>138</v>
       </c>
-      <c r="F38" t="str">
-        <v>1.87</v>
+      <c r="F38" t="s">
+        <v>108</v>
       </c>
       <c r="G38">
         <v>14</v>
@@ -2262,12 +3324,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>Connector Players</v>
-      </c>
-      <c r="B39" t="str">
-        <v>Dyberly</v>
+    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
       </c>
       <c r="C39">
         <v>77</v>
@@ -2278,8 +3340,8 @@
       <c r="E39">
         <v>48</v>
       </c>
-      <c r="F39" t="str">
-        <v>1.60</v>
+      <c r="F39" t="s">
+        <v>111</v>
       </c>
       <c r="G39">
         <v>14</v>
@@ -2309,12 +3371,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>FULL BOLID</v>
-      </c>
-      <c r="B40" t="str">
-        <v>grzybiarz132</v>
+    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" t="s">
+        <v>112</v>
       </c>
       <c r="C40">
         <v>208</v>
@@ -2325,8 +3387,8 @@
       <c r="E40">
         <v>126</v>
       </c>
-      <c r="F40" t="str">
-        <v>1.65</v>
+      <c r="F40" t="s">
+        <v>100</v>
       </c>
       <c r="G40">
         <v>21</v>
@@ -2365,12 +3427,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>AKKJPZ</v>
-      </c>
-      <c r="B41" t="str">
-        <v>Imrealghost</v>
+    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" t="s">
+        <v>114</v>
       </c>
       <c r="C41">
         <v>69</v>
@@ -2381,8 +3443,8 @@
       <c r="E41">
         <v>45</v>
       </c>
-      <c r="F41" t="str">
-        <v>1.53</v>
+      <c r="F41" t="s">
+        <v>115</v>
       </c>
       <c r="G41">
         <v>24</v>
@@ -2412,12 +3474,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>Wolfgang</v>
-      </c>
-      <c r="B42" t="str">
-        <v>BoBo__69</v>
+    <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" t="s">
+        <v>116</v>
       </c>
       <c r="C42">
         <v>65</v>
@@ -2428,8 +3490,8 @@
       <c r="E42">
         <v>43</v>
       </c>
-      <c r="F42" t="str">
-        <v>1.51</v>
+      <c r="F42" t="s">
+        <v>117</v>
       </c>
       <c r="G42">
         <v>20</v>
@@ -2459,12 +3521,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>Brazylisjkie Kasztany</v>
-      </c>
-      <c r="B43" t="str">
-        <v>Krikrox</v>
+    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" t="s">
+        <v>119</v>
       </c>
       <c r="C43">
         <v>72</v>
@@ -2475,8 +3537,8 @@
       <c r="E43">
         <v>48</v>
       </c>
-      <c r="F43" t="str">
-        <v>1.50</v>
+      <c r="F43" t="s">
+        <v>120</v>
       </c>
       <c r="G43">
         <v>19</v>
@@ -2506,12 +3568,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>KARGONELLO</v>
-      </c>
-      <c r="B44" t="str">
-        <v>Marchello_ez</v>
+    <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>121</v>
       </c>
       <c r="C44">
         <v>88</v>
@@ -2522,8 +3584,8 @@
       <c r="E44">
         <v>59</v>
       </c>
-      <c r="F44" t="str">
-        <v>1.49</v>
+      <c r="F44" t="s">
+        <v>122</v>
       </c>
       <c r="G44">
         <v>27</v>
@@ -2553,12 +3615,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>Po prostu Kołłątaj</v>
-      </c>
-      <c r="B45" t="str">
-        <v>freeezix46</v>
+    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" t="s">
+        <v>124</v>
       </c>
       <c r="C45">
         <v>67</v>
@@ -2569,8 +3631,8 @@
       <c r="E45">
         <v>45</v>
       </c>
-      <c r="F45" t="str">
-        <v>1.49</v>
+      <c r="F45" t="s">
+        <v>122</v>
       </c>
       <c r="G45">
         <v>22</v>
@@ -2600,12 +3662,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>Fikuśny Gaming</v>
-      </c>
-      <c r="B46" t="str">
-        <v>TTH_btw</v>
+    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" t="s">
+        <v>125</v>
       </c>
       <c r="C46">
         <v>50</v>
@@ -2616,8 +3678,8 @@
       <c r="E46">
         <v>34</v>
       </c>
-      <c r="F46" t="str">
-        <v>1.47</v>
+      <c r="F46" t="s">
+        <v>98</v>
       </c>
       <c r="G46">
         <v>28</v>
@@ -2656,12 +3718,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>Po prostu Kołłątaj</v>
-      </c>
-      <c r="B47" t="str">
-        <v>"154925161206"</v>
+    <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" t="s">
+        <v>126</v>
       </c>
       <c r="C47">
         <v>16</v>
@@ -2672,8 +3734,8 @@
       <c r="E47">
         <v>11</v>
       </c>
-      <c r="F47" t="str">
-        <v>1.45</v>
+      <c r="F47" t="s">
+        <v>127</v>
       </c>
       <c r="G47">
         <v>16</v>
@@ -2703,12 +3765,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>Po prostu Kołłątaj</v>
-      </c>
-      <c r="B48" t="str">
-        <v>REXIHN0</v>
+    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" t="s">
+        <v>128</v>
       </c>
       <c r="C48">
         <v>74</v>
@@ -2719,8 +3781,8 @@
       <c r="E48">
         <v>51</v>
       </c>
-      <c r="F48" t="str">
-        <v>1.45</v>
+      <c r="F48" t="s">
+        <v>127</v>
       </c>
       <c r="G48">
         <v>18</v>
@@ -2750,12 +3812,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>Julusie</v>
-      </c>
-      <c r="B49" t="str">
-        <v>Amireczek</v>
+    <row r="49" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" t="s">
+        <v>129</v>
       </c>
       <c r="C49">
         <v>72</v>
@@ -2766,8 +3828,8 @@
       <c r="E49">
         <v>51</v>
       </c>
-      <c r="F49" t="str">
-        <v>1.41</v>
+      <c r="F49" t="s">
+        <v>130</v>
       </c>
       <c r="G49">
         <v>23</v>
@@ -2797,12 +3859,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>Connector Players</v>
-      </c>
-      <c r="B50" t="str">
-        <v>Gniewcio20</v>
+    <row r="50" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
+        <v>131</v>
       </c>
       <c r="C50">
         <v>45</v>
@@ -2813,8 +3875,8 @@
       <c r="E50">
         <v>32</v>
       </c>
-      <c r="F50" t="str">
-        <v>1.41</v>
+      <c r="F50" t="s">
+        <v>130</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2844,12 +3906,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>Profanacja</v>
-      </c>
-      <c r="B51" t="str">
-        <v>Krychaa_</v>
+    <row r="51" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
+        <v>132</v>
       </c>
       <c r="C51">
         <v>46</v>
@@ -2860,8 +3922,8 @@
       <c r="E51">
         <v>33</v>
       </c>
-      <c r="F51" t="str">
-        <v>1.39</v>
+      <c r="F51" t="s">
+        <v>133</v>
       </c>
       <c r="G51">
         <v>15</v>
@@ -2891,12 +3953,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>Bomble Bombla Juniora-B-BJ</v>
-      </c>
-      <c r="B52" t="str">
-        <v>adax_io</v>
+    <row r="52" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s">
+        <v>134</v>
       </c>
       <c r="C52">
         <v>25</v>
@@ -2907,8 +3969,8 @@
       <c r="E52">
         <v>18</v>
       </c>
-      <c r="F52" t="str">
-        <v>1.39</v>
+      <c r="F52" t="s">
+        <v>133</v>
       </c>
       <c r="G52">
         <v>21</v>
@@ -2938,12 +4000,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>Fikuśny Gaming</v>
-      </c>
-      <c r="B53" t="str">
-        <v>WasiuS</v>
+    <row r="53" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>135</v>
       </c>
       <c r="C53">
         <v>195</v>
@@ -2954,8 +4016,8 @@
       <c r="E53">
         <v>147</v>
       </c>
-      <c r="F53" t="str">
-        <v>1.33</v>
+      <c r="F53" t="s">
+        <v>136</v>
       </c>
       <c r="G53">
         <v>13</v>
@@ -2994,12 +4056,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>Warzywka</v>
-      </c>
-      <c r="B54" t="str">
-        <v>budzix</v>
+    <row r="54" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
+        <v>137</v>
       </c>
       <c r="C54">
         <v>33</v>
@@ -3010,8 +4072,8 @@
       <c r="E54">
         <v>24</v>
       </c>
-      <c r="F54" t="str">
-        <v>1.38</v>
+      <c r="F54" t="s">
+        <v>138</v>
       </c>
       <c r="G54">
         <v>20</v>
@@ -3041,12 +4103,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>Bomble Bombla Juniora-B-BJ</v>
-      </c>
-      <c r="B55" t="str">
-        <v>l_like_Ikea</v>
+    <row r="55" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s">
+        <v>139</v>
       </c>
       <c r="C55">
         <v>26</v>
@@ -3057,8 +4119,8 @@
       <c r="E55">
         <v>19</v>
       </c>
-      <c r="F55" t="str">
-        <v>1.37</v>
+      <c r="F55" t="s">
+        <v>140</v>
       </c>
       <c r="G55">
         <v>22</v>
@@ -3088,12 +4150,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>FireEagles</v>
-      </c>
-      <c r="B56" t="str">
-        <v>Vivoxi</v>
+    <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" t="s">
+        <v>142</v>
       </c>
       <c r="C56">
         <v>75</v>
@@ -3104,8 +4166,8 @@
       <c r="E56">
         <v>55</v>
       </c>
-      <c r="F56" t="str">
-        <v>1.36</v>
+      <c r="F56" t="s">
+        <v>143</v>
       </c>
       <c r="G56">
         <v>32</v>
@@ -3135,12 +4197,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>Quantity team</v>
-      </c>
-      <c r="B57" t="str">
-        <v>_z00n</v>
+    <row r="57" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" t="s">
+        <v>144</v>
       </c>
       <c r="C57">
         <v>62</v>
@@ -3151,8 +4213,8 @@
       <c r="E57">
         <v>46</v>
       </c>
-      <c r="F57" t="str">
-        <v>1.35</v>
+      <c r="F57" t="s">
+        <v>145</v>
       </c>
       <c r="G57">
         <v>20</v>
@@ -3182,12 +4244,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>Aspoleczne Simpy Balladyny Esports</v>
-      </c>
-      <c r="B58" t="str">
-        <v>_Franiuuu_</v>
+    <row r="58" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" t="s">
+        <v>146</v>
       </c>
       <c r="C58">
         <v>64</v>
@@ -3198,8 +4260,8 @@
       <c r="E58">
         <v>48</v>
       </c>
-      <c r="F58" t="str">
-        <v>1.33</v>
+      <c r="F58" t="s">
+        <v>136</v>
       </c>
       <c r="G58">
         <v>17</v>
@@ -3229,12 +4291,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>Kongelig Leverig</v>
-      </c>
-      <c r="B59" t="str">
-        <v>Hyper30k</v>
+    <row r="59" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" t="s">
+        <v>147</v>
       </c>
       <c r="C59">
         <v>33</v>
@@ -3245,8 +4307,8 @@
       <c r="E59">
         <v>25</v>
       </c>
-      <c r="F59" t="str">
-        <v>1.32</v>
+      <c r="F59" t="s">
+        <v>148</v>
       </c>
       <c r="G59">
         <v>24</v>
@@ -3276,12 +4338,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>FireEagles</v>
-      </c>
-      <c r="B60" t="str">
-        <v>Kobraa9</v>
+    <row r="60" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" t="s">
+        <v>149</v>
       </c>
       <c r="C60">
         <v>70</v>
@@ -3292,8 +4354,8 @@
       <c r="E60">
         <v>54</v>
       </c>
-      <c r="F60" t="str">
-        <v>1.30</v>
+      <c r="F60" t="s">
+        <v>150</v>
       </c>
       <c r="G60">
         <v>18</v>
@@ -3323,12 +4385,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>FF Team</v>
-      </c>
-      <c r="B61" t="str">
-        <v>TheShhadow</v>
+    <row r="61" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" t="s">
+        <v>151</v>
       </c>
       <c r="C61">
         <v>72</v>
@@ -3339,8 +4401,8 @@
       <c r="E61">
         <v>56</v>
       </c>
-      <c r="F61" t="str">
-        <v>1.29</v>
+      <c r="F61" t="s">
+        <v>152</v>
       </c>
       <c r="G61">
         <v>34</v>
@@ -3370,12 +4432,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>de_presja</v>
-      </c>
-      <c r="B62" t="str">
-        <v>misiek12_ste</v>
+    <row r="62" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" t="s">
+        <v>153</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -3386,8 +4448,8 @@
       <c r="E62">
         <v>48</v>
       </c>
-      <c r="F62" t="str">
-        <v>1.27</v>
+      <c r="F62" t="s">
+        <v>154</v>
       </c>
       <c r="G62">
         <v>30</v>
@@ -3417,12 +4479,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>Bomble Bombla Juniora-B-BJ</v>
-      </c>
-      <c r="B63" t="str">
-        <v>WPMEKobonga</v>
+    <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" t="s">
+        <v>155</v>
       </c>
       <c r="C63">
         <v>24</v>
@@ -3433,8 +4495,8 @@
       <c r="E63">
         <v>19</v>
       </c>
-      <c r="F63" t="str">
-        <v>1.26</v>
+      <c r="F63" t="s">
+        <v>156</v>
       </c>
       <c r="G63">
         <v>20</v>
@@ -3464,12 +4526,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>Inshallah</v>
-      </c>
-      <c r="B64" t="str">
-        <v>boberitooo</v>
+    <row r="64" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>157</v>
       </c>
       <c r="C64">
         <v>53</v>
@@ -3480,8 +4542,8 @@
       <c r="E64">
         <v>42</v>
       </c>
-      <c r="F64" t="str">
-        <v>1.26</v>
+      <c r="F64" t="s">
+        <v>156</v>
       </c>
       <c r="G64">
         <v>22</v>
@@ -3511,12 +4573,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>FULL BOLID</v>
-      </c>
-      <c r="B65" t="str">
-        <v>Czarna_Zjawa</v>
+    <row r="65" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>158</v>
       </c>
       <c r="C65">
         <v>186</v>
@@ -3527,8 +4589,8 @@
       <c r="E65">
         <v>148</v>
       </c>
-      <c r="F65" t="str">
-        <v>1.26</v>
+      <c r="F65" t="s">
+        <v>156</v>
       </c>
       <c r="G65">
         <v>18</v>
@@ -3567,12 +4629,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>Kongelig Leverig</v>
-      </c>
-      <c r="B66" t="str">
-        <v>Kioshi-kun</v>
+    <row r="66" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" t="s">
+        <v>159</v>
       </c>
       <c r="C66">
         <v>30</v>
@@ -3583,8 +4645,8 @@
       <c r="E66">
         <v>24</v>
       </c>
-      <c r="F66" t="str">
-        <v>1.25</v>
+      <c r="F66" t="s">
+        <v>160</v>
       </c>
       <c r="G66">
         <v>18</v>
@@ -3614,12 +4676,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>Polonia Napleton</v>
-      </c>
-      <c r="B67" t="str">
-        <v>SameK-</v>
+    <row r="67" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>161</v>
       </c>
       <c r="C67">
         <v>92</v>
@@ -3630,8 +4692,8 @@
       <c r="E67">
         <v>80</v>
       </c>
-      <c r="F67" t="str">
-        <v>1.15</v>
+      <c r="F67" t="s">
+        <v>162</v>
       </c>
       <c r="G67">
         <v>25</v>
@@ -3661,12 +4723,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>Wolfgang</v>
-      </c>
-      <c r="B68" t="str">
-        <v>ScramScram</v>
+    <row r="68" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
+        <v>163</v>
       </c>
       <c r="C68">
         <v>54</v>
@@ -3677,8 +4739,8 @@
       <c r="E68">
         <v>44</v>
       </c>
-      <c r="F68" t="str">
-        <v>1.23</v>
+      <c r="F68" t="s">
+        <v>164</v>
       </c>
       <c r="G68">
         <v>18</v>
@@ -3708,12 +4770,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>Wolfgang</v>
-      </c>
-      <c r="B69" t="str">
-        <v>patry_mdfkr</v>
+    <row r="69" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>165</v>
       </c>
       <c r="C69">
         <v>55</v>
@@ -3724,8 +4786,8 @@
       <c r="E69">
         <v>45</v>
       </c>
-      <c r="F69" t="str">
-        <v>1.22</v>
+      <c r="F69" t="s">
+        <v>166</v>
       </c>
       <c r="G69">
         <v>18</v>
@@ -3755,12 +4817,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>Warzywka</v>
-      </c>
-      <c r="B70" t="str">
-        <v>derv1ll</v>
+    <row r="70" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>167</v>
       </c>
       <c r="C70">
         <v>47</v>
@@ -3771,8 +4833,8 @@
       <c r="E70">
         <v>46</v>
       </c>
-      <c r="F70" t="str">
-        <v>1.02</v>
+      <c r="F70" t="s">
+        <v>168</v>
       </c>
       <c r="G70">
         <v>13</v>
@@ -3802,12 +4864,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>Los Defectos</v>
-      </c>
-      <c r="B71" t="str">
-        <v>_-_Matix_-_</v>
+    <row r="71" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" t="s">
+        <v>170</v>
       </c>
       <c r="C71">
         <v>58</v>
@@ -3818,8 +4880,8 @@
       <c r="E71">
         <v>48</v>
       </c>
-      <c r="F71" t="str">
-        <v>1.21</v>
+      <c r="F71" t="s">
+        <v>171</v>
       </c>
       <c r="G71">
         <v>21</v>
@@ -3849,12 +4911,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v>Charakterni</v>
-      </c>
-      <c r="B72" t="str">
-        <v>ad3ionix</v>
+    <row r="72" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" t="s">
+        <v>172</v>
       </c>
       <c r="C72">
         <v>61</v>
@@ -3865,8 +4927,8 @@
       <c r="E72">
         <v>51</v>
       </c>
-      <c r="F72" t="str">
-        <v>1.20</v>
+      <c r="F72" t="s">
+        <v>173</v>
       </c>
       <c r="G72">
         <v>14</v>
@@ -3896,12 +4958,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="str">
-        <v>DJ, Drużyna z Jeziora</v>
-      </c>
-      <c r="B73" t="str">
-        <v>Dunneo</v>
+    <row r="73" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" t="s">
+        <v>174</v>
       </c>
       <c r="C73">
         <v>74</v>
@@ -3912,8 +4974,8 @@
       <c r="E73">
         <v>63</v>
       </c>
-      <c r="F73" t="str">
-        <v>1.17</v>
+      <c r="F73" t="s">
+        <v>175</v>
       </c>
       <c r="G73">
         <v>12</v>
@@ -3943,12 +5005,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="str">
-        <v>FireEagles</v>
-      </c>
-      <c r="B74" t="str">
-        <v xml:space="preserve">_Vojtaz_ </v>
+    <row r="74" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" t="s">
+        <v>176</v>
       </c>
       <c r="C74">
         <v>54</v>
@@ -3959,8 +5021,8 @@
       <c r="E74">
         <v>47</v>
       </c>
-      <c r="F74" t="str">
-        <v>1.15</v>
+      <c r="F74" t="s">
+        <v>162</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3990,12 +5052,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="str">
-        <v>KARGONELLO</v>
-      </c>
-      <c r="B75" t="str">
-        <v>AirAustin77</v>
+    <row r="75" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" t="s">
+        <v>177</v>
       </c>
       <c r="C75">
         <v>54</v>
@@ -4006,8 +5068,8 @@
       <c r="E75">
         <v>47</v>
       </c>
-      <c r="F75" t="str">
-        <v>1.15</v>
+      <c r="F75" t="s">
+        <v>162</v>
       </c>
       <c r="G75">
         <v>13</v>
@@ -4037,12 +5099,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="str">
-        <v>FireEagles</v>
-      </c>
-      <c r="B76" t="str">
-        <v>W1LQ_</v>
+    <row r="76" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" t="s">
+        <v>178</v>
       </c>
       <c r="C76">
         <v>53</v>
@@ -4053,8 +5115,8 @@
       <c r="E76">
         <v>47</v>
       </c>
-      <c r="F76" t="str">
-        <v>1.13</v>
+      <c r="F76" t="s">
+        <v>179</v>
       </c>
       <c r="G76">
         <v>15</v>
@@ -4084,12 +5146,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="str">
-        <v>Smolas</v>
-      </c>
-      <c r="B77" t="str">
-        <v>SkilluPlayz</v>
+    <row r="77" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77" t="s">
+        <v>180</v>
       </c>
       <c r="C77">
         <v>55</v>
@@ -4100,8 +5162,8 @@
       <c r="E77">
         <v>49</v>
       </c>
-      <c r="F77" t="str">
-        <v>1.12</v>
+      <c r="F77" t="s">
+        <v>181</v>
       </c>
       <c r="G77">
         <v>19</v>
@@ -4131,12 +5193,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="str">
-        <v>Sneaky Inters</v>
-      </c>
-      <c r="B78" t="str">
-        <v>slodkazuzia</v>
+    <row r="78" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>182</v>
+      </c>
+      <c r="B78" t="s">
+        <v>183</v>
       </c>
       <c r="C78">
         <v>67</v>
@@ -4147,8 +5209,8 @@
       <c r="E78">
         <v>60</v>
       </c>
-      <c r="F78" t="str">
-        <v>1.12</v>
+      <c r="F78" t="s">
+        <v>181</v>
       </c>
       <c r="G78">
         <v>14</v>
@@ -4178,12 +5240,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="str">
-        <v>Inshallah</v>
-      </c>
-      <c r="B79" t="str">
-        <v>MzRY7</v>
+    <row r="79" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" t="s">
+        <v>184</v>
       </c>
       <c r="C79">
         <v>48</v>
@@ -4194,8 +5256,8 @@
       <c r="E79">
         <v>43</v>
       </c>
-      <c r="F79" t="str">
-        <v>1.12</v>
+      <c r="F79" t="s">
+        <v>181</v>
       </c>
       <c r="G79">
         <v>11</v>
@@ -4225,12 +5287,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="str">
-        <v>KARGONELLO</v>
-      </c>
-      <c r="B80" t="str">
-        <v>Grocik_</v>
+    <row r="80" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" t="s">
+        <v>185</v>
       </c>
       <c r="C80">
         <v>69</v>
@@ -4241,8 +5303,8 @@
       <c r="E80">
         <v>62</v>
       </c>
-      <c r="F80" t="str">
-        <v>1.11</v>
+      <c r="F80" t="s">
+        <v>186</v>
       </c>
       <c r="G80">
         <v>27</v>
@@ -4272,12 +5334,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="str">
-        <v>FireEagles</v>
-      </c>
-      <c r="B81" t="str">
-        <v>Bukaj262</v>
+    <row r="81" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>141</v>
+      </c>
+      <c r="B81" t="s">
+        <v>187</v>
       </c>
       <c r="C81">
         <v>69</v>
@@ -4288,8 +5350,8 @@
       <c r="E81">
         <v>63</v>
       </c>
-      <c r="F81" t="str">
-        <v>1.10</v>
+      <c r="F81" t="s">
+        <v>188</v>
       </c>
       <c r="G81">
         <v>23</v>
@@ -4319,12 +5381,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="str">
-        <v>CJ DOGS</v>
-      </c>
-      <c r="B82" t="str">
-        <v>Arax909</v>
+    <row r="82" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" t="s">
+        <v>190</v>
       </c>
       <c r="C82">
         <v>35</v>
@@ -4335,8 +5397,8 @@
       <c r="E82">
         <v>32</v>
       </c>
-      <c r="F82" t="str">
-        <v>1.09</v>
+      <c r="F82" t="s">
+        <v>191</v>
       </c>
       <c r="G82">
         <v>15</v>
@@ -4366,12 +5428,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="str">
-        <v>Kosiarze</v>
-      </c>
-      <c r="B83" t="str">
-        <v>sytek2137</v>
+    <row r="83" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>192</v>
       </c>
       <c r="C83">
         <v>24</v>
@@ -4382,8 +5444,8 @@
       <c r="E83">
         <v>22</v>
       </c>
-      <c r="F83" t="str">
-        <v>1.09</v>
+      <c r="F83" t="s">
+        <v>191</v>
       </c>
       <c r="G83">
         <v>13</v>
@@ -4413,12 +5475,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="str">
-        <v>Sneaky Inters</v>
-      </c>
-      <c r="B84" t="str">
-        <v>__Jasper--</v>
+    <row r="84" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" t="s">
+        <v>193</v>
       </c>
       <c r="C84">
         <v>52</v>
@@ -4429,8 +5491,8 @@
       <c r="E84">
         <v>48</v>
       </c>
-      <c r="F84" t="str">
-        <v>1.08</v>
+      <c r="F84" t="s">
+        <v>194</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -4460,12 +5522,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="str">
-        <v>Polonia Napleton</v>
-      </c>
-      <c r="B85" t="str">
-        <v>PLVanishPL</v>
+    <row r="85" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>66</v>
+      </c>
+      <c r="B85" t="s">
+        <v>195</v>
       </c>
       <c r="C85">
         <v>91</v>
@@ -4476,8 +5538,8 @@
       <c r="E85">
         <v>82</v>
       </c>
-      <c r="F85" t="str">
-        <v>1.11</v>
+      <c r="F85" t="s">
+        <v>186</v>
       </c>
       <c r="G85">
         <v>18</v>
@@ -4507,12 +5569,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="str">
-        <v>Fikuśny Gaming</v>
-      </c>
-      <c r="B86" t="str">
-        <v>adamch</v>
+    <row r="86" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86" t="s">
+        <v>196</v>
       </c>
       <c r="C86">
         <v>111</v>
@@ -4523,8 +5585,8 @@
       <c r="E86">
         <v>172</v>
       </c>
-      <c r="F86" t="str">
-        <v>0.65</v>
+      <c r="F86" t="s">
+        <v>197</v>
       </c>
       <c r="G86">
         <v>19</v>
@@ -4563,12 +5625,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="str">
-        <v>DJ, Drużyna z Jeziora</v>
-      </c>
-      <c r="B87" t="str">
-        <v>R4egz</v>
+    <row r="87" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" t="s">
+        <v>198</v>
       </c>
       <c r="C87">
         <v>51</v>
@@ -4579,8 +5641,8 @@
       <c r="E87">
         <v>48</v>
       </c>
-      <c r="F87" t="str">
-        <v>1.06</v>
+      <c r="F87" t="s">
+        <v>199</v>
       </c>
       <c r="G87">
         <v>12</v>
@@ -4610,12 +5672,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="str">
-        <v>Brazylisjkie Kasztany</v>
-      </c>
-      <c r="B88" t="str">
-        <v>Ruzyk</v>
+    <row r="88" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" t="s">
+        <v>200</v>
       </c>
       <c r="C88">
         <v>54</v>
@@ -4626,8 +5688,8 @@
       <c r="E88">
         <v>51</v>
       </c>
-      <c r="F88" t="str">
-        <v>1.06</v>
+      <c r="F88" t="s">
+        <v>199</v>
       </c>
       <c r="G88">
         <v>12</v>
@@ -4657,12 +5719,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="str">
-        <v>Gmina Czarków</v>
-      </c>
-      <c r="B89" t="str">
-        <v>TanQ31</v>
+    <row r="89" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>201</v>
+      </c>
+      <c r="B89" t="s">
+        <v>202</v>
       </c>
       <c r="C89">
         <v>18</v>
@@ -4673,8 +5735,8 @@
       <c r="E89">
         <v>17</v>
       </c>
-      <c r="F89" t="str">
-        <v>1.06</v>
+      <c r="F89" t="s">
+        <v>199</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -4704,12 +5766,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="str">
-        <v>Po prostu Kołłątaj</v>
-      </c>
-      <c r="B90" t="str">
-        <v>Ste3wi</v>
+    <row r="90" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" t="s">
+        <v>203</v>
       </c>
       <c r="C90">
         <v>38</v>
@@ -4720,8 +5782,8 @@
       <c r="E90">
         <v>36</v>
       </c>
-      <c r="F90" t="str">
-        <v>1.06</v>
+      <c r="F90" t="s">
+        <v>199</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -4751,12 +5813,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="str">
-        <v>Inshallah</v>
-      </c>
-      <c r="B91" t="str">
-        <v>CallmeMG</v>
+    <row r="91" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" t="s">
+        <v>204</v>
       </c>
       <c r="C91">
         <v>46</v>
@@ -4767,8 +5829,8 @@
       <c r="E91">
         <v>45</v>
       </c>
-      <c r="F91" t="str">
-        <v>1.02</v>
+      <c r="F91" t="s">
+        <v>168</v>
       </c>
       <c r="G91">
         <v>10</v>
@@ -4798,12 +5860,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="str">
-        <v>Fikuśny Gaming</v>
-      </c>
-      <c r="B92" t="str">
-        <v>FikusnyHubi</v>
+    <row r="92" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>58</v>
+      </c>
+      <c r="B92" t="s">
+        <v>205</v>
       </c>
       <c r="C92">
         <v>102</v>
@@ -4814,8 +5876,8 @@
       <c r="E92">
         <v>151</v>
       </c>
-      <c r="F92" t="str">
-        <v>0.68</v>
+      <c r="F92" t="s">
+        <v>206</v>
       </c>
       <c r="G92">
         <v>23</v>
@@ -4854,12 +5916,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="str">
-        <v>Po prostu Kołłątaj</v>
-      </c>
-      <c r="B93" t="str">
-        <v>sebix05</v>
+    <row r="93" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" t="s">
+        <v>207</v>
       </c>
       <c r="C93">
         <v>57</v>
@@ -4870,8 +5932,8 @@
       <c r="E93">
         <v>56</v>
       </c>
-      <c r="F93" t="str">
-        <v>1.02</v>
+      <c r="F93" t="s">
+        <v>168</v>
       </c>
       <c r="G93">
         <v>15</v>
@@ -4901,12 +5963,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="str">
-        <v>Sneaky Inters</v>
-      </c>
-      <c r="B94" t="str">
-        <v>SlodkaOla13</v>
+    <row r="94" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" t="s">
+        <v>208</v>
       </c>
       <c r="C94">
         <v>68</v>
@@ -4917,8 +5979,8 @@
       <c r="E94">
         <v>68</v>
       </c>
-      <c r="F94" t="str">
-        <v>1.00</v>
+      <c r="F94" t="s">
+        <v>209</v>
       </c>
       <c r="G94">
         <v>6</v>
@@ -4948,12 +6010,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="str">
-        <v>Aspoleczne Simpy Balladyny Esports</v>
-      </c>
-      <c r="B95" t="str">
-        <v>Extr3m0</v>
+    <row r="95" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>50</v>
+      </c>
+      <c r="B95" t="s">
+        <v>210</v>
       </c>
       <c r="C95">
         <v>53</v>
@@ -4964,8 +6026,8 @@
       <c r="E95">
         <v>53</v>
       </c>
-      <c r="F95" t="str">
-        <v>1.00</v>
+      <c r="F95" t="s">
+        <v>209</v>
       </c>
       <c r="G95">
         <v>15</v>
@@ -4995,12 +6057,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v>Profanacja</v>
-      </c>
-      <c r="B96" t="str">
-        <v>SPKILL</v>
+    <row r="96" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>77</v>
+      </c>
+      <c r="B96" t="s">
+        <v>211</v>
       </c>
       <c r="C96">
         <v>41</v>
@@ -5011,8 +6073,8 @@
       <c r="E96">
         <v>41</v>
       </c>
-      <c r="F96" t="str">
-        <v>1.00</v>
+      <c r="F96" t="s">
+        <v>209</v>
       </c>
       <c r="G96">
         <v>12</v>
@@ -5042,12 +6104,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="str">
-        <v>Los Defectos</v>
-      </c>
-      <c r="B97" t="str">
-        <v>siurenis</v>
+    <row r="97" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>169</v>
+      </c>
+      <c r="B97" t="s">
+        <v>212</v>
       </c>
       <c r="C97">
         <v>32</v>
@@ -5058,8 +6120,8 @@
       <c r="E97">
         <v>32</v>
       </c>
-      <c r="F97" t="str">
-        <v>1.00</v>
+      <c r="F97" t="s">
+        <v>209</v>
       </c>
       <c r="G97">
         <v>13</v>
@@ -5089,12 +6151,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="str">
-        <v>Kosiarze</v>
-      </c>
-      <c r="B98" t="str">
-        <v>pozuc_jr</v>
+    <row r="98" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>80</v>
+      </c>
+      <c r="B98" t="s">
+        <v>213</v>
       </c>
       <c r="C98">
         <v>22</v>
@@ -5105,8 +6167,8 @@
       <c r="E98">
         <v>22</v>
       </c>
-      <c r="F98" t="str">
-        <v>1.00</v>
+      <c r="F98" t="s">
+        <v>209</v>
       </c>
       <c r="G98">
         <v>9</v>
@@ -5136,12 +6198,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="str">
-        <v>FF Team</v>
-      </c>
-      <c r="B99" t="str">
-        <v>ScreamingKek</v>
+    <row r="99" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>56</v>
+      </c>
+      <c r="B99" t="s">
+        <v>214</v>
       </c>
       <c r="C99">
         <v>17</v>
@@ -5152,8 +6214,8 @@
       <c r="E99">
         <v>17</v>
       </c>
-      <c r="F99" t="str">
-        <v>1.00</v>
+      <c r="F99" t="s">
+        <v>209</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -5183,12 +6245,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="str">
-        <v>de_presja</v>
-      </c>
-      <c r="B100" t="str">
-        <v>Votix654</v>
+    <row r="100" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>92</v>
+      </c>
+      <c r="B100" t="s">
+        <v>215</v>
       </c>
       <c r="C100">
         <v>48</v>
@@ -5199,8 +6261,8 @@
       <c r="E100">
         <v>49</v>
       </c>
-      <c r="F100" t="str">
-        <v>0.98</v>
+      <c r="F100" t="s">
+        <v>216</v>
       </c>
       <c r="G100">
         <v>10</v>
@@ -5230,12 +6292,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="str">
-        <v>Julusie</v>
-      </c>
-      <c r="B101" t="str">
-        <v>sznycel901</v>
+    <row r="101" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" t="s">
+        <v>217</v>
       </c>
       <c r="C101">
         <v>29</v>
@@ -5246,8 +6308,8 @@
       <c r="E101">
         <v>30</v>
       </c>
-      <c r="F101" t="str">
-        <v>0.97</v>
+      <c r="F101" t="s">
+        <v>218</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -5277,12 +6339,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="str">
-        <v>Connector Players</v>
-      </c>
-      <c r="B102" t="str">
-        <v>borajs</v>
+    <row r="102" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" t="s">
+        <v>219</v>
       </c>
       <c r="C102">
         <v>53</v>
@@ -5293,8 +6355,8 @@
       <c r="E102">
         <v>55</v>
       </c>
-      <c r="F102" t="str">
-        <v>0.96</v>
+      <c r="F102" t="s">
+        <v>220</v>
       </c>
       <c r="G102">
         <v>13</v>
@@ -5324,12 +6386,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="str">
-        <v>Julusie</v>
-      </c>
-      <c r="B103" t="str">
-        <v>DogguTonix</v>
+    <row r="103" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>83</v>
+      </c>
+      <c r="B103" t="s">
+        <v>221</v>
       </c>
       <c r="C103">
         <v>45</v>
@@ -5340,8 +6402,8 @@
       <c r="E103">
         <v>47</v>
       </c>
-      <c r="F103" t="str">
-        <v>0.96</v>
+      <c r="F103" t="s">
+        <v>220</v>
       </c>
       <c r="G103">
         <v>16</v>
@@ -5371,12 +6433,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="str">
-        <v>Gmina Czarków</v>
-      </c>
-      <c r="B104" t="str">
-        <v>rymszak</v>
+    <row r="104" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>201</v>
+      </c>
+      <c r="B104" t="s">
+        <v>222</v>
       </c>
       <c r="C104">
         <v>36</v>
@@ -5387,8 +6449,8 @@
       <c r="E104">
         <v>38</v>
       </c>
-      <c r="F104" t="str">
-        <v>0.95</v>
+      <c r="F104" t="s">
+        <v>223</v>
       </c>
       <c r="G104">
         <v>13</v>
@@ -5418,12 +6480,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="str">
-        <v>Brazylisjkie Kasztany</v>
-      </c>
-      <c r="B105" t="str">
-        <v>Elifusek</v>
+    <row r="105" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105" t="s">
+        <v>224</v>
       </c>
       <c r="C105">
         <v>35</v>
@@ -5434,8 +6496,8 @@
       <c r="E105">
         <v>37</v>
       </c>
-      <c r="F105" t="str">
-        <v>0.95</v>
+      <c r="F105" t="s">
+        <v>223</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -5465,12 +6527,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="str">
-        <v>AKKJPZ</v>
-      </c>
-      <c r="B106" t="str">
-        <v>NeverMind-d2</v>
+    <row r="106" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" t="s">
+        <v>225</v>
       </c>
       <c r="C106">
         <v>46</v>
@@ -5481,8 +6543,8 @@
       <c r="E106">
         <v>49</v>
       </c>
-      <c r="F106" t="str">
-        <v>0.94</v>
+      <c r="F106" t="s">
+        <v>226</v>
       </c>
       <c r="G106">
         <v>16</v>
@@ -5512,12 +6574,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="str">
-        <v>Po prostu Kołłątaj</v>
-      </c>
-      <c r="B107" t="str">
-        <v>Wasil1</v>
+    <row r="107" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" t="s">
+        <v>227</v>
       </c>
       <c r="C107">
         <v>45</v>
@@ -5528,8 +6590,8 @@
       <c r="E107">
         <v>48</v>
       </c>
-      <c r="F107" t="str">
-        <v>0.94</v>
+      <c r="F107" t="s">
+        <v>226</v>
       </c>
       <c r="G107">
         <v>19</v>
@@ -5559,12 +6621,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="str">
-        <v>AKKJPZ</v>
-      </c>
-      <c r="B108" t="str">
-        <v>EPCarbonara</v>
+    <row r="108" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" t="s">
+        <v>228</v>
       </c>
       <c r="C108">
         <v>14</v>
@@ -5575,8 +6637,8 @@
       <c r="E108">
         <v>15</v>
       </c>
-      <c r="F108" t="str">
-        <v>0.93</v>
+      <c r="F108" t="s">
+        <v>229</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -5606,12 +6668,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="str">
-        <v>Julusie</v>
-      </c>
-      <c r="B109" t="str">
-        <v>6julus9</v>
+    <row r="109" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>83</v>
+      </c>
+      <c r="B109" t="s">
+        <v>230</v>
       </c>
       <c r="C109">
         <v>47</v>
@@ -5622,8 +6684,8 @@
       <c r="E109">
         <v>51</v>
       </c>
-      <c r="F109" t="str">
-        <v>0.92</v>
+      <c r="F109" t="s">
+        <v>231</v>
       </c>
       <c r="G109">
         <v>21</v>
@@ -5653,12 +6715,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="str">
-        <v>Connector Players</v>
-      </c>
-      <c r="B110" t="str">
-        <v>Fisze</v>
+    <row r="110" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>232</v>
       </c>
       <c r="C110">
         <v>46</v>
@@ -5669,8 +6731,8 @@
       <c r="E110">
         <v>50</v>
       </c>
-      <c r="F110" t="str">
-        <v>0.92</v>
+      <c r="F110" t="s">
+        <v>231</v>
       </c>
       <c r="G110">
         <v>17</v>
@@ -5700,12 +6762,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="str">
-        <v>Los Defectos</v>
-      </c>
-      <c r="B111" t="str">
-        <v>fiji___</v>
+    <row r="111" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>169</v>
+      </c>
+      <c r="B111" t="s">
+        <v>233</v>
       </c>
       <c r="C111">
         <v>55</v>
@@ -5716,8 +6778,8 @@
       <c r="E111">
         <v>60</v>
       </c>
-      <c r="F111" t="str">
-        <v>0.92</v>
+      <c r="F111" t="s">
+        <v>231</v>
       </c>
       <c r="G111">
         <v>22</v>
@@ -5747,12 +6809,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="str">
-        <v>Wolfgang</v>
-      </c>
-      <c r="B112" t="str">
-        <v>T0B3R</v>
+    <row r="112" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>72</v>
+      </c>
+      <c r="B112" t="s">
+        <v>234</v>
       </c>
       <c r="C112">
         <v>45</v>
@@ -5763,8 +6825,8 @@
       <c r="E112">
         <v>50</v>
       </c>
-      <c r="F112" t="str">
-        <v>0.90</v>
+      <c r="F112" t="s">
+        <v>235</v>
       </c>
       <c r="G112">
         <v>12</v>
@@ -5794,12 +6856,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="str">
-        <v>Fikuśny Gaming</v>
-      </c>
-      <c r="B113" t="str">
-        <v>Robcio76</v>
+    <row r="113" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>58</v>
+      </c>
+      <c r="B113" t="s">
+        <v>236</v>
       </c>
       <c r="C113">
         <v>104</v>
@@ -5810,8 +6872,8 @@
       <c r="E113">
         <v>170</v>
       </c>
-      <c r="F113" t="str">
-        <v>0.61</v>
+      <c r="F113" t="s">
+        <v>237</v>
       </c>
       <c r="G113">
         <v>16</v>
@@ -5850,12 +6912,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="str">
-        <v>Warzywka</v>
-      </c>
-      <c r="B114" t="str">
-        <v>LordJurkon</v>
+    <row r="114" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>74</v>
+      </c>
+      <c r="B114" t="s">
+        <v>238</v>
       </c>
       <c r="C114">
         <v>28</v>
@@ -5866,8 +6928,8 @@
       <c r="E114">
         <v>45</v>
       </c>
-      <c r="F114" t="str">
-        <v>0.62</v>
+      <c r="F114" t="s">
+        <v>239</v>
       </c>
       <c r="G114">
         <v>4</v>
@@ -5897,12 +6959,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="str">
-        <v>FF Team</v>
-      </c>
-      <c r="B115" t="str">
-        <v>yebac_psy</v>
+    <row r="115" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>56</v>
+      </c>
+      <c r="B115" t="s">
+        <v>240</v>
       </c>
       <c r="C115">
         <v>54</v>
@@ -5913,8 +6975,8 @@
       <c r="E115">
         <v>61</v>
       </c>
-      <c r="F115" t="str">
-        <v>0.89</v>
+      <c r="F115" t="s">
+        <v>241</v>
       </c>
       <c r="G115">
         <v>20</v>
@@ -5944,12 +7006,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="str">
-        <v>Polonia Napleton</v>
-      </c>
-      <c r="B116" t="str">
-        <v>Breslau_</v>
+    <row r="116" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>66</v>
+      </c>
+      <c r="B116" t="s">
+        <v>242</v>
       </c>
       <c r="C116">
         <v>60</v>
@@ -5960,8 +7022,8 @@
       <c r="E116">
         <v>77</v>
       </c>
-      <c r="F116" t="str">
-        <v>0.78</v>
+      <c r="F116" t="s">
+        <v>243</v>
       </c>
       <c r="G116">
         <v>15</v>
@@ -5991,12 +7053,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="str">
-        <v>de_presja</v>
-      </c>
-      <c r="B117" t="str">
-        <v>arabinho15</v>
+    <row r="117" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>92</v>
+      </c>
+      <c r="B117" t="s">
+        <v>244</v>
       </c>
       <c r="C117">
         <v>44</v>
@@ -6007,8 +7069,8 @@
       <c r="E117">
         <v>51</v>
       </c>
-      <c r="F117" t="str">
-        <v>0.86</v>
+      <c r="F117" t="s">
+        <v>245</v>
       </c>
       <c r="G117">
         <v>21</v>
@@ -6038,12 +7100,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="str">
-        <v>Polonia Napleton</v>
-      </c>
-      <c r="B118" t="str">
-        <v>EndoJD</v>
+    <row r="118" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>66</v>
+      </c>
+      <c r="B118" t="s">
+        <v>246</v>
       </c>
       <c r="C118">
         <v>56</v>
@@ -6054,8 +7116,8 @@
       <c r="E118">
         <v>73</v>
       </c>
-      <c r="F118" t="str">
-        <v>0.77</v>
+      <c r="F118" t="s">
+        <v>247</v>
       </c>
       <c r="G118">
         <v>22</v>
@@ -6085,12 +7147,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="str">
-        <v>Los Defectos</v>
-      </c>
-      <c r="B119" t="str">
-        <v>Sciudi</v>
+    <row r="119" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>169</v>
+      </c>
+      <c r="B119" t="s">
+        <v>248</v>
       </c>
       <c r="C119">
         <v>48</v>
@@ -6101,8 +7163,8 @@
       <c r="E119">
         <v>57</v>
       </c>
-      <c r="F119" t="str">
-        <v>0.84</v>
+      <c r="F119" t="s">
+        <v>249</v>
       </c>
       <c r="G119">
         <v>16</v>
@@ -6132,12 +7194,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="str">
-        <v>Inshallah</v>
-      </c>
-      <c r="B120" t="str">
-        <v>peczu123</v>
+    <row r="120" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120" t="s">
+        <v>250</v>
       </c>
       <c r="C120">
         <v>30</v>
@@ -6148,8 +7210,8 @@
       <c r="E120">
         <v>36</v>
       </c>
-      <c r="F120" t="str">
-        <v>0.83</v>
+      <c r="F120" t="s">
+        <v>251</v>
       </c>
       <c r="G120">
         <v>21</v>
@@ -6179,12 +7241,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="str">
-        <v>Kongelig Leverig</v>
-      </c>
-      <c r="B121" t="str">
-        <v>_Righty_</v>
+    <row r="121" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>38</v>
+      </c>
+      <c r="B121" t="s">
+        <v>252</v>
       </c>
       <c r="C121">
         <v>24</v>
@@ -6195,8 +7257,8 @@
       <c r="E121">
         <v>29</v>
       </c>
-      <c r="F121" t="str">
-        <v>0.83</v>
+      <c r="F121" t="s">
+        <v>251</v>
       </c>
       <c r="G121">
         <v>11</v>
@@ -6226,12 +7288,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="str">
-        <v>KARGONELLO</v>
-      </c>
-      <c r="B122" t="str">
-        <v>Ogon__</v>
+    <row r="122" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>64</v>
+      </c>
+      <c r="B122" t="s">
+        <v>253</v>
       </c>
       <c r="C122">
         <v>47</v>
@@ -6242,8 +7304,8 @@
       <c r="E122">
         <v>57</v>
       </c>
-      <c r="F122" t="str">
-        <v>0.82</v>
+      <c r="F122" t="s">
+        <v>254</v>
       </c>
       <c r="G122">
         <v>17</v>
@@ -6273,12 +7335,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="str">
-        <v>Los Defectos</v>
-      </c>
-      <c r="B123" t="str">
-        <v>103adam</v>
+    <row r="123" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>169</v>
+      </c>
+      <c r="B123" t="s">
+        <v>255</v>
       </c>
       <c r="C123">
         <v>46</v>
@@ -6289,8 +7351,8 @@
       <c r="E123">
         <v>56</v>
       </c>
-      <c r="F123" t="str">
-        <v>0.82</v>
+      <c r="F123" t="s">
+        <v>254</v>
       </c>
       <c r="G123">
         <v>16</v>
@@ -6320,12 +7382,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="str">
-        <v>Brazylisjkie Kasztany</v>
-      </c>
-      <c r="B124" t="str">
-        <v>_BushMan_</v>
+    <row r="124" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>118</v>
+      </c>
+      <c r="B124" t="s">
+        <v>256</v>
       </c>
       <c r="C124">
         <v>41</v>
@@ -6336,8 +7398,8 @@
       <c r="E124">
         <v>50</v>
       </c>
-      <c r="F124" t="str">
-        <v>0.82</v>
+      <c r="F124" t="s">
+        <v>254</v>
       </c>
       <c r="G124">
         <v>9</v>
@@ -6367,12 +7429,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="str">
-        <v>Polonia Napleton</v>
-      </c>
-      <c r="B125" t="str">
-        <v>MiresPL</v>
+    <row r="125" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>66</v>
+      </c>
+      <c r="B125" t="s">
+        <v>257</v>
       </c>
       <c r="C125">
         <v>61</v>
@@ -6383,8 +7445,8 @@
       <c r="E125">
         <v>79</v>
       </c>
-      <c r="F125" t="str">
-        <v>0.77</v>
+      <c r="F125" t="s">
+        <v>247</v>
       </c>
       <c r="G125">
         <v>19</v>
@@ -6414,12 +7476,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="str">
-        <v>CJ DOGS</v>
-      </c>
-      <c r="B126" t="str">
-        <v>tatapiotr</v>
+    <row r="126" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>189</v>
+      </c>
+      <c r="B126" t="s">
+        <v>258</v>
       </c>
       <c r="C126">
         <v>38</v>
@@ -6430,8 +7492,8 @@
       <c r="E126">
         <v>47</v>
       </c>
-      <c r="F126" t="str">
-        <v>0.81</v>
+      <c r="F126" t="s">
+        <v>259</v>
       </c>
       <c r="G126">
         <v>11</v>
@@ -6461,12 +7523,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="str">
-        <v>Smolas</v>
-      </c>
-      <c r="B127" t="str">
-        <v>bobiszone</v>
+    <row r="127" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>70</v>
+      </c>
+      <c r="B127" t="s">
+        <v>260</v>
       </c>
       <c r="C127">
         <v>46</v>
@@ -6477,8 +7539,8 @@
       <c r="E127">
         <v>57</v>
       </c>
-      <c r="F127" t="str">
-        <v>0.81</v>
+      <c r="F127" t="s">
+        <v>259</v>
       </c>
       <c r="G127">
         <v>11</v>
@@ -6508,12 +7570,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="str">
-        <v>Kongelig Leverig</v>
-      </c>
-      <c r="B128" t="str">
-        <v xml:space="preserve"> qksn</v>
+    <row r="128" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>38</v>
+      </c>
+      <c r="B128" t="s">
+        <v>261</v>
       </c>
       <c r="C128">
         <v>25</v>
@@ -6524,8 +7586,8 @@
       <c r="E128">
         <v>31</v>
       </c>
-      <c r="F128" t="str">
-        <v>0.81</v>
+      <c r="F128" t="s">
+        <v>259</v>
       </c>
       <c r="G128">
         <v>14</v>
@@ -6555,12 +7617,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="str">
-        <v>KARGONELLO</v>
-      </c>
-      <c r="B129" t="str">
-        <v>luzny_1</v>
+    <row r="129" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>64</v>
+      </c>
+      <c r="B129" t="s">
+        <v>262</v>
       </c>
       <c r="C129">
         <v>31</v>
@@ -6571,8 +7633,8 @@
       <c r="E129">
         <v>39</v>
       </c>
-      <c r="F129" t="str">
-        <v>0.79</v>
+      <c r="F129" t="s">
+        <v>263</v>
       </c>
       <c r="G129">
         <v>15</v>
@@ -6602,12 +7664,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="str">
-        <v>Kongelig Leverig</v>
-      </c>
-      <c r="B130" t="str">
-        <v>Opel_cors_a</v>
+    <row r="130" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>38</v>
+      </c>
+      <c r="B130" t="s">
+        <v>264</v>
       </c>
       <c r="C130">
         <v>23</v>
@@ -6618,8 +7680,8 @@
       <c r="E130">
         <v>29</v>
       </c>
-      <c r="F130" t="str">
-        <v>0.79</v>
+      <c r="F130" t="s">
+        <v>263</v>
       </c>
       <c r="G130">
         <v>13</v>
@@ -6649,12 +7711,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="str">
-        <v>AKKJPZ</v>
-      </c>
-      <c r="B131" t="str">
-        <v>GoFrYy</v>
+    <row r="131" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>113</v>
+      </c>
+      <c r="B131" t="s">
+        <v>265</v>
       </c>
       <c r="C131">
         <v>42</v>
@@ -6665,8 +7727,8 @@
       <c r="E131">
         <v>53</v>
       </c>
-      <c r="F131" t="str">
-        <v>0.79</v>
+      <c r="F131" t="s">
+        <v>263</v>
       </c>
       <c r="G131">
         <v>12</v>
@@ -6696,12 +7758,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="str">
-        <v>Ribbi</v>
-      </c>
-      <c r="B132" t="str">
-        <v>SajmoN-_-</v>
+    <row r="132" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>68</v>
+      </c>
+      <c r="B132" t="s">
+        <v>266</v>
       </c>
       <c r="C132">
         <v>30</v>
@@ -6712,8 +7774,8 @@
       <c r="E132">
         <v>38</v>
       </c>
-      <c r="F132" t="str">
-        <v>0.79</v>
+      <c r="F132" t="s">
+        <v>263</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -6743,12 +7805,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="str">
-        <v>Quantity team</v>
-      </c>
-      <c r="B133" t="str">
-        <v>czarnybajcek</v>
+    <row r="133" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>104</v>
+      </c>
+      <c r="B133" t="s">
+        <v>267</v>
       </c>
       <c r="C133">
         <v>11</v>
@@ -6759,8 +7821,8 @@
       <c r="E133">
         <v>14</v>
       </c>
-      <c r="F133" t="str">
-        <v>0.79</v>
+      <c r="F133" t="s">
+        <v>263</v>
       </c>
       <c r="G133">
         <v>11</v>
@@ -6790,12 +7852,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="str">
-        <v>Quantity team</v>
-      </c>
-      <c r="B134" t="str">
-        <v>HEEDOoficial</v>
+    <row r="134" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>104</v>
+      </c>
+      <c r="B134" t="s">
+        <v>268</v>
       </c>
       <c r="C134">
         <v>14</v>
@@ -6806,8 +7868,8 @@
       <c r="E134">
         <v>18</v>
       </c>
-      <c r="F134" t="str">
-        <v>0.78</v>
+      <c r="F134" t="s">
+        <v>243</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -6837,12 +7899,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="str">
-        <v>CJ DOGS</v>
-      </c>
-      <c r="B135" t="str">
-        <v>DZREWOPL</v>
+    <row r="135" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>189</v>
+      </c>
+      <c r="B135" t="s">
+        <v>269</v>
       </c>
       <c r="C135">
         <v>37</v>
@@ -6853,8 +7915,8 @@
       <c r="E135">
         <v>48</v>
       </c>
-      <c r="F135" t="str">
-        <v>0.77</v>
+      <c r="F135" t="s">
+        <v>247</v>
       </c>
       <c r="G135">
         <v>9</v>
@@ -6884,12 +7946,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="str">
-        <v>Charakterni</v>
-      </c>
-      <c r="B136" t="str">
-        <v>jastrzab23</v>
+    <row r="136" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>52</v>
+      </c>
+      <c r="B136" t="s">
+        <v>270</v>
       </c>
       <c r="C136">
         <v>41</v>
@@ -6900,8 +7962,8 @@
       <c r="E136">
         <v>54</v>
       </c>
-      <c r="F136" t="str">
-        <v>0.76</v>
+      <c r="F136" t="s">
+        <v>271</v>
       </c>
       <c r="G136">
         <v>6</v>
@@ -6931,12 +7993,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="str">
-        <v>Aspoleczne Simpy Balladyny Esports</v>
-      </c>
-      <c r="B137" t="str">
-        <v>Krzycho2000</v>
+    <row r="137" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>50</v>
+      </c>
+      <c r="B137" t="s">
+        <v>272</v>
       </c>
       <c r="C137">
         <v>36</v>
@@ -6947,8 +8009,8 @@
       <c r="E137">
         <v>48</v>
       </c>
-      <c r="F137" t="str">
-        <v>0.75</v>
+      <c r="F137" t="s">
+        <v>273</v>
       </c>
       <c r="G137">
         <v>9</v>
@@ -6978,12 +8040,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="str">
-        <v>Ribbi</v>
-      </c>
-      <c r="B138" t="str">
-        <v>miensyjerz</v>
+    <row r="138" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>68</v>
+      </c>
+      <c r="B138" t="s">
+        <v>274</v>
       </c>
       <c r="C138">
         <v>27</v>
@@ -6994,8 +8056,8 @@
       <c r="E138">
         <v>36</v>
       </c>
-      <c r="F138" t="str">
-        <v>0.75</v>
+      <c r="F138" t="s">
+        <v>273</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -7025,12 +8087,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="str">
-        <v>Bomble Bombla Juniora-B-BJ</v>
-      </c>
-      <c r="B139" t="str">
-        <v>Vikoos</v>
+    <row r="139" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>36</v>
+      </c>
+      <c r="B139" t="s">
+        <v>275</v>
       </c>
       <c r="C139">
         <v>14</v>
@@ -7041,8 +8103,8 @@
       <c r="E139">
         <v>19</v>
       </c>
-      <c r="F139" t="str">
-        <v>0.74</v>
+      <c r="F139" t="s">
+        <v>276</v>
       </c>
       <c r="G139">
         <v>10</v>
@@ -7072,12 +8134,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="str">
-        <v>Sneaky Inters</v>
-      </c>
-      <c r="B140" t="str">
-        <v>slodkakasia</v>
+    <row r="140" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>182</v>
+      </c>
+      <c r="B140" t="s">
+        <v>277</v>
       </c>
       <c r="C140">
         <v>53</v>
@@ -7088,8 +8150,8 @@
       <c r="E140">
         <v>72</v>
       </c>
-      <c r="F140" t="str">
-        <v>0.74</v>
+      <c r="F140" t="s">
+        <v>276</v>
       </c>
       <c r="G140">
         <v>12</v>
@@ -7119,12 +8181,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="str">
-        <v>Ribbi</v>
-      </c>
-      <c r="B141" t="str">
-        <v>ToNieYxa</v>
+    <row r="141" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>68</v>
+      </c>
+      <c r="B141" t="s">
+        <v>278</v>
       </c>
       <c r="C141">
         <v>43</v>
@@ -7135,8 +8197,8 @@
       <c r="E141">
         <v>59</v>
       </c>
-      <c r="F141" t="str">
-        <v>0.73</v>
+      <c r="F141" t="s">
+        <v>279</v>
       </c>
       <c r="G141">
         <v>10</v>
@@ -7166,12 +8228,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="str">
-        <v>Charakterni</v>
-      </c>
-      <c r="B142" t="str">
-        <v>Amabro</v>
+    <row r="142" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>52</v>
+      </c>
+      <c r="B142" t="s">
+        <v>280</v>
       </c>
       <c r="C142">
         <v>40</v>
@@ -7182,8 +8244,8 @@
       <c r="E142">
         <v>55</v>
       </c>
-      <c r="F142" t="str">
-        <v>0.73</v>
+      <c r="F142" t="s">
+        <v>279</v>
       </c>
       <c r="G142">
         <v>12</v>
@@ -7213,12 +8275,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="str">
-        <v>Quantity team</v>
-      </c>
-      <c r="B143" t="str">
-        <v>maks3lo</v>
+    <row r="143" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>104</v>
+      </c>
+      <c r="B143" t="s">
+        <v>281</v>
       </c>
       <c r="C143">
         <v>21</v>
@@ -7229,8 +8291,8 @@
       <c r="E143">
         <v>29</v>
       </c>
-      <c r="F143" t="str">
-        <v>0.72</v>
+      <c r="F143" t="s">
+        <v>282</v>
       </c>
       <c r="G143">
         <v>17</v>
@@ -7260,12 +8322,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="str">
-        <v>Connector Players</v>
-      </c>
-      <c r="B144" t="str">
-        <v>Tomeczek_217</v>
+    <row r="144" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>109</v>
+      </c>
+      <c r="B144" t="s">
+        <v>283</v>
       </c>
       <c r="C144">
         <v>41</v>
@@ -7276,8 +8338,8 @@
       <c r="E144">
         <v>57</v>
       </c>
-      <c r="F144" t="str">
-        <v>0.72</v>
+      <c r="F144" t="s">
+        <v>282</v>
       </c>
       <c r="G144">
         <v>12</v>
@@ -7307,12 +8369,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="str">
-        <v>Ribbi</v>
-      </c>
-      <c r="B145" t="str">
-        <v>___Mat_</v>
+    <row r="145" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>68</v>
+      </c>
+      <c r="B145" t="s">
+        <v>284</v>
       </c>
       <c r="C145">
         <v>36</v>
@@ -7323,8 +8385,8 @@
       <c r="E145">
         <v>51</v>
       </c>
-      <c r="F145" t="str">
-        <v>0.71</v>
+      <c r="F145" t="s">
+        <v>285</v>
       </c>
       <c r="G145">
         <v>17</v>
@@ -7354,12 +8416,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="str">
-        <v>AKKJPZ</v>
-      </c>
-      <c r="B146" t="str">
-        <v>Tengli</v>
+    <row r="146" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>113</v>
+      </c>
+      <c r="B146" t="s">
+        <v>286</v>
       </c>
       <c r="C146">
         <v>24</v>
@@ -7370,8 +8432,8 @@
       <c r="E146">
         <v>34</v>
       </c>
-      <c r="F146" t="str">
-        <v>0.71</v>
+      <c r="F146" t="s">
+        <v>285</v>
       </c>
       <c r="G146">
         <v>8</v>
@@ -7401,12 +8463,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="str">
-        <v>de_presja</v>
-      </c>
-      <c r="B147" t="str">
-        <v>Kocham_ciee</v>
+    <row r="147" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>92</v>
+      </c>
+      <c r="B147" t="s">
+        <v>287</v>
       </c>
       <c r="C147">
         <v>37</v>
@@ -7417,8 +8479,8 @@
       <c r="E147">
         <v>53</v>
       </c>
-      <c r="F147" t="str">
-        <v>0.70</v>
+      <c r="F147" t="s">
+        <v>288</v>
       </c>
       <c r="G147">
         <v>15</v>
@@ -7448,12 +8510,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="str">
-        <v>AKKJPZ</v>
-      </c>
-      <c r="B148" t="str">
-        <v>Tomon080</v>
+    <row r="148" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>113</v>
+      </c>
+      <c r="B148" t="s">
+        <v>289</v>
       </c>
       <c r="C148">
         <v>34</v>
@@ -7464,8 +8526,8 @@
       <c r="E148">
         <v>49</v>
       </c>
-      <c r="F148" t="str">
-        <v>0.69</v>
+      <c r="F148" t="s">
+        <v>290</v>
       </c>
       <c r="G148">
         <v>14</v>
@@ -7495,12 +8557,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="str">
-        <v>Sneaky Inters</v>
-      </c>
-      <c r="B149" t="str">
-        <v>Af3ra</v>
+    <row r="149" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>182</v>
+      </c>
+      <c r="B149" t="s">
+        <v>291</v>
       </c>
       <c r="C149">
         <v>47</v>
@@ -7511,8 +8573,8 @@
       <c r="E149">
         <v>68</v>
       </c>
-      <c r="F149" t="str">
-        <v>0.69</v>
+      <c r="F149" t="s">
+        <v>290</v>
       </c>
       <c r="G149">
         <v>9</v>
@@ -7542,12 +8604,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="str">
-        <v>Wolfgang</v>
-      </c>
-      <c r="B150" t="str">
-        <v>s1r_Avocado</v>
+    <row r="150" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>72</v>
+      </c>
+      <c r="B150" t="s">
+        <v>292</v>
       </c>
       <c r="C150">
         <v>33</v>
@@ -7558,8 +8620,8 @@
       <c r="E150">
         <v>48</v>
       </c>
-      <c r="F150" t="str">
-        <v>0.69</v>
+      <c r="F150" t="s">
+        <v>290</v>
       </c>
       <c r="G150">
         <v>12</v>
@@ -7589,12 +8651,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="str">
-        <v>Gmina Czarków</v>
-      </c>
-      <c r="B151" t="str">
-        <v>FlyingCowPL</v>
+    <row r="151" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>201</v>
+      </c>
+      <c r="B151" t="s">
+        <v>293</v>
       </c>
       <c r="C151">
         <v>26</v>
@@ -7605,8 +8667,8 @@
       <c r="E151">
         <v>39</v>
       </c>
-      <c r="F151" t="str">
-        <v>0.67</v>
+      <c r="F151" t="s">
+        <v>294</v>
       </c>
       <c r="G151">
         <v>11</v>
@@ -7636,12 +8698,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="str">
-        <v>Los Defectos</v>
-      </c>
-      <c r="B152" t="str">
-        <v>17Zwola17</v>
+    <row r="152" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>169</v>
+      </c>
+      <c r="B152" t="s">
+        <v>295</v>
       </c>
       <c r="C152">
         <v>14</v>
@@ -7652,8 +8714,8 @@
       <c r="E152">
         <v>21</v>
       </c>
-      <c r="F152" t="str">
-        <v>0.67</v>
+      <c r="F152" t="s">
+        <v>294</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -7683,12 +8745,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="str">
-        <v>CJ DOGS</v>
-      </c>
-      <c r="B153" t="str">
-        <v>Gromik12213</v>
+    <row r="153" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>189</v>
+      </c>
+      <c r="B153" t="s">
+        <v>296</v>
       </c>
       <c r="C153">
         <v>23</v>
@@ -7699,8 +8761,8 @@
       <c r="E153">
         <v>35</v>
       </c>
-      <c r="F153" t="str">
-        <v>0.66</v>
+      <c r="F153" t="s">
+        <v>297</v>
       </c>
       <c r="G153">
         <v>13</v>
@@ -7730,12 +8792,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="str">
-        <v>Esconda 99</v>
-      </c>
-      <c r="B154" t="str">
-        <v>guma durex</v>
+    <row r="154" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>47</v>
+      </c>
+      <c r="B154" t="s">
+        <v>298</v>
       </c>
       <c r="C154">
         <v>17</v>
@@ -7746,8 +8808,8 @@
       <c r="E154">
         <v>26</v>
       </c>
-      <c r="F154" t="str">
-        <v>0.65</v>
+      <c r="F154" t="s">
+        <v>197</v>
       </c>
       <c r="G154">
         <v>5</v>
@@ -7777,12 +8839,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="str">
-        <v>FF Team</v>
-      </c>
-      <c r="B155" t="str">
-        <v>YkkaAsfeo</v>
+    <row r="155" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>56</v>
+      </c>
+      <c r="B155" t="s">
+        <v>299</v>
       </c>
       <c r="C155">
         <v>43</v>
@@ -7793,8 +8855,8 @@
       <c r="E155">
         <v>66</v>
       </c>
-      <c r="F155" t="str">
-        <v>0.65</v>
+      <c r="F155" t="s">
+        <v>197</v>
       </c>
       <c r="G155">
         <v>15</v>
@@ -7824,12 +8886,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="str">
-        <v>FireEagles</v>
-      </c>
-      <c r="B156" t="str">
-        <v>PieZ__</v>
+    <row r="156" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>141</v>
+      </c>
+      <c r="B156" t="s">
+        <v>300</v>
       </c>
       <c r="C156">
         <v>7</v>
@@ -7840,8 +8902,8 @@
       <c r="E156">
         <v>11</v>
       </c>
-      <c r="F156" t="str">
-        <v>0.64</v>
+      <c r="F156" t="s">
+        <v>301</v>
       </c>
       <c r="G156">
         <v>7</v>
@@ -7871,12 +8933,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="str">
-        <v>Bomble Bombla Juniora-B-BJ</v>
-      </c>
-      <c r="B157" t="str">
-        <v>gucioM</v>
+    <row r="157" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>36</v>
+      </c>
+      <c r="B157" t="s">
+        <v>302</v>
       </c>
       <c r="C157">
         <v>15</v>
@@ -7887,8 +8949,8 @@
       <c r="E157">
         <v>24</v>
       </c>
-      <c r="F157" t="str">
-        <v>0.63</v>
+      <c r="F157" t="s">
+        <v>303</v>
       </c>
       <c r="G157">
         <v>11</v>
@@ -7918,12 +8980,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="str">
-        <v>Esconda 99</v>
-      </c>
-      <c r="B158" t="str">
-        <v>majkel_MP3</v>
+    <row r="158" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>47</v>
+      </c>
+      <c r="B158" t="s">
+        <v>304</v>
       </c>
       <c r="C158">
         <v>19</v>
@@ -7934,8 +8996,8 @@
       <c r="E158">
         <v>31</v>
       </c>
-      <c r="F158" t="str">
-        <v>0.61</v>
+      <c r="F158" t="s">
+        <v>237</v>
       </c>
       <c r="G158">
         <v>9</v>
@@ -7965,12 +9027,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="str">
-        <v>FULL BOLID</v>
-      </c>
-      <c r="B159" t="str">
-        <v>4VOCADOM4N</v>
+    <row r="159" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>60</v>
+      </c>
+      <c r="B159" t="s">
+        <v>305</v>
       </c>
       <c r="C159">
         <v>92</v>
@@ -7981,8 +9043,8 @@
       <c r="E159">
         <v>170</v>
       </c>
-      <c r="F159" t="str">
-        <v>0.54</v>
+      <c r="F159" t="s">
+        <v>306</v>
       </c>
       <c r="G159">
         <v>10</v>
@@ -8021,12 +9083,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="str">
-        <v>Ribbi</v>
-      </c>
-      <c r="B160" t="str">
-        <v>_Johnny_14</v>
+    <row r="160" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>68</v>
+      </c>
+      <c r="B160" t="s">
+        <v>307</v>
       </c>
       <c r="C160">
         <v>33</v>
@@ -8037,8 +9099,8 @@
       <c r="E160">
         <v>54</v>
       </c>
-      <c r="F160" t="str">
-        <v>0.61</v>
+      <c r="F160" t="s">
+        <v>237</v>
       </c>
       <c r="G160">
         <v>12</v>
@@ -8068,12 +9130,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="str">
-        <v>Esconda 99</v>
-      </c>
-      <c r="B161" t="str">
-        <v>styblinez</v>
+    <row r="161" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>47</v>
+      </c>
+      <c r="B161" t="s">
+        <v>308</v>
       </c>
       <c r="C161">
         <v>11</v>
@@ -8084,8 +9146,8 @@
       <c r="E161">
         <v>18</v>
       </c>
-      <c r="F161" t="str">
-        <v>0.61</v>
+      <c r="F161" t="s">
+        <v>237</v>
       </c>
       <c r="G161">
         <v>10</v>
@@ -8115,12 +9177,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="str">
-        <v>DJ, Drużyna z Jeziora</v>
-      </c>
-      <c r="B162" t="str">
-        <v>Lonley7</v>
+    <row r="162" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>54</v>
+      </c>
+      <c r="B162" t="s">
+        <v>309</v>
       </c>
       <c r="C162">
         <v>41</v>
@@ -8131,8 +9193,8 @@
       <c r="E162">
         <v>68</v>
       </c>
-      <c r="F162" t="str">
-        <v>0.60</v>
+      <c r="F162" t="s">
+        <v>310</v>
       </c>
       <c r="G162">
         <v>6</v>
@@ -8162,12 +9224,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="str">
-        <v>CJ DOGS</v>
-      </c>
-      <c r="B163" t="str">
-        <v>skaM43_</v>
+    <row r="163" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>189</v>
+      </c>
+      <c r="B163" t="s">
+        <v>311</v>
       </c>
       <c r="C163">
         <v>27</v>
@@ -8178,8 +9240,8 @@
       <c r="E163">
         <v>45</v>
       </c>
-      <c r="F163" t="str">
-        <v>0.60</v>
+      <c r="F163" t="s">
+        <v>310</v>
       </c>
       <c r="G163">
         <v>7</v>
@@ -8209,12 +9271,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="str">
-        <v>Warzywka</v>
-      </c>
-      <c r="B164" t="str">
-        <v>zaleszczakk</v>
+    <row r="164" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>74</v>
+      </c>
+      <c r="B164" t="s">
+        <v>312</v>
       </c>
       <c r="C164">
         <v>19</v>
@@ -8225,8 +9287,8 @@
       <c r="E164">
         <v>38</v>
       </c>
-      <c r="F164" t="str">
-        <v>0.50</v>
+      <c r="F164" t="s">
+        <v>313</v>
       </c>
       <c r="G164">
         <v>8</v>
@@ -8256,12 +9318,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="str">
-        <v>CJ DOGS</v>
-      </c>
-      <c r="B165" t="str">
-        <v>Vajking_</v>
+    <row r="165" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>189</v>
+      </c>
+      <c r="B165" t="s">
+        <v>314</v>
       </c>
       <c r="C165">
         <v>9</v>
@@ -8272,8 +9334,8 @@
       <c r="E165">
         <v>16</v>
       </c>
-      <c r="F165" t="str">
-        <v>0.56</v>
+      <c r="F165" t="s">
+        <v>315</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -8303,12 +9365,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="str">
-        <v>Brazylisjkie Kasztany</v>
-      </c>
-      <c r="B166" t="str">
-        <v>SENTER_</v>
+    <row r="166" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>118</v>
+      </c>
+      <c r="B166" t="s">
+        <v>316</v>
       </c>
       <c r="C166">
         <v>31</v>
@@ -8319,8 +9381,8 @@
       <c r="E166">
         <v>56</v>
       </c>
-      <c r="F166" t="str">
-        <v>0.55</v>
+      <c r="F166" t="s">
+        <v>317</v>
       </c>
       <c r="G166">
         <v>8</v>
@@ -8350,12 +9412,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="str">
-        <v>Gmina Czarków</v>
-      </c>
-      <c r="B167" t="str">
-        <v>nedZiu04</v>
+    <row r="167" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>201</v>
+      </c>
+      <c r="B167" t="s">
+        <v>318</v>
       </c>
       <c r="C167">
         <v>21</v>
@@ -8366,8 +9428,8 @@
       <c r="E167">
         <v>38</v>
       </c>
-      <c r="F167" t="str">
-        <v>0.55</v>
+      <c r="F167" t="s">
+        <v>317</v>
       </c>
       <c r="G167">
         <v>5</v>
@@ -8397,12 +9459,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="str">
-        <v>Aspoleczne Simpy Balladyny Esports</v>
-      </c>
-      <c r="B168" t="str">
-        <v>eliminer_1</v>
+    <row r="168" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>50</v>
+      </c>
+      <c r="B168" t="s">
+        <v>319</v>
       </c>
       <c r="C168">
         <v>28</v>
@@ -8413,8 +9475,8 @@
       <c r="E168">
         <v>51</v>
       </c>
-      <c r="F168" t="str">
-        <v>0.55</v>
+      <c r="F168" t="s">
+        <v>317</v>
       </c>
       <c r="G168">
         <v>11</v>
@@ -8444,12 +9506,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="str">
-        <v>Charakterni</v>
-      </c>
-      <c r="B169" t="str">
-        <v>faFIQ</v>
+    <row r="169" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>52</v>
+      </c>
+      <c r="B169" t="s">
+        <v>320</v>
       </c>
       <c r="C169">
         <v>30</v>
@@ -8460,8 +9522,8 @@
       <c r="E169">
         <v>55</v>
       </c>
-      <c r="F169" t="str">
-        <v>0.55</v>
+      <c r="F169" t="s">
+        <v>317</v>
       </c>
       <c r="G169">
         <v>7</v>
@@ -8491,12 +9553,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="str">
-        <v>DJ, Drużyna z Jeziora</v>
-      </c>
-      <c r="B170" t="str">
-        <v>vixsemty</v>
+    <row r="170" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>54</v>
+      </c>
+      <c r="B170" t="s">
+        <v>321</v>
       </c>
       <c r="C170">
         <v>38</v>
@@ -8507,8 +9569,8 @@
       <c r="E170">
         <v>70</v>
       </c>
-      <c r="F170" t="str">
-        <v>0.54</v>
+      <c r="F170" t="s">
+        <v>306</v>
       </c>
       <c r="G170">
         <v>7</v>
@@ -8538,12 +9600,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="str">
-        <v>Quantity team</v>
-      </c>
-      <c r="B171" t="str">
-        <v>mehow_god</v>
+    <row r="171" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>104</v>
+      </c>
+      <c r="B171" t="s">
+        <v>322</v>
       </c>
       <c r="C171">
         <v>24</v>
@@ -8554,8 +9616,8 @@
       <c r="E171">
         <v>45</v>
       </c>
-      <c r="F171" t="str">
-        <v>0.53</v>
+      <c r="F171" t="s">
+        <v>323</v>
       </c>
       <c r="G171">
         <v>13</v>
@@ -8585,12 +9647,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="str">
-        <v>Connector Players</v>
-      </c>
-      <c r="B172" t="str">
-        <v>donotcrykid</v>
+    <row r="172" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>109</v>
+      </c>
+      <c r="B172" t="s">
+        <v>324</v>
       </c>
       <c r="C172">
         <v>10</v>
@@ -8601,8 +9663,8 @@
       <c r="E172">
         <v>19</v>
       </c>
-      <c r="F172" t="str">
-        <v>0.53</v>
+      <c r="F172" t="s">
+        <v>323</v>
       </c>
       <c r="G172">
         <v>10</v>
@@ -8632,12 +9694,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="str">
-        <v>Sneaky Inters</v>
-      </c>
-      <c r="B173" t="str">
-        <v>miniu187</v>
+    <row r="173" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>182</v>
+      </c>
+      <c r="B173" t="s">
+        <v>325</v>
       </c>
       <c r="C173">
         <v>10</v>
@@ -8648,8 +9710,8 @@
       <c r="E173">
         <v>19</v>
       </c>
-      <c r="F173" t="str">
-        <v>0.53</v>
+      <c r="F173" t="s">
+        <v>323</v>
       </c>
       <c r="G173">
         <v>10</v>
@@ -8679,12 +9741,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="str">
-        <v>Smolas</v>
-      </c>
-      <c r="B174" t="str">
-        <v>czosneg_</v>
+    <row r="174" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>70</v>
+      </c>
+      <c r="B174" t="s">
+        <v>326</v>
       </c>
       <c r="C174">
         <v>29</v>
@@ -8695,8 +9757,8 @@
       <c r="E174">
         <v>58</v>
       </c>
-      <c r="F174" t="str">
-        <v>0.50</v>
+      <c r="F174" t="s">
+        <v>313</v>
       </c>
       <c r="G174">
         <v>13</v>
@@ -8726,12 +9788,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="str">
-        <v>de_presja</v>
-      </c>
-      <c r="B175" t="str">
-        <v>Chm0rnik</v>
+    <row r="175" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>92</v>
+      </c>
+      <c r="B175" t="s">
+        <v>327</v>
       </c>
       <c r="C175">
         <v>19</v>
@@ -8742,8 +9804,8 @@
       <c r="E175">
         <v>38</v>
       </c>
-      <c r="F175" t="str">
-        <v>0.50</v>
+      <c r="F175" t="s">
+        <v>313</v>
       </c>
       <c r="G175">
         <v>13</v>
@@ -8773,12 +9835,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="str">
-        <v>Charakterni</v>
-      </c>
-      <c r="B176" t="str">
-        <v>aeizyGod</v>
+    <row r="176" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>52</v>
+      </c>
+      <c r="B176" t="s">
+        <v>328</v>
       </c>
       <c r="C176">
         <v>18</v>
@@ -8789,8 +9851,8 @@
       <c r="E176">
         <v>38</v>
       </c>
-      <c r="F176" t="str">
-        <v>0.47</v>
+      <c r="F176" t="s">
+        <v>329</v>
       </c>
       <c r="G176">
         <v>9</v>
@@ -8820,12 +9882,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="str">
-        <v>Gmina Czarków</v>
-      </c>
-      <c r="B177" t="str">
-        <v>AK-PePe</v>
+    <row r="177" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>201</v>
+      </c>
+      <c r="B177" t="s">
+        <v>330</v>
       </c>
       <c r="C177">
         <v>17</v>
@@ -8836,8 +9898,8 @@
       <c r="E177">
         <v>37</v>
       </c>
-      <c r="F177" t="str">
-        <v>0.46</v>
+      <c r="F177" t="s">
+        <v>331</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -8867,12 +9929,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="str">
-        <v>FF Team</v>
-      </c>
-      <c r="B178" t="str">
-        <v>Slaweczuk</v>
+    <row r="178" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>56</v>
+      </c>
+      <c r="B178" t="s">
+        <v>332</v>
       </c>
       <c r="C178">
         <v>19</v>
@@ -8883,8 +9945,8 @@
       <c r="E178">
         <v>42</v>
       </c>
-      <c r="F178" t="str">
-        <v>0.45</v>
+      <c r="F178" t="s">
+        <v>333</v>
       </c>
       <c r="G178">
         <v>15</v>
@@ -8914,12 +9976,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="str">
-        <v>Smolas</v>
-      </c>
-      <c r="B179" t="str">
-        <v>quick-ass</v>
+    <row r="179" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>70</v>
+      </c>
+      <c r="B179" t="s">
+        <v>334</v>
       </c>
       <c r="C179">
         <v>28</v>
@@ -8930,8 +9992,8 @@
       <c r="E179">
         <v>63</v>
       </c>
-      <c r="F179" t="str">
-        <v>0.44</v>
+      <c r="F179" t="s">
+        <v>335</v>
       </c>
       <c r="G179">
         <v>10</v>
@@ -8961,12 +10023,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="str">
-        <v>DJ, Drużyna z Jeziora</v>
-      </c>
-      <c r="B180" t="str">
-        <v>BOTPrzemysaw</v>
+    <row r="180" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>54</v>
+      </c>
+      <c r="B180" t="s">
+        <v>336</v>
       </c>
       <c r="C180">
         <v>31</v>
@@ -8977,8 +10039,8 @@
       <c r="E180">
         <v>72</v>
       </c>
-      <c r="F180" t="str">
-        <v>0.43</v>
+      <c r="F180" t="s">
+        <v>337</v>
       </c>
       <c r="G180">
         <v>9</v>
@@ -9008,12 +10070,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="str">
-        <v>Smolas</v>
-      </c>
-      <c r="B181" t="str">
-        <v>StrongBrian</v>
+    <row r="181" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>70</v>
+      </c>
+      <c r="B181" t="s">
+        <v>338</v>
       </c>
       <c r="C181">
         <v>26</v>
@@ -9024,8 +10086,8 @@
       <c r="E181">
         <v>61</v>
       </c>
-      <c r="F181" t="str">
-        <v>0.43</v>
+      <c r="F181" t="s">
+        <v>337</v>
       </c>
       <c r="G181">
         <v>10</v>
@@ -9055,12 +10117,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="str">
-        <v>Brazylisjkie Kasztany</v>
-      </c>
-      <c r="B182" t="str">
-        <v>JanoDzik</v>
+    <row r="182" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>118</v>
+      </c>
+      <c r="B182" t="s">
+        <v>339</v>
       </c>
       <c r="C182">
         <v>6</v>
@@ -9071,8 +10133,8 @@
       <c r="E182">
         <v>16</v>
       </c>
-      <c r="F182" t="str">
-        <v>0.38</v>
+      <c r="F182" t="s">
+        <v>340</v>
       </c>
       <c r="G182">
         <v>6</v>
@@ -9102,12 +10164,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="str">
-        <v>Aspoleczne Simpy Balladyny Esports</v>
-      </c>
-      <c r="B183" t="str">
-        <v>Alanik</v>
+    <row r="183" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>50</v>
+      </c>
+      <c r="B183" t="s">
+        <v>341</v>
       </c>
       <c r="C183">
         <v>7</v>
@@ -9118,8 +10180,8 @@
       <c r="E183">
         <v>19</v>
       </c>
-      <c r="F183" t="str">
-        <v>0.37</v>
+      <c r="F183" t="s">
+        <v>342</v>
       </c>
       <c r="G183">
         <v>7</v>
@@ -9149,12 +10211,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="str">
-        <v>Esconda 99</v>
-      </c>
-      <c r="B184" t="str">
-        <v>zgniatacz0</v>
+    <row r="184" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>47</v>
+      </c>
+      <c r="B184" t="s">
+        <v>343</v>
       </c>
       <c r="C184">
         <v>7</v>
@@ -9165,8 +10227,8 @@
       <c r="E184">
         <v>19</v>
       </c>
-      <c r="F184" t="str">
-        <v>0.37</v>
+      <c r="F184" t="s">
+        <v>342</v>
       </c>
       <c r="G184">
         <v>6</v>
@@ -9196,12 +10258,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="str">
-        <v>Gmina Czarków</v>
-      </c>
-      <c r="B185" t="str">
-        <v>Ankard</v>
+    <row r="185" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>201</v>
+      </c>
+      <c r="B185" t="s">
+        <v>344</v>
       </c>
       <c r="C185">
         <v>2</v>
@@ -9212,8 +10274,8 @@
       <c r="E185">
         <v>16</v>
       </c>
-      <c r="F185" t="str">
-        <v>0.13</v>
+      <c r="F185" t="s">
+        <v>345</v>
       </c>
       <c r="G185">
         <v>-1</v>
@@ -9244,8 +10306,9 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AJ185"/>
+    <ignoredError sqref="A1:AJ1 A24:AJ185 A23:O23 Q23:AJ23 A22:O22 Q22:AJ22 A15:AJ21 A14:O14 Q14:AJ14 A3:AJ13 A2:O2 Q2:AJ2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>